--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,20 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CC510-CA6E-4CD0-AAC2-39EE3C8A2628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF08DE-180E-4B07-A3FB-23502339EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case - Persiapan" sheetId="2" r:id="rId1"/>
-    <sheet name="Traciking - Pengawasan (TSD)" sheetId="7" r:id="rId2"/>
+    <sheet name="TSD - Pengawasan" sheetId="8" r:id="rId2"/>
     <sheet name="Use Case - Pengawasan" sheetId="1" r:id="rId3"/>
     <sheet name="Use Case - Pengakhiran" sheetId="4" r:id="rId4"/>
     <sheet name="Aplikasi Tim Likuidasi" sheetId="6" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Traciking - Pengawasan (TSD)'!$C$3:$C$67</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="319">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1114,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1213,9 +1210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,6 +1236,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,12 +1249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,10 +1625,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -1648,7 +1642,7 @@
         <v>256</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>94</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -1662,8 +1656,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="26" t="s">
         <v>139</v>
       </c>
@@ -1675,7 +1669,7 @@
         <v>256</v>
       </c>
       <c r="I4" s="33"/>
-      <c r="J4" s="51"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="26" t="s">
         <v>263</v>
       </c>
@@ -1687,8 +1681,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="26" t="s">
         <v>140</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>256</v>
       </c>
       <c r="I5" s="33"/>
-      <c r="J5" s="51"/>
+      <c r="J5" s="52"/>
       <c r="K5" s="26" t="s">
         <v>265</v>
       </c>
@@ -1712,8 +1706,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="26" t="s">
         <v>141</v>
       </c>
@@ -1727,7 +1721,7 @@
         <v>300</v>
       </c>
       <c r="I6" s="33"/>
-      <c r="J6" s="51"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="26" t="s">
         <v>267</v>
       </c>
@@ -1739,8 +1733,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="26" t="s">
         <v>142</v>
       </c>
@@ -1752,7 +1746,7 @@
         <v>256</v>
       </c>
       <c r="I7" s="33"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="26" t="s">
         <v>269</v>
       </c>
@@ -1764,8 +1758,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="26" t="s">
         <v>143</v>
       </c>
@@ -1777,7 +1771,7 @@
         <v>256</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="26" t="s">
         <v>271</v>
       </c>
@@ -1789,8 +1783,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="26" t="s">
         <v>144</v>
       </c>
@@ -1802,7 +1796,7 @@
         <v>256</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="26" t="s">
         <v>273</v>
       </c>
@@ -1814,8 +1808,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="26" t="s">
         <v>145</v>
       </c>
@@ -1827,7 +1821,7 @@
         <v>256</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="26" t="s">
         <v>275</v>
       </c>
@@ -1839,8 +1833,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="26" t="s">
         <v>146</v>
       </c>
@@ -1852,7 +1846,7 @@
         <v>256</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="26" t="s">
         <v>277</v>
       </c>
@@ -1864,8 +1858,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="26" t="s">
         <v>147</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>257</v>
       </c>
       <c r="I12" s="33"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="26" t="s">
         <v>279</v>
       </c>
@@ -1889,8 +1883,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="26" t="s">
         <v>148</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>257</v>
       </c>
       <c r="I13" s="33"/>
-      <c r="J13" s="51"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="26" t="s">
         <v>279</v>
       </c>
@@ -1914,8 +1908,8 @@
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="26" t="s">
         <v>149</v>
       </c>
@@ -1927,7 +1921,7 @@
         <v>257</v>
       </c>
       <c r="I14" s="33"/>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="51" t="s">
         <v>155</v>
       </c>
       <c r="K14" s="26" t="s">
@@ -1941,8 +1935,8 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="26" t="s">
         <v>150</v>
       </c>
@@ -1954,7 +1948,7 @@
         <v>257</v>
       </c>
       <c r="I15" s="33"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="26" t="s">
         <v>279</v>
       </c>
@@ -1969,7 +1963,7 @@
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="26" t="s">
         <v>153</v>
       </c>
@@ -1982,7 +1976,7 @@
       <c r="H16" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="26" t="s">
         <v>280</v>
       </c>
@@ -1994,10 +1988,10 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="26" t="s">
         <v>156</v>
       </c>
@@ -2009,7 +2003,7 @@
         <v>257</v>
       </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="26" t="s">
         <v>282</v>
       </c>
@@ -2021,8 +2015,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="26" t="s">
         <v>157</v>
       </c>
@@ -2048,8 +2042,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="26" t="s">
         <v>158</v>
       </c>
@@ -2069,8 +2063,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="26" t="s">
         <v>149</v>
       </c>
@@ -2090,8 +2084,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="26" t="s">
         <v>150</v>
       </c>
@@ -2122,1371 +2116,1439 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A65867-F2EE-4131-9D22-05A2B26DC5E8}">
-  <dimension ref="B2:J67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB03414-4B51-4449-A50A-AD9A95CAA7B7}">
+  <dimension ref="B2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:10">
       <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="47"/>
-      <c r="I3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="H3" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="31">
+        <v>3</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="31">
+        <v>9</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="31">
+        <v>10</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="31">
+        <v>11</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="47"/>
-      <c r="I4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="31">
-        <v>45</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="31">
-        <v>2</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="31">
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="31">
-        <v>46</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="31">
-        <v>3</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="31">
+      <c r="F13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="31">
-        <v>47</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="31">
-        <v>4</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="31">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="31">
-        <v>48</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="F14" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="31">
-        <v>5</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" spans="2:9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="31">
-        <v>27</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="31">
-        <v>49</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>257</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="31">
-        <v>6</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="31">
-        <v>28</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="31">
-        <v>50</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>257</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="31">
-        <v>7</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="31">
-        <v>8</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="31">
-        <v>29</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="48"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="31">
-        <v>51</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24" s="41"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="31">
-        <v>9</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="31">
-        <v>30</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="48"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="31">
-        <v>52</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>257</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="31">
-        <v>10</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="47"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="31">
-        <v>31</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H29" s="48"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="31">
-        <v>53</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>257</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="31">
-        <v>11</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="47"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="31">
+        <v>30</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="31">
+        <v>31</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" s="47"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="31">
         <v>32</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="E34" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="F34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G32" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="31">
-        <v>54</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="31">
-        <v>12</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="H34" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="31">
         <v>33</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G35" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="H35" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I35" s="47"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="31">
+        <v>34</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I36" s="47"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="31">
+        <v>35</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" s="47"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="31">
+        <v>36</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="31">
+        <v>37</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="31">
+        <v>38</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="31">
+        <v>39</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="31">
+        <v>40</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="31">
+        <v>41</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="31">
+        <v>42</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="31">
+        <v>43</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="31">
+        <v>44</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="14.5" customHeight="1">
+      <c r="B47" s="31">
+        <v>45</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="31">
+        <v>46</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="31">
+        <v>47</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="31">
+        <v>48</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="31">
+        <v>49</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="31">
+        <v>50</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="31">
+        <v>51</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" s="40"/>
+      <c r="K53" s="39"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="31">
+        <v>52</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="31">
+        <v>53</v>
+      </c>
+      <c r="C55" s="50"/>
+      <c r="D55" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="31">
+        <v>54</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H56" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="31">
         <v>55</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C57" s="50"/>
+      <c r="D57" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="F57" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G36" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="31">
-        <v>13</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="31">
-        <v>34</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="31">
+      <c r="H57" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="31">
         <v>56</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C58" s="50"/>
+      <c r="D58" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="E58" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="F58" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G39" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="31">
-        <v>14</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="31">
-        <v>35</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="31">
+      <c r="H58" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="31">
         <v>57</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C59" s="50"/>
+      <c r="D59" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="E59" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="F59" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G42" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="31">
-        <v>15</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H43" s="47"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="31">
-        <v>36</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="31">
+      <c r="H59" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="31">
         <v>58</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C60" s="50"/>
+      <c r="D60" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="F60" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G45" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H45" s="47"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="31">
-        <v>16</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="2:8" ht="14.5" customHeight="1">
-      <c r="B47" s="31">
-        <v>37</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="31">
+      <c r="H60" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I60" s="46"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="31">
         <v>59</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C61" s="50"/>
+      <c r="D61" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="F61" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G48" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="31">
-        <v>17</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H49" s="47"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="31">
-        <v>38</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="31">
+      <c r="H61" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I61" s="46"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="31">
         <v>60</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C62" s="50"/>
+      <c r="D62" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="F62" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G51" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H51" s="47"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="31">
-        <v>18</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H52" s="47"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="31">
-        <v>39</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="31">
+      <c r="H62" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="31">
         <v>61</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C63" s="50"/>
+      <c r="D63" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="F63" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G54" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H54" s="47"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="31">
-        <v>19</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H55" s="47"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="31">
-        <v>40</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="31">
+      <c r="H63" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="31">
         <v>62</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C64" s="50"/>
+      <c r="D64" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="42" t="s">
+      <c r="F64" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="G57" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="31">
-        <v>20</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H58" s="47"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="31">
-        <v>41</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="31">
-        <v>63</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="31">
-        <v>21</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G61" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H61" s="47"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="31">
-        <v>42</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="31">
-        <v>64</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="37">
-        <v>43</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>314</v>
+      <c r="H64" s="49" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="31">
-        <v>22</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G65" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H65" s="47"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="50"/>
+      <c r="D65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="31">
-        <v>44</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G66" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="50"/>
+      <c r="D66" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H66" s="49" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3494,26 +3556,29 @@
       <c r="B67" s="31">
         <v>65</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G67" s="36" t="s">
+      <c r="H67" s="49" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I67">
-    <sortCondition ref="C1:C67"/>
-  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C24"/>
+    <mergeCell ref="C25:C46"/>
+    <mergeCell ref="C47:C67"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3572,7 +3637,7 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -3590,13 +3655,13 @@
       <c r="H3" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
@@ -3612,13 +3677,13 @@
       <c r="H4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -3634,13 +3699,13 @@
       <c r="H5" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
@@ -3656,13 +3721,13 @@
       <c r="H6" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
@@ -3678,13 +3743,13 @@
       <c r="H7" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -3700,13 +3765,13 @@
       <c r="H8" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
@@ -3722,13 +3787,13 @@
       <c r="H9" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
@@ -3744,13 +3809,13 @@
       <c r="H10" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="17" t="s">
         <v>19</v>
       </c>
@@ -3766,13 +3831,13 @@
       <c r="H11" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
@@ -3788,13 +3853,13 @@
       <c r="H12" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
@@ -3810,13 +3875,13 @@
       <c r="H13" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
@@ -3832,13 +3897,13 @@
       <c r="H14" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
@@ -3854,13 +3919,13 @@
       <c r="H15" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="24" t="s">
         <v>29</v>
       </c>
@@ -3876,13 +3941,13 @@
       <c r="H16" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="31" t="s">
         <v>31</v>
       </c>
@@ -3898,13 +3963,13 @@
       <c r="H17" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="24" t="s">
         <v>33</v>
       </c>
@@ -3920,13 +3985,13 @@
       <c r="H18" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="24" t="s">
         <v>35</v>
       </c>
@@ -3942,13 +4007,13 @@
       <c r="H19" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I19" s="47"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="31" t="s">
         <v>37</v>
       </c>
@@ -3964,13 +4029,13 @@
       <c r="H20" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I20" s="47"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="24" t="s">
         <v>39</v>
       </c>
@@ -3986,13 +4051,13 @@
       <c r="H21" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="31" t="s">
         <v>41</v>
       </c>
@@ -4008,13 +4073,13 @@
       <c r="H22" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I22" s="47"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="24" t="s">
         <v>43</v>
       </c>
@@ -4030,13 +4095,13 @@
       <c r="H23" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="31" t="s">
         <v>45</v>
       </c>
@@ -4052,13 +4117,13 @@
       <c r="H24" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I24" s="47"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="50" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -4076,13 +4141,13 @@
       <c r="H25" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="18" t="s">
         <v>52</v>
       </c>
@@ -4098,13 +4163,13 @@
       <c r="H26" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I26" s="47"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -4120,13 +4185,13 @@
       <c r="H27" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I27" s="47"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="25" t="s">
         <v>56</v>
       </c>
@@ -4142,13 +4207,13 @@
       <c r="H28" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="47"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="23" t="s">
         <v>58</v>
       </c>
@@ -4164,13 +4229,13 @@
       <c r="H29" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I29" s="47"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="49"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="25" t="s">
         <v>60</v>
       </c>
@@ -4186,13 +4251,13 @@
       <c r="H30" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I30" s="47"/>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="18" t="s">
         <v>62</v>
       </c>
@@ -4208,13 +4273,13 @@
       <c r="H31" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I31" s="48"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="27" t="s">
         <v>64</v>
       </c>
@@ -4230,13 +4295,13 @@
       <c r="H32" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I32" s="48"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="22" t="s">
         <v>66</v>
       </c>
@@ -4252,13 +4317,13 @@
       <c r="H33" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I33" s="48"/>
+      <c r="I33" s="47"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="27" t="s">
         <v>68</v>
       </c>
@@ -4274,13 +4339,13 @@
       <c r="H34" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I34" s="48"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="22" t="s">
         <v>70</v>
       </c>
@@ -4296,13 +4361,13 @@
       <c r="H35" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="48"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="27" t="s">
         <v>72</v>
       </c>
@@ -4318,13 +4383,13 @@
       <c r="H36" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I36" s="48"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="23" t="s">
         <v>74</v>
       </c>
@@ -4340,13 +4405,13 @@
       <c r="H37" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="48"/>
+      <c r="I37" s="47"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="11">
         <v>36</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="25" t="s">
         <v>76</v>
       </c>
@@ -4367,7 +4432,7 @@
       <c r="B39" s="11">
         <v>37</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="23" t="s">
         <v>78</v>
       </c>
@@ -4388,7 +4453,7 @@
       <c r="B40" s="11">
         <v>38</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="23" t="s">
         <v>80</v>
       </c>
@@ -4409,7 +4474,7 @@
       <c r="B41" s="11">
         <v>39</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="23" t="s">
         <v>82</v>
       </c>
@@ -4430,7 +4495,7 @@
       <c r="B42" s="11">
         <v>40</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="23" t="s">
         <v>84</v>
       </c>
@@ -4440,7 +4505,7 @@
       <c r="F42" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="41" t="s">
         <v>306</v>
       </c>
       <c r="H42" s="33" t="s">
@@ -4451,7 +4516,7 @@
       <c r="B43" s="11">
         <v>41</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="25" t="s">
         <v>86</v>
       </c>
@@ -4472,7 +4537,7 @@
       <c r="B44" s="11">
         <v>42</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="23" t="s">
         <v>88</v>
       </c>
@@ -4493,17 +4558,17 @@
       <c r="B45" s="11">
         <v>43</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="38" t="s">
+      <c r="C45" s="50"/>
+      <c r="D45" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="45" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4511,7 +4576,7 @@
       <c r="B46" s="11">
         <v>44</v>
       </c>
-      <c r="C46" s="49"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="25" t="s">
         <v>92</v>
       </c>
@@ -4532,7 +4597,7 @@
       <c r="B47" s="11">
         <v>45</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="50" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="27" t="s">
@@ -4555,7 +4620,7 @@
       <c r="B48" s="11">
         <v>46</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="18" t="s">
         <v>96</v>
       </c>
@@ -4576,7 +4641,7 @@
       <c r="B49" s="11">
         <v>47</v>
       </c>
-      <c r="C49" s="49"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="25" t="s">
         <v>97</v>
       </c>
@@ -4597,7 +4662,7 @@
       <c r="B50" s="11">
         <v>48</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
@@ -4618,7 +4683,7 @@
       <c r="B51" s="11">
         <v>49</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="23" t="s">
         <v>99</v>
       </c>
@@ -4639,7 +4704,7 @@
       <c r="B52" s="11">
         <v>50</v>
       </c>
-      <c r="C52" s="49"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="25" t="s">
         <v>100</v>
       </c>
@@ -4660,7 +4725,7 @@
       <c r="B53" s="11">
         <v>51</v>
       </c>
-      <c r="C53" s="49"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="18" t="s">
         <v>101</v>
       </c>
@@ -4676,14 +4741,14 @@
       <c r="H53" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="39"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="11">
         <v>52</v>
       </c>
-      <c r="C54" s="49"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="22" t="s">
         <v>102</v>
       </c>
@@ -4704,7 +4769,7 @@
       <c r="B55" s="11">
         <v>53</v>
       </c>
-      <c r="C55" s="49"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="18" t="s">
         <v>103</v>
       </c>
@@ -4725,7 +4790,7 @@
       <c r="B56" s="11">
         <v>54</v>
       </c>
-      <c r="C56" s="49"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="27" t="s">
         <v>104</v>
       </c>
@@ -4746,7 +4811,7 @@
       <c r="B57" s="11">
         <v>55</v>
       </c>
-      <c r="C57" s="49"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="23" t="s">
         <v>115</v>
       </c>
@@ -4767,7 +4832,7 @@
       <c r="B58" s="11">
         <v>56</v>
       </c>
-      <c r="C58" s="49"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="27" t="s">
         <v>117</v>
       </c>
@@ -4788,7 +4853,7 @@
       <c r="B59" s="11">
         <v>57</v>
       </c>
-      <c r="C59" s="49"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="23" t="s">
         <v>120</v>
       </c>
@@ -4809,8 +4874,8 @@
       <c r="B60" s="11">
         <v>58</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="39" t="s">
+      <c r="C60" s="50"/>
+      <c r="D60" s="38" t="s">
         <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -4825,13 +4890,13 @@
       <c r="H60" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I60" s="47"/>
+      <c r="I60" s="46"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="11">
         <v>59</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="23" t="s">
         <v>124</v>
       </c>
@@ -4847,13 +4912,13 @@
       <c r="H61" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I61" s="47"/>
+      <c r="I61" s="46"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="11">
         <v>60</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="23" t="s">
         <v>126</v>
       </c>
@@ -4869,13 +4934,13 @@
       <c r="H62" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I62" s="47"/>
+      <c r="I62" s="46"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="11">
         <v>61</v>
       </c>
-      <c r="C63" s="49"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="25" t="s">
         <v>128</v>
       </c>
@@ -4891,13 +4956,13 @@
       <c r="H63" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I63" s="47"/>
+      <c r="I63" s="46"/>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="11">
         <v>62</v>
       </c>
-      <c r="C64" s="49"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="25" t="s">
         <v>130</v>
       </c>
@@ -4907,7 +4972,7 @@
       <c r="F64" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="41" t="s">
         <v>307</v>
       </c>
       <c r="H64" s="33" t="s">
@@ -4918,7 +4983,7 @@
       <c r="B65" s="11">
         <v>63</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
@@ -4939,7 +5004,7 @@
       <c r="B66" s="11">
         <v>64</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="23" t="s">
         <v>134</v>
       </c>
@@ -4960,7 +5025,7 @@
       <c r="B67" s="11">
         <v>65</v>
       </c>
-      <c r="C67" s="49"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="25" t="s">
         <v>136</v>
       </c>
@@ -5038,10 +5103,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -5056,8 +5121,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="8" t="s">
         <v>163</v>
       </c>
@@ -5070,8 +5135,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="2" t="s">
         <v>164</v>
       </c>
@@ -5084,8 +5149,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
@@ -5098,8 +5163,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="2" t="s">
         <v>166</v>
       </c>
@@ -5112,8 +5177,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="2" t="s">
         <v>167</v>
       </c>
@@ -5126,8 +5191,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="2" t="s">
         <v>168</v>
       </c>
@@ -5140,8 +5205,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="2" t="s">
         <v>169</v>
       </c>
@@ -5154,8 +5219,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="2" t="s">
         <v>170</v>
       </c>
@@ -5168,8 +5233,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2" t="s">
         <v>171</v>
       </c>
@@ -5182,8 +5247,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="2" t="s">
         <v>172</v>
       </c>
@@ -5199,7 +5264,7 @@
       <c r="C14" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="2" t="s">
         <v>172</v>
       </c>
@@ -5212,10 +5277,10 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="2" t="s">
         <v>162</v>
       </c>
@@ -5228,8 +5293,8 @@
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="2" t="s">
         <v>164</v>
       </c>
@@ -5242,8 +5307,8 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="2" t="s">
         <v>168</v>
       </c>
@@ -5256,8 +5321,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="2" t="s">
         <v>170</v>
       </c>
@@ -5270,8 +5335,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="2" t="s">
         <v>172</v>
       </c>
@@ -5284,8 +5349,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="2" t="s">
         <v>175</v>
       </c>
@@ -5298,8 +5363,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="2" t="s">
         <v>176</v>
       </c>
@@ -5312,8 +5377,8 @@
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="2" t="s">
         <v>177</v>
       </c>
@@ -5326,10 +5391,10 @@
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="2" t="s">
         <v>179</v>
       </c>
@@ -5342,8 +5407,8 @@
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
@@ -5356,8 +5421,8 @@
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="2" t="s">
         <v>181</v>
       </c>
@@ -5370,8 +5435,8 @@
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="2" t="s">
         <v>182</v>
       </c>
@@ -5384,8 +5449,8 @@
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="2" t="s">
         <v>183</v>
       </c>
@@ -5398,8 +5463,8 @@
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="2" t="s">
         <v>184</v>
       </c>
@@ -5412,8 +5477,8 @@
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="2" t="s">
         <v>185</v>
       </c>
@@ -5426,8 +5491,8 @@
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="2" t="s">
         <v>186</v>
       </c>
@@ -5440,8 +5505,8 @@
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="2" t="s">
         <v>187</v>
       </c>
@@ -5454,8 +5519,8 @@
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="2" t="s">
         <v>188</v>
       </c>
@@ -5468,8 +5533,8 @@
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="2" t="s">
         <v>189</v>
       </c>
@@ -5482,8 +5547,8 @@
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="2" t="s">
         <v>190</v>
       </c>
@@ -5496,8 +5561,8 @@
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="2" t="s">
         <v>191</v>
       </c>
@@ -5510,8 +5575,8 @@
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="2" t="s">
         <v>192</v>
       </c>
@@ -5524,8 +5589,8 @@
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="2" t="s">
         <v>193</v>
       </c>
@@ -5595,230 +5660,230 @@
       <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F3" s="33"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>204</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>206</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>208</v>
       </c>
       <c r="F6" s="33"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="33">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>210</v>
       </c>
       <c r="F7" s="33"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="42" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="33">
         <v>7</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="33">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>214</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="33">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>216</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="33">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>218</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="33">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="44" t="s">
         <v>220</v>
       </c>
       <c r="F13" s="33"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="33">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>222</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="33">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>224</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="33">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>226</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="33">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>228</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF08DE-180E-4B07-A3FB-23502339EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9907B-C687-4161-97D1-501C8FBA3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="322">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -988,13 +988,22 @@
   </si>
   <si>
     <t>Status TSD</t>
+  </si>
+  <si>
+    <t>PIC TSD</t>
+  </si>
+  <si>
+    <t>Mas Dimas</t>
+  </si>
+  <si>
+    <t>Reza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,6 +1081,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvi"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Helvi"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0070C0"/>
+      <name val="Helvi"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1111,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1236,6 +1259,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,6 +1275,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1625,10 +1665,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -1642,7 +1682,7 @@
         <v>256</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="53" t="s">
         <v>94</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -1656,8 +1696,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="26" t="s">
         <v>139</v>
       </c>
@@ -1669,7 +1709,7 @@
         <v>256</v>
       </c>
       <c r="I4" s="33"/>
-      <c r="J4" s="52"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="26" t="s">
         <v>263</v>
       </c>
@@ -1681,8 +1721,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="26" t="s">
         <v>140</v>
       </c>
@@ -1694,7 +1734,7 @@
         <v>256</v>
       </c>
       <c r="I5" s="33"/>
-      <c r="J5" s="52"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="26" t="s">
         <v>265</v>
       </c>
@@ -1706,8 +1746,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="26" t="s">
         <v>141</v>
       </c>
@@ -1721,7 +1761,7 @@
         <v>300</v>
       </c>
       <c r="I6" s="33"/>
-      <c r="J6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="26" t="s">
         <v>267</v>
       </c>
@@ -1733,8 +1773,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="26" t="s">
         <v>142</v>
       </c>
@@ -1746,7 +1786,7 @@
         <v>256</v>
       </c>
       <c r="I7" s="33"/>
-      <c r="J7" s="52"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="26" t="s">
         <v>269</v>
       </c>
@@ -1758,8 +1798,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="26" t="s">
         <v>143</v>
       </c>
@@ -1771,7 +1811,7 @@
         <v>256</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="52"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="26" t="s">
         <v>271</v>
       </c>
@@ -1783,8 +1823,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="26" t="s">
         <v>144</v>
       </c>
@@ -1796,7 +1836,7 @@
         <v>256</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="52"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="26" t="s">
         <v>273</v>
       </c>
@@ -1808,8 +1848,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="26" t="s">
         <v>145</v>
       </c>
@@ -1821,7 +1861,7 @@
         <v>256</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="52"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="26" t="s">
         <v>275</v>
       </c>
@@ -1833,8 +1873,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="26" t="s">
         <v>146</v>
       </c>
@@ -1846,7 +1886,7 @@
         <v>256</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="52"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="26" t="s">
         <v>277</v>
       </c>
@@ -1858,8 +1898,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="26" t="s">
         <v>147</v>
       </c>
@@ -1871,7 +1911,7 @@
         <v>257</v>
       </c>
       <c r="I12" s="33"/>
-      <c r="J12" s="52"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="26" t="s">
         <v>279</v>
       </c>
@@ -1883,8 +1923,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="26" t="s">
         <v>148</v>
       </c>
@@ -1896,7 +1936,7 @@
         <v>257</v>
       </c>
       <c r="I13" s="33"/>
-      <c r="J13" s="52"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="26" t="s">
         <v>279</v>
       </c>
@@ -1908,8 +1948,8 @@
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="26" t="s">
         <v>149</v>
       </c>
@@ -1921,7 +1961,7 @@
         <v>257</v>
       </c>
       <c r="I14" s="33"/>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="52" t="s">
         <v>155</v>
       </c>
       <c r="K14" s="26" t="s">
@@ -1935,8 +1975,8 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="26" t="s">
         <v>150</v>
       </c>
@@ -1948,7 +1988,7 @@
         <v>257</v>
       </c>
       <c r="I15" s="33"/>
-      <c r="J15" s="51"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="26" t="s">
         <v>279</v>
       </c>
@@ -1963,7 +2003,7 @@
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="26" t="s">
         <v>153</v>
       </c>
@@ -1976,7 +2016,7 @@
       <c r="H16" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="26" t="s">
         <v>280</v>
       </c>
@@ -1988,10 +2028,10 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="26" t="s">
         <v>156</v>
       </c>
@@ -2003,7 +2043,7 @@
         <v>257</v>
       </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="26" t="s">
         <v>282</v>
       </c>
@@ -2015,8 +2055,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="26" t="s">
         <v>157</v>
       </c>
@@ -2042,8 +2082,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="26" t="s">
         <v>158</v>
       </c>
@@ -2063,8 +2103,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="26" t="s">
         <v>149</v>
       </c>
@@ -2084,8 +2124,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="26" t="s">
         <v>150</v>
       </c>
@@ -2119,20 +2159,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB03414-4B51-4449-A50A-AD9A95CAA7B7}">
   <dimension ref="B2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J63" sqref="J41:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" style="48" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="36" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="43" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="50" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="50"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -2140,27 +2181,27 @@
         <v>3</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>318</v>
       </c>
     </row>
@@ -2168,1417 +2209,1643 @@
       <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="46"/>
+      <c r="G3" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="31">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I4" s="46"/>
+      <c r="G4" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I5" s="46"/>
+      <c r="G5" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" s="46"/>
+      <c r="G6" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I7" s="46"/>
+      <c r="G7" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I8" s="46"/>
+      <c r="G8" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="E9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" s="46"/>
+      <c r="G9" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="31">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I10" s="46"/>
+      <c r="G10" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="31">
         <v>9</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I11" s="46"/>
+      <c r="G11" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="31">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H12" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="46"/>
+      <c r="G12" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="31">
         <v>11</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I13" s="46"/>
+      <c r="G13" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="31">
         <v>12</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I14" s="46"/>
+      <c r="G14" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="54"/>
+      <c r="I14" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="31">
         <v>13</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I15" s="46"/>
+      <c r="G15" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="C16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H16" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I16" s="46"/>
+      <c r="G16" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="31">
         <v>15</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H17" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I17" s="46"/>
+      <c r="G17" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="31">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H18" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I18" s="46"/>
+      <c r="G18" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="31">
         <v>17</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H19" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I19" s="46"/>
+      <c r="G19" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="31">
         <v>18</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H20" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I20" s="46"/>
+      <c r="G20" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="31">
         <v>19</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I21" s="46"/>
+      <c r="G21" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="31">
         <v>20</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H22" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I22" s="46"/>
+      <c r="G22" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="31">
         <v>21</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="E23" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H23" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I23" s="46"/>
+      <c r="G23" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="31">
         <v>22</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H24" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I24" s="46"/>
+      <c r="G24" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="54"/>
+      <c r="I24" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="31">
         <v>23</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I25" s="46"/>
+      <c r="G25" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="31">
         <v>24</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H26" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I26" s="46"/>
+      <c r="G26" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="54"/>
+      <c r="I26" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="31">
         <v>25</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H27" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I27" s="46"/>
+      <c r="G27" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="54"/>
+      <c r="I27" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="31">
         <v>26</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="E28" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I28" s="46"/>
+      <c r="G28" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="54"/>
+      <c r="I28" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="31">
         <v>27</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="E29" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H29" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I29" s="46"/>
+      <c r="G29" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="I29" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="31">
         <v>28</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="26" t="s">
+      <c r="C30" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H30" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I30" s="46"/>
+      <c r="G30" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="31">
         <v>29</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="C31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="E31" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I31" s="47"/>
+      <c r="G31" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="50" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="31">
         <v>30</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="C32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H32" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="G32" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="31">
         <v>31</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="C33" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="E33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H33" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" s="47"/>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="G33" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="31">
         <v>32</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="28" t="s">
+      <c r="C34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H34" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="G34" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="31">
         <v>33</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H35" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="2:9">
+      <c r="G35" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="55"/>
+      <c r="I35" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="31">
         <v>34</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="C36" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H36" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="G36" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="31">
         <v>35</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="28" t="s">
+      <c r="C37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="E37" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="I37" s="47"/>
-    </row>
-    <row r="38" spans="2:9">
+      <c r="G37" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="55"/>
+      <c r="I37" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="31">
         <v>36</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="C38" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="E38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H38" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="G38" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="31">
         <v>37</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="C39" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="E39" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H39" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+      <c r="G39" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J39" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="31">
         <v>38</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="C40" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="E40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H40" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="G40" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J40" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="31">
         <v>39</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="C41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="E41" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H41" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+      <c r="G41" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="31">
         <v>40</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="C42" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="41" t="s">
+      <c r="E42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="H42" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+      <c r="G42" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="31">
         <v>41</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="C43" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="E43" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H43" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+      <c r="G43" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I43" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="31">
         <v>42</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="E44" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H44" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+      <c r="G44" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J44" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="31">
         <v>43</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="C45" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="E45" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="F45" s="45" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="46" spans="2:9">
+      <c r="G45" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="31">
         <v>44</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="C46" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="E46" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H46" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="14.5" customHeight="1">
+      <c r="G46" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="14.5" customHeight="1">
       <c r="B47" s="31">
         <v>45</v>
       </c>
-      <c r="C47" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="C47" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="14" t="s">
+      <c r="E47" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="H47" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+      <c r="G47" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="31">
         <v>46</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="C48" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="E48" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H48" s="49" t="s">
-        <v>257</v>
+      <c r="G48" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="31">
         <v>47</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="C49" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="E49" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H49" s="49" t="s">
-        <v>257</v>
+      <c r="G49" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="31">
         <v>48</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="C50" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="E50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H50" s="49" t="s">
-        <v>257</v>
+      <c r="G50" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J50" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="31">
         <v>49</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="C51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="E51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H51" s="49" t="s">
-        <v>257</v>
+      <c r="G51" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J51" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="31">
         <v>50</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="26" t="s">
+      <c r="C52" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="E52" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H52" s="49" t="s">
-        <v>257</v>
+      <c r="G52" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J52" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="31">
         <v>51</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="C53" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="E53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H53" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="J53" s="40"/>
+      <c r="G53" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J53" s="59" t="s">
+        <v>160</v>
+      </c>
       <c r="K53" s="39"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="31">
         <v>52</v>
       </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C54" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H54" s="49" t="s">
-        <v>257</v>
+      <c r="G54" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J54" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="31">
         <v>53</v>
       </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="C55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="E55" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H55" s="49" t="s">
-        <v>257</v>
+      <c r="G55" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J55" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="31">
         <v>54</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="29" t="s">
+      <c r="C56" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="28" t="s">
+      <c r="E56" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="H56" s="49" t="s">
-        <v>257</v>
+      <c r="G56" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J56" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="31">
         <v>55</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="C57" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="E57" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H57" s="49" t="s">
-        <v>257</v>
+      <c r="G57" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J57" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="31">
         <v>56</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="29" t="s">
+      <c r="C58" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="E58" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H58" s="49" t="s">
-        <v>257</v>
+      <c r="G58" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J58" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="31">
         <v>57</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="29" t="s">
+      <c r="C59" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="E59" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H59" s="49" t="s">
-        <v>257</v>
+      <c r="G59" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I59" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J59" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="31">
         <v>58</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="C60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="E60" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H60" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I60" s="46"/>
+      <c r="G60" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" s="54"/>
+      <c r="I60" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J60" s="59" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="31">
         <v>59</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C61" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="E61" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H61" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I61" s="46"/>
+      <c r="G61" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H61" s="54"/>
+      <c r="I61" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J61" s="59" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="31">
         <v>60</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="C62" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="E62" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H62" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I62" s="46"/>
+      <c r="G62" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" s="54"/>
+      <c r="I62" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J62" s="59" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="31">
         <v>61</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="C63" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="E63" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H63" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I63" s="46"/>
+      <c r="G63" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H63" s="54"/>
+      <c r="I63" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J63" s="59" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="31">
         <v>62</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="C64" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G64" s="41" t="s">
+      <c r="E64" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="H64" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="G64" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I64" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J64" s="58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="31">
         <v>63</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="C65" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="E65" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H65" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="G65" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I65" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J65" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" s="31">
         <v>64</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="C66" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F66" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="E66" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H66" s="49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="G66" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J66" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="31">
         <v>65</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="E67" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H67" s="49" t="s">
-        <v>257</v>
+      <c r="G67" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="I67" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J67" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C24"/>
-    <mergeCell ref="C25:C46"/>
-    <mergeCell ref="C47:C67"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C67">
+    <sortCondition ref="C3:C67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3637,7 +3904,7 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -3661,7 +3928,7 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
@@ -3683,7 +3950,7 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -3705,7 +3972,7 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3994,7 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
@@ -3749,7 +4016,7 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -3771,7 +4038,7 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
@@ -3793,7 +4060,7 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
@@ -3815,7 +4082,7 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="17" t="s">
         <v>19</v>
       </c>
@@ -3837,7 +4104,7 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
@@ -3859,7 +4126,7 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
@@ -3881,7 +4148,7 @@
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
@@ -3903,7 +4170,7 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
@@ -3925,7 +4192,7 @@
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="24" t="s">
         <v>29</v>
       </c>
@@ -3947,7 +4214,7 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="31" t="s">
         <v>31</v>
       </c>
@@ -3969,7 +4236,7 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="24" t="s">
         <v>33</v>
       </c>
@@ -3991,7 +4258,7 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="24" t="s">
         <v>35</v>
       </c>
@@ -4013,7 +4280,7 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="31" t="s">
         <v>37</v>
       </c>
@@ -4035,7 +4302,7 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="24" t="s">
         <v>39</v>
       </c>
@@ -4057,7 +4324,7 @@
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="31" t="s">
         <v>41</v>
       </c>
@@ -4079,7 +4346,7 @@
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="24" t="s">
         <v>43</v>
       </c>
@@ -4101,7 +4368,7 @@
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="31" t="s">
         <v>45</v>
       </c>
@@ -4123,7 +4390,7 @@
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -4147,7 +4414,7 @@
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="18" t="s">
         <v>52</v>
       </c>
@@ -4169,7 +4436,7 @@
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -4191,7 +4458,7 @@
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="25" t="s">
         <v>56</v>
       </c>
@@ -4213,7 +4480,7 @@
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="23" t="s">
         <v>58</v>
       </c>
@@ -4235,7 +4502,7 @@
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="25" t="s">
         <v>60</v>
       </c>
@@ -4257,7 +4524,7 @@
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="18" t="s">
         <v>62</v>
       </c>
@@ -4279,7 +4546,7 @@
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="27" t="s">
         <v>64</v>
       </c>
@@ -4301,7 +4568,7 @@
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="22" t="s">
         <v>66</v>
       </c>
@@ -4323,7 +4590,7 @@
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="27" t="s">
         <v>68</v>
       </c>
@@ -4345,7 +4612,7 @@
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="22" t="s">
         <v>70</v>
       </c>
@@ -4367,7 +4634,7 @@
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="27" t="s">
         <v>72</v>
       </c>
@@ -4389,7 +4656,7 @@
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="23" t="s">
         <v>74</v>
       </c>
@@ -4411,7 +4678,7 @@
       <c r="B38" s="11">
         <v>36</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="25" t="s">
         <v>76</v>
       </c>
@@ -4432,7 +4699,7 @@
       <c r="B39" s="11">
         <v>37</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="23" t="s">
         <v>78</v>
       </c>
@@ -4453,7 +4720,7 @@
       <c r="B40" s="11">
         <v>38</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="23" t="s">
         <v>80</v>
       </c>
@@ -4474,7 +4741,7 @@
       <c r="B41" s="11">
         <v>39</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="23" t="s">
         <v>82</v>
       </c>
@@ -4495,7 +4762,7 @@
       <c r="B42" s="11">
         <v>40</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="23" t="s">
         <v>84</v>
       </c>
@@ -4516,7 +4783,7 @@
       <c r="B43" s="11">
         <v>41</v>
       </c>
-      <c r="C43" s="50"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="25" t="s">
         <v>86</v>
       </c>
@@ -4537,7 +4804,7 @@
       <c r="B44" s="11">
         <v>42</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="23" t="s">
         <v>88</v>
       </c>
@@ -4558,7 +4825,7 @@
       <c r="B45" s="11">
         <v>43</v>
       </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="37" t="s">
         <v>90</v>
       </c>
@@ -4576,7 +4843,7 @@
       <c r="B46" s="11">
         <v>44</v>
       </c>
-      <c r="C46" s="50"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="25" t="s">
         <v>92</v>
       </c>
@@ -4597,7 +4864,7 @@
       <c r="B47" s="11">
         <v>45</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="51" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="27" t="s">
@@ -4620,7 +4887,7 @@
       <c r="B48" s="11">
         <v>46</v>
       </c>
-      <c r="C48" s="50"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="18" t="s">
         <v>96</v>
       </c>
@@ -4641,7 +4908,7 @@
       <c r="B49" s="11">
         <v>47</v>
       </c>
-      <c r="C49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="25" t="s">
         <v>97</v>
       </c>
@@ -4662,7 +4929,7 @@
       <c r="B50" s="11">
         <v>48</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
@@ -4683,7 +4950,7 @@
       <c r="B51" s="11">
         <v>49</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="23" t="s">
         <v>99</v>
       </c>
@@ -4704,7 +4971,7 @@
       <c r="B52" s="11">
         <v>50</v>
       </c>
-      <c r="C52" s="50"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="25" t="s">
         <v>100</v>
       </c>
@@ -4725,7 +4992,7 @@
       <c r="B53" s="11">
         <v>51</v>
       </c>
-      <c r="C53" s="50"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="18" t="s">
         <v>101</v>
       </c>
@@ -4748,7 +5015,7 @@
       <c r="B54" s="11">
         <v>52</v>
       </c>
-      <c r="C54" s="50"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="22" t="s">
         <v>102</v>
       </c>
@@ -4769,7 +5036,7 @@
       <c r="B55" s="11">
         <v>53</v>
       </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="18" t="s">
         <v>103</v>
       </c>
@@ -4790,7 +5057,7 @@
       <c r="B56" s="11">
         <v>54</v>
       </c>
-      <c r="C56" s="50"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="27" t="s">
         <v>104</v>
       </c>
@@ -4811,7 +5078,7 @@
       <c r="B57" s="11">
         <v>55</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="23" t="s">
         <v>115</v>
       </c>
@@ -4832,7 +5099,7 @@
       <c r="B58" s="11">
         <v>56</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="27" t="s">
         <v>117</v>
       </c>
@@ -4853,7 +5120,7 @@
       <c r="B59" s="11">
         <v>57</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="23" t="s">
         <v>120</v>
       </c>
@@ -4874,7 +5141,7 @@
       <c r="B60" s="11">
         <v>58</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="38" t="s">
         <v>122</v>
       </c>
@@ -4896,7 +5163,7 @@
       <c r="B61" s="11">
         <v>59</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="23" t="s">
         <v>124</v>
       </c>
@@ -4918,7 +5185,7 @@
       <c r="B62" s="11">
         <v>60</v>
       </c>
-      <c r="C62" s="50"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="23" t="s">
         <v>126</v>
       </c>
@@ -4940,7 +5207,7 @@
       <c r="B63" s="11">
         <v>61</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="25" t="s">
         <v>128</v>
       </c>
@@ -4962,7 +5229,7 @@
       <c r="B64" s="11">
         <v>62</v>
       </c>
-      <c r="C64" s="50"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="25" t="s">
         <v>130</v>
       </c>
@@ -4983,7 +5250,7 @@
       <c r="B65" s="11">
         <v>63</v>
       </c>
-      <c r="C65" s="50"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
@@ -5004,7 +5271,7 @@
       <c r="B66" s="11">
         <v>64</v>
       </c>
-      <c r="C66" s="50"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="23" t="s">
         <v>134</v>
       </c>
@@ -5025,7 +5292,7 @@
       <c r="B67" s="11">
         <v>65</v>
       </c>
-      <c r="C67" s="50"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="25" t="s">
         <v>136</v>
       </c>
@@ -5103,10 +5370,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -5121,8 +5388,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="8" t="s">
         <v>163</v>
       </c>
@@ -5135,8 +5402,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="2" t="s">
         <v>164</v>
       </c>
@@ -5149,8 +5416,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
@@ -5163,8 +5430,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="2" t="s">
         <v>166</v>
       </c>
@@ -5177,8 +5444,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="2" t="s">
         <v>167</v>
       </c>
@@ -5191,8 +5458,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="2" t="s">
         <v>168</v>
       </c>
@@ -5205,8 +5472,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="2" t="s">
         <v>169</v>
       </c>
@@ -5219,8 +5486,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="2" t="s">
         <v>170</v>
       </c>
@@ -5233,8 +5500,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="2" t="s">
         <v>171</v>
       </c>
@@ -5247,8 +5514,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="2" t="s">
         <v>172</v>
       </c>
@@ -5264,7 +5531,7 @@
       <c r="C14" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="2" t="s">
         <v>172</v>
       </c>
@@ -5277,10 +5544,10 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="2" t="s">
         <v>162</v>
       </c>
@@ -5293,8 +5560,8 @@
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="2" t="s">
         <v>164</v>
       </c>
@@ -5307,8 +5574,8 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="2" t="s">
         <v>168</v>
       </c>
@@ -5321,8 +5588,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="2" t="s">
         <v>170</v>
       </c>
@@ -5335,8 +5602,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="2" t="s">
         <v>172</v>
       </c>
@@ -5349,8 +5616,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="2" t="s">
         <v>175</v>
       </c>
@@ -5363,8 +5630,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="2" t="s">
         <v>176</v>
       </c>
@@ -5377,8 +5644,8 @@
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="2" t="s">
         <v>177</v>
       </c>
@@ -5391,10 +5658,10 @@
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="2" t="s">
         <v>179</v>
       </c>
@@ -5407,8 +5674,8 @@
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
@@ -5421,8 +5688,8 @@
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="2" t="s">
         <v>181</v>
       </c>
@@ -5435,8 +5702,8 @@
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="2" t="s">
         <v>182</v>
       </c>
@@ -5449,8 +5716,8 @@
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="2" t="s">
         <v>183</v>
       </c>
@@ -5463,8 +5730,8 @@
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="2" t="s">
         <v>184</v>
       </c>
@@ -5477,8 +5744,8 @@
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="50"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="2" t="s">
         <v>185</v>
       </c>
@@ -5491,8 +5758,8 @@
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="50"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="2" t="s">
         <v>186</v>
       </c>
@@ -5505,8 +5772,8 @@
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="50"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="2" t="s">
         <v>187</v>
       </c>
@@ -5519,8 +5786,8 @@
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="50"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="2" t="s">
         <v>188</v>
       </c>
@@ -5533,8 +5800,8 @@
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="50"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="2" t="s">
         <v>189</v>
       </c>
@@ -5547,8 +5814,8 @@
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="50"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="2" t="s">
         <v>190</v>
       </c>
@@ -5561,8 +5828,8 @@
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="2" t="s">
         <v>191</v>
       </c>
@@ -5575,8 +5842,8 @@
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="2" t="s">
         <v>192</v>
       </c>
@@ -5589,8 +5856,8 @@
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="2" t="s">
         <v>193</v>
       </c>
@@ -5660,7 +5927,7 @@
       <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="42" t="s">
@@ -5677,7 +5944,7 @@
       <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="42" t="s">
         <v>203</v>
       </c>
@@ -5692,7 +5959,7 @@
       <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="42" t="s">
         <v>205</v>
       </c>
@@ -5707,7 +5974,7 @@
       <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="42" t="s">
         <v>207</v>
       </c>
@@ -5722,7 +5989,7 @@
       <c r="B7" s="33">
         <v>5</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="42" t="s">
         <v>209</v>
       </c>
@@ -5737,7 +6004,7 @@
       <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="42" t="s">
         <v>211</v>
       </c>
@@ -5752,7 +6019,7 @@
       <c r="B9" s="33">
         <v>7</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -5769,7 +6036,7 @@
       <c r="B10" s="33">
         <v>8</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="42" t="s">
         <v>213</v>
       </c>
@@ -5784,7 +6051,7 @@
       <c r="B11" s="33">
         <v>9</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="42" t="s">
         <v>215</v>
       </c>
@@ -5799,7 +6066,7 @@
       <c r="B12" s="33">
         <v>10</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="42" t="s">
         <v>217</v>
       </c>
@@ -5814,7 +6081,7 @@
       <c r="B13" s="33">
         <v>11</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="42" t="s">
         <v>219</v>
       </c>
@@ -5829,7 +6096,7 @@
       <c r="B14" s="33">
         <v>12</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="42" t="s">
         <v>221</v>
       </c>
@@ -5844,7 +6111,7 @@
       <c r="B15" s="33">
         <v>13</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="42" t="s">
         <v>223</v>
       </c>
@@ -5859,7 +6126,7 @@
       <c r="B16" s="33">
         <v>14</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="42" t="s">
         <v>225</v>
       </c>
@@ -5874,7 +6141,7 @@
       <c r="B17" s="33">
         <v>15</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="42" t="s">
         <v>227</v>
       </c>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9907B-C687-4161-97D1-501C8FBA3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC140E9-8F37-44ED-9B7E-49857E79AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="355">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -997,6 +997,105 @@
   </si>
   <si>
     <t>Reza</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Penyusunan/Koreksi LANAP/LAPAN Unaudited</t>
+  </si>
+  <si>
+    <t>Menerima LANAP/LAPAN Audited</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Dan Penyusunan Dokumen Penerimaan LANAP/LAPAN Audited</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Penerimaan LANAP/LAPAN Audited</t>
+  </si>
+  <si>
+    <t>Menyusun Perhitungan Dan Dokumen Pengajuan/Pengembalian Biaya Operasional</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Perhitungan Dan Dokumen Pengajuan/Pengembalian Biaya Operasional</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Perhitungan Dan Dokumen Pengajuan Biaya Operasional</t>
+  </si>
+  <si>
+    <t>Melakukan Transaksi Penerimaan/Pengembalian Biaya Operasional</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Transaksi Penerimaan/Pengembalian Biaya Operasional</t>
+  </si>
+  <si>
+    <t>Menyusun Daftar Dan Dokumen Pengajuan Pencairan Aset Sebelum LANAP</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Daftar Dan Menyusun Dokumen Pengajuan Pencairan Aset Sebelum LANAP</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Pengajuan Pemberian Haircut</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Transaksi Haircut</t>
+  </si>
+  <si>
+    <t>Melakukan Transaksi Pencairan Aset</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Transaksi Pencairan Aset</t>
+  </si>
+  <si>
+    <t>Menyusun Dan Menyampaikan Dokumen Total Kewajiban BDL</t>
+  </si>
+  <si>
+    <t>Melakukan Transaksi Distribusi Pembayaran Kewajiban BDL</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Transaksi Distribusi Pembayaran Kewajiban</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Laporan Bulanan, Upaya Tim Likuidasi, Menyusun Quick Review Dan Surat Monitoring Laporan Bulanan</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Laporan Bulanan, Upaya Tim Likuidasi, Quick Review Dan Surat Monitoring Laporan Bulanan</t>
+  </si>
+  <si>
+    <t>Menyusun/Koreksi LANAP/LAPAN Unaudited</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Penyusunan/Koreksi LANAP/LAPAN Unaudited</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Transaksi Penerimaan/Pengembalian Biaya Operasional</t>
+  </si>
+  <si>
+    <t>Melakukan Review &amp; Persetujuan Pencairan Aset Sebelum/Setelah LANAP</t>
+  </si>
+  <si>
+    <t>Menyusun Kertas Kerja Dan Dokumen Pengajuan Pemberian Haricut</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Review/Pengajuan Pemberian Haircut</t>
+  </si>
+  <si>
+    <t>Melakukan Transaksi Haricut</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Transaksi Haircut</t>
+  </si>
+  <si>
+    <t>Menyusun Kertas Kerja Dan Dokumen Pengajuan Insentif Tim Likuidasi &amp; Tenaga Pendukung</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Pengajuan Dan Menyusun Dokumen Tanggapan Pengajuan Insentif</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Pengajuan Dan Dokumen Tanggapan Insentif Tim Likuidasi &amp; Tenaga Pendukung</t>
+  </si>
+  <si>
+    <t>Melakukan Checklist Transaksi Dan Bukti Dokumen Pencairan Aset</t>
+  </si>
+  <si>
+    <t>Melakukan Review/Persetujuan Transaksi Distribusi Pembayaran Kewajiban BDL</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1268,6 +1367,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,19 +1385,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,10 +1801,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="54" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -1682,7 +1818,7 @@
         <v>256</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="56" t="s">
         <v>94</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -1696,8 +1832,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="26" t="s">
         <v>139</v>
       </c>
@@ -1709,7 +1845,7 @@
         <v>256</v>
       </c>
       <c r="I4" s="33"/>
-      <c r="J4" s="53"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="26" t="s">
         <v>263</v>
       </c>
@@ -1721,8 +1857,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="26" t="s">
         <v>140</v>
       </c>
@@ -1734,7 +1870,7 @@
         <v>256</v>
       </c>
       <c r="I5" s="33"/>
-      <c r="J5" s="53"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="26" t="s">
         <v>265</v>
       </c>
@@ -1746,8 +1882,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="26" t="s">
         <v>141</v>
       </c>
@@ -1761,7 +1897,7 @@
         <v>300</v>
       </c>
       <c r="I6" s="33"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="26" t="s">
         <v>267</v>
       </c>
@@ -1773,8 +1909,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="26" t="s">
         <v>142</v>
       </c>
@@ -1786,7 +1922,7 @@
         <v>256</v>
       </c>
       <c r="I7" s="33"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="26" t="s">
         <v>269</v>
       </c>
@@ -1798,8 +1934,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="26" t="s">
         <v>143</v>
       </c>
@@ -1811,7 +1947,7 @@
         <v>256</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="26" t="s">
         <v>271</v>
       </c>
@@ -1823,8 +1959,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="26" t="s">
         <v>144</v>
       </c>
@@ -1836,7 +1972,7 @@
         <v>256</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="53"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="26" t="s">
         <v>273</v>
       </c>
@@ -1848,8 +1984,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="26" t="s">
         <v>145</v>
       </c>
@@ -1861,7 +1997,7 @@
         <v>256</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="53"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="26" t="s">
         <v>275</v>
       </c>
@@ -1873,8 +2009,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="26" t="s">
         <v>146</v>
       </c>
@@ -1886,7 +2022,7 @@
         <v>256</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="26" t="s">
         <v>277</v>
       </c>
@@ -1898,8 +2034,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="26" t="s">
         <v>147</v>
       </c>
@@ -1911,7 +2047,7 @@
         <v>257</v>
       </c>
       <c r="I12" s="33"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="26" t="s">
         <v>279</v>
       </c>
@@ -1923,8 +2059,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="26" t="s">
         <v>148</v>
       </c>
@@ -1936,7 +2072,7 @@
         <v>257</v>
       </c>
       <c r="I13" s="33"/>
-      <c r="J13" s="53"/>
+      <c r="J13" s="56"/>
       <c r="K13" s="26" t="s">
         <v>279</v>
       </c>
@@ -1948,8 +2084,8 @@
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="26" t="s">
         <v>149</v>
       </c>
@@ -1961,7 +2097,7 @@
         <v>257</v>
       </c>
       <c r="I14" s="33"/>
-      <c r="J14" s="52" t="s">
+      <c r="J14" s="55" t="s">
         <v>155</v>
       </c>
       <c r="K14" s="26" t="s">
@@ -1975,8 +2111,8 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="26" t="s">
         <v>150</v>
       </c>
@@ -1988,7 +2124,7 @@
         <v>257</v>
       </c>
       <c r="I15" s="33"/>
-      <c r="J15" s="52"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="26" t="s">
         <v>279</v>
       </c>
@@ -2003,7 +2139,7 @@
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="26" t="s">
         <v>153</v>
       </c>
@@ -2016,7 +2152,7 @@
       <c r="H16" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="J16" s="52"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="26" t="s">
         <v>280</v>
       </c>
@@ -2028,10 +2164,10 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="26" t="s">
         <v>156</v>
       </c>
@@ -2043,7 +2179,7 @@
         <v>257</v>
       </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="52"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="26" t="s">
         <v>282</v>
       </c>
@@ -2055,8 +2191,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="26" t="s">
         <v>157</v>
       </c>
@@ -2082,8 +2218,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="26" t="s">
         <v>158</v>
       </c>
@@ -2103,8 +2239,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="26" t="s">
         <v>149</v>
       </c>
@@ -2124,8 +2260,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="26" t="s">
         <v>150</v>
       </c>
@@ -2157,1693 +2293,984 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB03414-4B51-4449-A50A-AD9A95CAA7B7}">
-  <dimension ref="B2:K67"/>
+  <dimension ref="B2:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J63" sqref="J41:J63"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" style="48" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="36" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="43" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="50" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="50"/>
+    <col min="4" max="4" width="79.453125" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:6">
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:6">
       <c r="B3" s="31">
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="50" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:6">
       <c r="B4" s="31">
         <v>2</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="50" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:6">
       <c r="B5" s="31">
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="50" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:6">
       <c r="B6" s="31">
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="50" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:6">
       <c r="B7" s="31">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="50" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:6">
       <c r="B8" s="31">
         <v>6</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="50" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:6">
       <c r="B9" s="31">
         <v>7</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="50" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:6">
       <c r="B10" s="31">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="50" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:6">
       <c r="B11" s="31">
         <v>9</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="50" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:6">
       <c r="B12" s="31">
         <v>10</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="50" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:6">
       <c r="B13" s="31">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="50" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:6">
       <c r="B14" s="31">
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="50" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:6">
       <c r="B15" s="31">
         <v>13</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="50" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:6">
       <c r="B16" s="31">
         <v>14</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="50" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:5">
       <c r="B17" s="31">
         <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="50" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:5">
       <c r="B18" s="31">
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="50" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:5">
       <c r="B19" s="31">
         <v>17</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="50" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:5">
       <c r="B20" s="31">
         <v>18</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="50" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:5">
       <c r="B21" s="31">
         <v>19</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="50" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:5">
       <c r="B22" s="31">
         <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="50" t="s">
+      <c r="D22" s="69"/>
+      <c r="E22" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:5">
       <c r="B23" s="31">
         <v>21</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="50" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:5">
       <c r="B24" s="31">
         <v>22</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="50" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:5">
       <c r="B25" s="31">
         <v>23</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="50" t="s">
+      <c r="D25" s="69"/>
+      <c r="E25" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:5">
       <c r="B26" s="31">
         <v>24</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="50" t="s">
+      <c r="D26" s="60"/>
+      <c r="E26" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:5">
       <c r="B27" s="31">
         <v>25</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="50" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:5">
       <c r="B28" s="31">
         <v>26</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="50" t="s">
+      <c r="D28" s="66"/>
+      <c r="E28" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:5">
       <c r="B29" s="31">
         <v>27</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="50" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:5">
       <c r="B30" s="31">
         <v>28</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="50" t="s">
+      <c r="D30" s="67"/>
+      <c r="E30" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:5">
       <c r="B31" s="31">
         <v>29</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="50" t="s">
+      <c r="D31" s="66"/>
+      <c r="E31" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:5">
       <c r="B32" s="31">
         <v>30</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="50" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:6">
       <c r="B33" s="31">
         <v>31</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="50" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:6">
       <c r="B34" s="31">
         <v>32</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="50" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:6">
       <c r="B35" s="31">
         <v>33</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="57" t="s">
+      <c r="D35" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J35" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="31">
         <v>34</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="57" t="s">
+      <c r="D36" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J36" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="31">
         <v>35</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="57" t="s">
+      <c r="D37" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J37" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="31">
         <v>36</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I38" s="57" t="s">
+      <c r="D38" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J38" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="31">
         <v>37</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I39" s="57" t="s">
+      <c r="D39" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J39" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="31">
         <v>38</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I40" s="57" t="s">
+      <c r="D40" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J40" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="31">
         <v>39</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I41" s="57" t="s">
+      <c r="D41" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J41" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="31">
         <v>40</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I42" s="57" t="s">
+      <c r="D42" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J42" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="31">
         <v>41</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I43" s="57" t="s">
+      <c r="D43" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J43" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="31">
         <v>42</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I44" s="57" t="s">
+      <c r="D44" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J44" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="31">
+      <c r="F44" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="47" customFormat="1">
+      <c r="B45" s="24">
         <v>43</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="H45" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="I45" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="J45" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="D45" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="31">
         <v>44</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I46" s="50" t="s">
+      <c r="D46" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E46" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J46" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="14.5" customHeight="1">
+      <c r="F46" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="14.5" customHeight="1">
       <c r="B47" s="31">
         <v>45</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I47" s="50" t="s">
+      <c r="D47" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E47" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J47" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="31">
         <v>46</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I48" s="50" t="s">
+      <c r="D48" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
+      <c r="F48" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="31">
         <v>47</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I49" s="50" t="s">
+      <c r="D49" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J49" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
+      <c r="F49" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="31">
         <v>48</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I50" s="50" t="s">
+      <c r="D50" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
+      <c r="F50" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="31">
         <v>49</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I51" s="50" t="s">
+      <c r="D51" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J51" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
+      <c r="F51" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="31">
         <v>50</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I52" s="50" t="s">
+      <c r="D52" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J52" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
+      <c r="F52" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="31">
         <v>51</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I53" s="50" t="s">
+      <c r="D53" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="E53" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J53" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="K53" s="39"/>
-    </row>
-    <row r="54" spans="2:11">
+      <c r="F53" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="39"/>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="31">
         <v>52</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I54" s="50" t="s">
+      <c r="D54" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J54" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
+      <c r="F54" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="31">
         <v>53</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I55" s="50" t="s">
+      <c r="D55" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J55" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
+      <c r="F55" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="31">
         <v>54</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="G56" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I56" s="50" t="s">
+      <c r="D56" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="E56" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J56" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
+      <c r="F56" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="31">
         <v>55</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I57" s="50" t="s">
+      <c r="D57" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J57" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
+      <c r="F57" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="31">
         <v>56</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I58" s="50" t="s">
+      <c r="D58" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J58" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
+      <c r="F58" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="31">
         <v>57</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I59" s="50" t="s">
+      <c r="D59" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J59" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
+      <c r="F59" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="31">
         <v>58</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G60" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H60" s="54"/>
-      <c r="I60" s="50" t="s">
+      <c r="D60" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J60" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
+      <c r="F60" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="31">
         <v>59</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H61" s="54"/>
-      <c r="I61" s="50" t="s">
+      <c r="D61" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="E61" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J61" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
+      <c r="F61" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="31">
         <v>60</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H62" s="54"/>
-      <c r="I62" s="50" t="s">
+      <c r="D62" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="E62" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J62" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
+      <c r="F62" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="31">
         <v>61</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="H63" s="54"/>
-      <c r="I63" s="50" t="s">
+      <c r="D63" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="E63" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J63" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
+      <c r="F63" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="31">
         <v>62</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I64" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="J64" s="58" t="s">
+      <c r="D64" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="E64" s="52" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="31">
         <v>63</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I65" s="50" t="s">
+      <c r="D65" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J65" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="31">
         <v>64</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G66" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I66" s="50" t="s">
+      <c r="D66" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="E66" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J66" s="59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" s="31">
         <v>65</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G67" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="I67" s="50" t="s">
+      <c r="D67" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="E67" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="J67" s="59" t="s">
+      <c r="F67" s="53" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F67">
     <sortCondition ref="C3:C67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3855,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
   <dimension ref="B2:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B34"/>
     </sheetView>
   </sheetViews>
@@ -3904,7 +3331,7 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -3928,7 +3355,7 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +3377,7 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -3972,7 +3399,7 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
@@ -3994,7 +3421,7 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +3443,7 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -4038,7 +3465,7 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
@@ -4060,7 +3487,7 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
@@ -4082,7 +3509,7 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="17" t="s">
         <v>19</v>
       </c>
@@ -4104,7 +3531,7 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
@@ -4126,7 +3553,7 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
@@ -4148,7 +3575,7 @@
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
@@ -4170,7 +3597,7 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
@@ -4192,7 +3619,7 @@
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="24" t="s">
         <v>29</v>
       </c>
@@ -4214,7 +3641,7 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="31" t="s">
         <v>31</v>
       </c>
@@ -4236,7 +3663,7 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="24" t="s">
         <v>33</v>
       </c>
@@ -4258,7 +3685,7 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="24" t="s">
         <v>35</v>
       </c>
@@ -4280,7 +3707,7 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="31" t="s">
         <v>37</v>
       </c>
@@ -4302,7 +3729,7 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="24" t="s">
         <v>39</v>
       </c>
@@ -4324,7 +3751,7 @@
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="31" t="s">
         <v>41</v>
       </c>
@@ -4346,7 +3773,7 @@
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="24" t="s">
         <v>43</v>
       </c>
@@ -4368,7 +3795,7 @@
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="31" t="s">
         <v>45</v>
       </c>
@@ -4390,7 +3817,7 @@
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -4414,7 +3841,7 @@
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="18" t="s">
         <v>52</v>
       </c>
@@ -4436,7 +3863,7 @@
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -4458,7 +3885,7 @@
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="25" t="s">
         <v>56</v>
       </c>
@@ -4480,7 +3907,7 @@
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="23" t="s">
         <v>58</v>
       </c>
@@ -4502,7 +3929,7 @@
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="25" t="s">
         <v>60</v>
       </c>
@@ -4524,7 +3951,7 @@
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="18" t="s">
         <v>62</v>
       </c>
@@ -4546,7 +3973,7 @@
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="27" t="s">
         <v>64</v>
       </c>
@@ -4568,7 +3995,7 @@
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="22" t="s">
         <v>66</v>
       </c>
@@ -4590,7 +4017,7 @@
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="27" t="s">
         <v>68</v>
       </c>
@@ -4612,7 +4039,7 @@
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="51"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="22" t="s">
         <v>70</v>
       </c>
@@ -4634,7 +4061,7 @@
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="27" t="s">
         <v>72</v>
       </c>
@@ -4656,7 +4083,7 @@
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="23" t="s">
         <v>74</v>
       </c>
@@ -4678,7 +4105,7 @@
       <c r="B38" s="11">
         <v>36</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="25" t="s">
         <v>76</v>
       </c>
@@ -4699,7 +4126,7 @@
       <c r="B39" s="11">
         <v>37</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="23" t="s">
         <v>78</v>
       </c>
@@ -4720,7 +4147,7 @@
       <c r="B40" s="11">
         <v>38</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="23" t="s">
         <v>80</v>
       </c>
@@ -4741,7 +4168,7 @@
       <c r="B41" s="11">
         <v>39</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="23" t="s">
         <v>82</v>
       </c>
@@ -4762,7 +4189,7 @@
       <c r="B42" s="11">
         <v>40</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="23" t="s">
         <v>84</v>
       </c>
@@ -4783,7 +4210,7 @@
       <c r="B43" s="11">
         <v>41</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="25" t="s">
         <v>86</v>
       </c>
@@ -4804,7 +4231,7 @@
       <c r="B44" s="11">
         <v>42</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="23" t="s">
         <v>88</v>
       </c>
@@ -4825,7 +4252,7 @@
       <c r="B45" s="11">
         <v>43</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="37" t="s">
         <v>90</v>
       </c>
@@ -4843,7 +4270,7 @@
       <c r="B46" s="11">
         <v>44</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="25" t="s">
         <v>92</v>
       </c>
@@ -4864,7 +4291,7 @@
       <c r="B47" s="11">
         <v>45</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="54" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="27" t="s">
@@ -4887,7 +4314,7 @@
       <c r="B48" s="11">
         <v>46</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="18" t="s">
         <v>96</v>
       </c>
@@ -4908,7 +4335,7 @@
       <c r="B49" s="11">
         <v>47</v>
       </c>
-      <c r="C49" s="51"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="25" t="s">
         <v>97</v>
       </c>
@@ -4929,7 +4356,7 @@
       <c r="B50" s="11">
         <v>48</v>
       </c>
-      <c r="C50" s="51"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
@@ -4950,7 +4377,7 @@
       <c r="B51" s="11">
         <v>49</v>
       </c>
-      <c r="C51" s="51"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="23" t="s">
         <v>99</v>
       </c>
@@ -4971,7 +4398,7 @@
       <c r="B52" s="11">
         <v>50</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="25" t="s">
         <v>100</v>
       </c>
@@ -4992,7 +4419,7 @@
       <c r="B53" s="11">
         <v>51</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="18" t="s">
         <v>101</v>
       </c>
@@ -5015,7 +4442,7 @@
       <c r="B54" s="11">
         <v>52</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="22" t="s">
         <v>102</v>
       </c>
@@ -5036,7 +4463,7 @@
       <c r="B55" s="11">
         <v>53</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="18" t="s">
         <v>103</v>
       </c>
@@ -5057,7 +4484,7 @@
       <c r="B56" s="11">
         <v>54</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="27" t="s">
         <v>104</v>
       </c>
@@ -5078,7 +4505,7 @@
       <c r="B57" s="11">
         <v>55</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="23" t="s">
         <v>115</v>
       </c>
@@ -5099,7 +4526,7 @@
       <c r="B58" s="11">
         <v>56</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="27" t="s">
         <v>117</v>
       </c>
@@ -5120,7 +4547,7 @@
       <c r="B59" s="11">
         <v>57</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="23" t="s">
         <v>120</v>
       </c>
@@ -5141,7 +4568,7 @@
       <c r="B60" s="11">
         <v>58</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="38" t="s">
         <v>122</v>
       </c>
@@ -5163,7 +4590,7 @@
       <c r="B61" s="11">
         <v>59</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="23" t="s">
         <v>124</v>
       </c>
@@ -5185,7 +4612,7 @@
       <c r="B62" s="11">
         <v>60</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="23" t="s">
         <v>126</v>
       </c>
@@ -5207,7 +4634,7 @@
       <c r="B63" s="11">
         <v>61</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="25" t="s">
         <v>128</v>
       </c>
@@ -5229,7 +4656,7 @@
       <c r="B64" s="11">
         <v>62</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="25" t="s">
         <v>130</v>
       </c>
@@ -5250,7 +4677,7 @@
       <c r="B65" s="11">
         <v>63</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
@@ -5271,7 +4698,7 @@
       <c r="B66" s="11">
         <v>64</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="23" t="s">
         <v>134</v>
       </c>
@@ -5292,7 +4719,7 @@
       <c r="B67" s="11">
         <v>65</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="25" t="s">
         <v>136</v>
       </c>
@@ -5370,10 +4797,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="54" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -5388,8 +4815,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="8" t="s">
         <v>163</v>
       </c>
@@ -5402,8 +4829,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="2" t="s">
         <v>164</v>
       </c>
@@ -5416,8 +4843,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
@@ -5430,8 +4857,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="2" t="s">
         <v>166</v>
       </c>
@@ -5444,8 +4871,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="2" t="s">
         <v>167</v>
       </c>
@@ -5458,8 +4885,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="2" t="s">
         <v>168</v>
       </c>
@@ -5472,8 +4899,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="2" t="s">
         <v>169</v>
       </c>
@@ -5486,8 +4913,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="2" t="s">
         <v>170</v>
       </c>
@@ -5500,8 +4927,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="2" t="s">
         <v>171</v>
       </c>
@@ -5514,8 +4941,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="2" t="s">
         <v>172</v>
       </c>
@@ -5531,7 +4958,7 @@
       <c r="C14" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="2" t="s">
         <v>172</v>
       </c>
@@ -5544,10 +4971,10 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="2" t="s">
         <v>162</v>
       </c>
@@ -5560,8 +4987,8 @@
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="2" t="s">
         <v>164</v>
       </c>
@@ -5574,8 +5001,8 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="2" t="s">
         <v>168</v>
       </c>
@@ -5588,8 +5015,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="2" t="s">
         <v>170</v>
       </c>
@@ -5602,8 +5029,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="2" t="s">
         <v>172</v>
       </c>
@@ -5616,8 +5043,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="2" t="s">
         <v>175</v>
       </c>
@@ -5630,8 +5057,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="2" t="s">
         <v>176</v>
       </c>
@@ -5644,8 +5071,8 @@
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="2" t="s">
         <v>177</v>
       </c>
@@ -5658,10 +5085,10 @@
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="2" t="s">
         <v>179</v>
       </c>
@@ -5674,8 +5101,8 @@
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
@@ -5688,8 +5115,8 @@
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="2" t="s">
         <v>181</v>
       </c>
@@ -5702,8 +5129,8 @@
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="51"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="2" t="s">
         <v>182</v>
       </c>
@@ -5716,8 +5143,8 @@
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="2" t="s">
         <v>183</v>
       </c>
@@ -5730,8 +5157,8 @@
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="2" t="s">
         <v>184</v>
       </c>
@@ -5744,8 +5171,8 @@
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="51"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="2" t="s">
         <v>185</v>
       </c>
@@ -5758,8 +5185,8 @@
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="51"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="2" t="s">
         <v>186</v>
       </c>
@@ -5772,8 +5199,8 @@
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="51"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="2" t="s">
         <v>187</v>
       </c>
@@ -5786,8 +5213,8 @@
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="2" t="s">
         <v>188</v>
       </c>
@@ -5800,8 +5227,8 @@
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="2" t="s">
         <v>189</v>
       </c>
@@ -5814,8 +5241,8 @@
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="51"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="2" t="s">
         <v>190</v>
       </c>
@@ -5828,8 +5255,8 @@
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="2" t="s">
         <v>191</v>
       </c>
@@ -5842,8 +5269,8 @@
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="51"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="2" t="s">
         <v>192</v>
       </c>
@@ -5856,8 +5283,8 @@
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="2" t="s">
         <v>193</v>
       </c>
@@ -5927,7 +5354,7 @@
       <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="42" t="s">
@@ -5944,7 +5371,7 @@
       <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="42" t="s">
         <v>203</v>
       </c>
@@ -5959,7 +5386,7 @@
       <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="42" t="s">
         <v>205</v>
       </c>
@@ -5974,7 +5401,7 @@
       <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="42" t="s">
         <v>207</v>
       </c>
@@ -5989,7 +5416,7 @@
       <c r="B7" s="33">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="42" t="s">
         <v>209</v>
       </c>
@@ -6004,7 +5431,7 @@
       <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="42" t="s">
         <v>211</v>
       </c>
@@ -6019,7 +5446,7 @@
       <c r="B9" s="33">
         <v>7</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="56" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -6036,7 +5463,7 @@
       <c r="B10" s="33">
         <v>8</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="42" t="s">
         <v>213</v>
       </c>
@@ -6051,7 +5478,7 @@
       <c r="B11" s="33">
         <v>9</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="42" t="s">
         <v>215</v>
       </c>
@@ -6066,7 +5493,7 @@
       <c r="B12" s="33">
         <v>10</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="42" t="s">
         <v>217</v>
       </c>
@@ -6081,7 +5508,7 @@
       <c r="B13" s="33">
         <v>11</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="42" t="s">
         <v>219</v>
       </c>
@@ -6096,7 +5523,7 @@
       <c r="B14" s="33">
         <v>12</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="42" t="s">
         <v>221</v>
       </c>
@@ -6111,7 +5538,7 @@
       <c r="B15" s="33">
         <v>13</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="42" t="s">
         <v>223</v>
       </c>
@@ -6126,7 +5553,7 @@
       <c r="B16" s="33">
         <v>14</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="42" t="s">
         <v>225</v>
       </c>
@@ -6141,7 +5568,7 @@
       <c r="B17" s="33">
         <v>15</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="42" t="s">
         <v>227</v>
       </c>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC140E9-8F37-44ED-9B7E-49857E79AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5716C9-0916-4708-A0CA-ADF27E199AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case - Persiapan" sheetId="2" r:id="rId1"/>
-    <sheet name="TSD - Pengawasan" sheetId="8" r:id="rId2"/>
-    <sheet name="Use Case - Pengawasan" sheetId="1" r:id="rId3"/>
-    <sheet name="Use Case - Pengakhiran" sheetId="4" r:id="rId4"/>
+    <sheet name="Use Case - Pengawasan" sheetId="1" r:id="rId2"/>
+    <sheet name="Use Case - Pengakhiran" sheetId="4" r:id="rId3"/>
+    <sheet name="TSD - Pengawasan" sheetId="8" r:id="rId4"/>
     <sheet name="Aplikasi Tim Likuidasi" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="355">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1102,7 +1102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,13 +1148,6 @@
     <font>
       <sz val="7"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1233,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1338,26 +1331,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,14 +1356,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1384,48 +1418,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94CF5DA-E715-4AC2-BB5E-B37BBE8D695F}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I3:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1801,10 +1793,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="67" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -1817,8 +1809,10 @@
       <c r="H3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="69" t="s">
         <v>94</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -1832,8 +1826,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="26" t="s">
         <v>139</v>
       </c>
@@ -1844,8 +1838,10 @@
       <c r="H4" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="69"/>
       <c r="K4" s="26" t="s">
         <v>263</v>
       </c>
@@ -1857,8 +1853,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="26" t="s">
         <v>140</v>
       </c>
@@ -1869,8 +1865,10 @@
       <c r="H5" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="56"/>
+      <c r="I5" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="69"/>
       <c r="K5" s="26" t="s">
         <v>265</v>
       </c>
@@ -1882,8 +1880,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="26" t="s">
         <v>141</v>
       </c>
@@ -1896,8 +1894,10 @@
       <c r="H6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="56"/>
+      <c r="I6" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" s="69"/>
       <c r="K6" s="26" t="s">
         <v>267</v>
       </c>
@@ -1909,8 +1909,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="26" t="s">
         <v>142</v>
       </c>
@@ -1921,8 +1921,10 @@
       <c r="H7" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="56"/>
+      <c r="I7" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="69"/>
       <c r="K7" s="26" t="s">
         <v>269</v>
       </c>
@@ -1934,8 +1936,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="26" t="s">
         <v>143</v>
       </c>
@@ -1946,8 +1948,10 @@
       <c r="H8" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="56"/>
+      <c r="I8" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="69"/>
       <c r="K8" s="26" t="s">
         <v>271</v>
       </c>
@@ -1959,8 +1963,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="26" t="s">
         <v>144</v>
       </c>
@@ -1971,8 +1975,10 @@
       <c r="H9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="56"/>
+      <c r="I9" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="69"/>
       <c r="K9" s="26" t="s">
         <v>273</v>
       </c>
@@ -1984,8 +1990,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="26" t="s">
         <v>145</v>
       </c>
@@ -1996,8 +2002,10 @@
       <c r="H10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="56"/>
+      <c r="I10" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="69"/>
       <c r="K10" s="26" t="s">
         <v>275</v>
       </c>
@@ -2009,8 +2017,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="26" t="s">
         <v>146</v>
       </c>
@@ -2021,8 +2029,10 @@
       <c r="H11" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="56"/>
+      <c r="I11" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="69"/>
       <c r="K11" s="26" t="s">
         <v>277</v>
       </c>
@@ -2034,8 +2044,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="26" t="s">
         <v>147</v>
       </c>
@@ -2046,8 +2056,10 @@
       <c r="H12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="56"/>
+      <c r="I12" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="69"/>
       <c r="K12" s="26" t="s">
         <v>279</v>
       </c>
@@ -2059,8 +2071,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="26" t="s">
         <v>148</v>
       </c>
@@ -2071,8 +2083,10 @@
       <c r="H13" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="56"/>
+      <c r="I13" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="69"/>
       <c r="K13" s="26" t="s">
         <v>279</v>
       </c>
@@ -2084,8 +2098,8 @@
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="26" t="s">
         <v>149</v>
       </c>
@@ -2096,8 +2110,10 @@
       <c r="H14" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="55" t="s">
+      <c r="I14" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="68" t="s">
         <v>155</v>
       </c>
       <c r="K14" s="26" t="s">
@@ -2111,8 +2127,8 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="26" t="s">
         <v>150</v>
       </c>
@@ -2123,8 +2139,10 @@
       <c r="H15" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="55"/>
+      <c r="I15" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="68"/>
       <c r="K15" s="26" t="s">
         <v>279</v>
       </c>
@@ -2139,7 +2157,7 @@
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="26" t="s">
         <v>153</v>
       </c>
@@ -2152,7 +2170,10 @@
       <c r="H16" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="J16" s="55"/>
+      <c r="I16" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="J16" s="68"/>
       <c r="K16" s="26" t="s">
         <v>280</v>
       </c>
@@ -2164,10 +2185,10 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="26" t="s">
         <v>156</v>
       </c>
@@ -2178,8 +2199,10 @@
       <c r="H17" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="55"/>
+      <c r="I17" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="68"/>
       <c r="K17" s="26" t="s">
         <v>282</v>
       </c>
@@ -2191,8 +2214,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="26" t="s">
         <v>157</v>
       </c>
@@ -2203,7 +2226,9 @@
       <c r="H18" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="J18" s="6" t="s">
         <v>154</v>
       </c>
@@ -2218,8 +2243,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="26" t="s">
         <v>158</v>
       </c>
@@ -2230,7 +2255,9 @@
       <c r="H19" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I19" s="33"/>
+      <c r="I19" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
@@ -2239,8 +2266,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="26" t="s">
         <v>149</v>
       </c>
@@ -2251,7 +2278,9 @@
       <c r="H20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I20" s="33"/>
+      <c r="I20" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
@@ -2260,8 +2289,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="26" t="s">
         <v>150</v>
       </c>
@@ -2272,7 +2301,9 @@
       <c r="H21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I21" s="33"/>
+      <c r="I21" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
@@ -2292,998 +2323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB03414-4B51-4449-A50A-AD9A95CAA7B7}">
-  <dimension ref="B2:J67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.453125" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="50" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="50"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="31">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="31">
-        <v>2</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="31">
-        <v>3</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="31">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="31">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="31">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="31">
-        <v>7</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="31">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="31">
-        <v>9</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="31">
-        <v>10</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="31">
-        <v>11</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="31">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="31">
-        <v>13</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="31">
-        <v>14</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="31">
-        <v>15</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="31">
-        <v>16</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="31">
-        <v>17</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="31">
-        <v>18</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="31">
-        <v>19</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="31">
-        <v>20</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="31">
-        <v>21</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="31">
-        <v>22</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="31">
-        <v>23</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="31">
-        <v>24</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="31">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="31">
-        <v>26</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="31">
-        <v>27</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="31">
-        <v>28</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="31">
-        <v>29</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="31">
-        <v>30</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="31">
-        <v>31</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="31">
-        <v>32</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="31">
-        <v>33</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="31">
-        <v>34</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="31">
-        <v>35</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="31">
-        <v>36</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="31">
-        <v>37</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="31">
-        <v>38</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="31">
-        <v>39</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="31">
-        <v>40</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="31">
-        <v>41</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="31">
-        <v>42</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" s="47" customFormat="1">
-      <c r="B45" s="24">
-        <v>43</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="31">
-        <v>44</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="14.5" customHeight="1">
-      <c r="B47" s="31">
-        <v>45</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>344</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="31">
-        <v>46</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F48" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="31">
-        <v>47</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F49" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="31">
-        <v>48</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="31">
-        <v>49</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F51" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="31">
-        <v>50</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F52" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="31">
-        <v>51</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F53" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="39"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="31">
-        <v>52</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F54" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="31">
-        <v>53</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F55" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="31">
-        <v>54</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="31">
-        <v>55</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="31">
-        <v>56</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F58" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="31">
-        <v>57</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F59" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="31">
-        <v>58</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F60" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="31">
-        <v>59</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F61" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="31">
-        <v>60</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F62" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="31">
-        <v>61</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="E63" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F63" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="31">
-        <v>62</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="31">
-        <v>63</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="E65" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F65" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="31">
-        <v>64</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="E66" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F66" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="31">
-        <v>65</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="E67" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F67" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F67">
-    <sortCondition ref="C3:C67"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
   <dimension ref="B2:K67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3294,8 +2338,8 @@
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -3331,7 +2375,7 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="67" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -3349,13 +2393,16 @@
       <c r="H3" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
@@ -3371,13 +2418,16 @@
       <c r="H4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -3393,13 +2443,16 @@
       <c r="H5" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="46"/>
+      <c r="I5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
@@ -3415,13 +2468,16 @@
       <c r="H6" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
@@ -3437,13 +2493,16 @@
       <c r="H7" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -3459,13 +2518,16 @@
       <c r="H8" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
@@ -3481,13 +2543,16 @@
       <c r="H9" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
@@ -3503,13 +2568,16 @@
       <c r="H10" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="17" t="s">
         <v>19</v>
       </c>
@@ -3525,13 +2593,16 @@
       <c r="H11" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
@@ -3547,13 +2618,16 @@
       <c r="H12" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
@@ -3569,13 +2643,16 @@
       <c r="H13" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
@@ -3591,13 +2668,16 @@
       <c r="H14" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
@@ -3613,13 +2693,16 @@
       <c r="H15" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I15" s="46"/>
+      <c r="I15" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="24" t="s">
         <v>29</v>
       </c>
@@ -3635,13 +2718,16 @@
       <c r="H16" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="I16" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="31" t="s">
         <v>31</v>
       </c>
@@ -3657,13 +2743,16 @@
       <c r="H17" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="I17" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="24" t="s">
         <v>33</v>
       </c>
@@ -3679,13 +2768,16 @@
       <c r="H18" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="I18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="24" t="s">
         <v>35</v>
       </c>
@@ -3701,13 +2793,16 @@
       <c r="H19" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="I19" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="31" t="s">
         <v>37</v>
       </c>
@@ -3723,13 +2818,16 @@
       <c r="H20" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="I20" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="24" t="s">
         <v>39</v>
       </c>
@@ -3745,13 +2843,16 @@
       <c r="H21" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="I21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="31" t="s">
         <v>41</v>
       </c>
@@ -3767,13 +2868,16 @@
       <c r="H22" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="I22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="24" t="s">
         <v>43</v>
       </c>
@@ -3789,13 +2893,16 @@
       <c r="H23" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="I23" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="31" t="s">
         <v>45</v>
       </c>
@@ -3811,13 +2918,16 @@
       <c r="H24" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="I24" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="67" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -3835,13 +2945,16 @@
       <c r="H25" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I25" s="46"/>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="I25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="18" t="s">
         <v>52</v>
       </c>
@@ -3857,13 +2970,16 @@
       <c r="H26" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I26" s="46"/>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="I26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -3879,13 +2995,16 @@
       <c r="H27" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I27" s="46"/>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="I27" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="25" t="s">
         <v>56</v>
       </c>
@@ -3901,13 +3020,16 @@
       <c r="H28" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="46"/>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="I28" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="23" t="s">
         <v>58</v>
       </c>
@@ -3923,13 +3045,16 @@
       <c r="H29" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I29" s="46"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="I29" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="25" t="s">
         <v>60</v>
       </c>
@@ -3945,13 +3070,16 @@
       <c r="H30" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I30" s="46"/>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="I30" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="18" t="s">
         <v>62</v>
       </c>
@@ -3967,13 +3095,16 @@
       <c r="H31" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I31" s="47"/>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="I31" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="27" t="s">
         <v>64</v>
       </c>
@@ -3989,13 +3120,16 @@
       <c r="H32" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="I32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="22" t="s">
         <v>66</v>
       </c>
@@ -4011,13 +3145,16 @@
       <c r="H33" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I33" s="47"/>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="I33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="27" t="s">
         <v>68</v>
       </c>
@@ -4033,13 +3170,16 @@
       <c r="H34" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="I34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="22" t="s">
         <v>70</v>
       </c>
@@ -4055,13 +3195,16 @@
       <c r="H35" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="2:9">
+      <c r="I35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="27" t="s">
         <v>72</v>
       </c>
@@ -4077,13 +3220,16 @@
       <c r="H36" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="I36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="54"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="23" t="s">
         <v>74</v>
       </c>
@@ -4099,13 +3245,16 @@
       <c r="H37" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="47"/>
-    </row>
-    <row r="38" spans="2:9">
+      <c r="I37" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="11">
         <v>36</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="25" t="s">
         <v>76</v>
       </c>
@@ -4121,12 +3270,16 @@
       <c r="H38" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="I38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="11">
         <v>37</v>
       </c>
-      <c r="C39" s="54"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="23" t="s">
         <v>78</v>
       </c>
@@ -4142,12 +3295,16 @@
       <c r="H39" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40" spans="2:9">
+      <c r="I39" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="11">
         <v>38</v>
       </c>
-      <c r="C40" s="54"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="23" t="s">
         <v>80</v>
       </c>
@@ -4163,12 +3320,16 @@
       <c r="H40" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="I40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="11">
         <v>39</v>
       </c>
-      <c r="C41" s="54"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="23" t="s">
         <v>82</v>
       </c>
@@ -4184,12 +3345,16 @@
       <c r="H41" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="42" spans="2:9">
+      <c r="I41" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="11">
         <v>40</v>
       </c>
-      <c r="C42" s="54"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="23" t="s">
         <v>84</v>
       </c>
@@ -4199,18 +3364,22 @@
       <c r="F42" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="40" t="s">
         <v>306</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="43" spans="2:9">
+      <c r="I42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="11">
         <v>41</v>
       </c>
-      <c r="C43" s="54"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="25" t="s">
         <v>86</v>
       </c>
@@ -4226,12 +3395,16 @@
       <c r="H43" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="44" spans="2:9">
+      <c r="I43" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="11">
         <v>42</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="23" t="s">
         <v>88</v>
       </c>
@@ -4247,12 +3420,16 @@
       <c r="H44" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="45" spans="2:9">
+      <c r="I44" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="11">
         <v>43</v>
       </c>
-      <c r="C45" s="54"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="37" t="s">
         <v>90</v>
       </c>
@@ -4262,15 +3439,21 @@
       <c r="F45" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="44" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="46" spans="2:9">
+      <c r="H45" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="11">
         <v>44</v>
       </c>
-      <c r="C46" s="54"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="25" t="s">
         <v>92</v>
       </c>
@@ -4286,12 +3469,16 @@
       <c r="H46" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" ht="14.5" customHeight="1">
+      <c r="I46" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="2:10" ht="14.5" customHeight="1">
       <c r="B47" s="11">
         <v>45</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="67" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="27" t="s">
@@ -4309,12 +3496,16 @@
       <c r="H47" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="48" spans="2:9">
+      <c r="I47" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="11">
         <v>46</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="18" t="s">
         <v>96</v>
       </c>
@@ -4330,12 +3521,16 @@
       <c r="H48" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I48" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="11">
         <v>47</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="25" t="s">
         <v>97</v>
       </c>
@@ -4351,12 +3546,16 @@
       <c r="H49" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I49" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="11">
         <v>48</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
@@ -4372,12 +3571,16 @@
       <c r="H50" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="11">
         <v>49</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="23" t="s">
         <v>99</v>
       </c>
@@ -4393,12 +3596,16 @@
       <c r="H51" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="11">
         <v>50</v>
       </c>
-      <c r="C52" s="54"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="25" t="s">
         <v>100</v>
       </c>
@@ -4414,12 +3621,16 @@
       <c r="H52" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I52" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J52" s="15"/>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="11">
         <v>51</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="18" t="s">
         <v>101</v>
       </c>
@@ -4435,14 +3646,17 @@
       <c r="H53" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="J53" s="40"/>
+      <c r="I53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J53" s="15"/>
       <c r="K53" s="39"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="11">
         <v>52</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="22" t="s">
         <v>102</v>
       </c>
@@ -4458,12 +3672,16 @@
       <c r="H54" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I54" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="11">
         <v>53</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="18" t="s">
         <v>103</v>
       </c>
@@ -4479,12 +3697,16 @@
       <c r="H55" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I55" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="11">
         <v>54</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="27" t="s">
         <v>104</v>
       </c>
@@ -4500,12 +3722,16 @@
       <c r="H56" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I56" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="11">
         <v>55</v>
       </c>
-      <c r="C57" s="54"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="23" t="s">
         <v>115</v>
       </c>
@@ -4521,12 +3747,16 @@
       <c r="H57" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I57" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="11">
         <v>56</v>
       </c>
-      <c r="C58" s="54"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="27" t="s">
         <v>117</v>
       </c>
@@ -4542,12 +3772,16 @@
       <c r="H58" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I58" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="11">
         <v>57</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="23" t="s">
         <v>120</v>
       </c>
@@ -4563,12 +3797,16 @@
       <c r="H59" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I59" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J59" s="15"/>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="11">
         <v>58</v>
       </c>
-      <c r="C60" s="54"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="38" t="s">
         <v>122</v>
       </c>
@@ -4584,13 +3822,16 @@
       <c r="H60" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I60" s="46"/>
+      <c r="I60" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="11">
         <v>59</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="23" t="s">
         <v>124</v>
       </c>
@@ -4606,13 +3847,16 @@
       <c r="H61" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I61" s="46"/>
+      <c r="I61" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J61" s="15"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="11">
         <v>60</v>
       </c>
-      <c r="C62" s="54"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="23" t="s">
         <v>126</v>
       </c>
@@ -4628,13 +3872,16 @@
       <c r="H62" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I62" s="46"/>
+      <c r="I62" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J62" s="15"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="11">
         <v>61</v>
       </c>
-      <c r="C63" s="54"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="25" t="s">
         <v>128</v>
       </c>
@@ -4650,13 +3897,16 @@
       <c r="H63" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I63" s="46"/>
+      <c r="I63" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J63" s="15"/>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="11">
         <v>62</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="25" t="s">
         <v>130</v>
       </c>
@@ -4666,18 +3916,22 @@
       <c r="F64" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="40" t="s">
         <v>307</v>
       </c>
       <c r="H64" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="I64" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="11">
         <v>63</v>
       </c>
-      <c r="C65" s="54"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
@@ -4693,12 +3947,16 @@
       <c r="H65" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="I65" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" s="11">
         <v>64</v>
       </c>
-      <c r="C66" s="54"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="23" t="s">
         <v>134</v>
       </c>
@@ -4714,12 +3972,16 @@
       <c r="H66" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="I66" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="11">
         <v>65</v>
       </c>
-      <c r="C67" s="54"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="25" t="s">
         <v>136</v>
       </c>
@@ -4735,6 +3997,10 @@
       <c r="H67" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="I67" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4748,12 +4014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4797,10 +4063,10 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="67" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -4815,8 +4081,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="8" t="s">
         <v>163</v>
       </c>
@@ -4829,8 +4095,8 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="2" t="s">
         <v>164</v>
       </c>
@@ -4843,8 +4109,8 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
@@ -4857,8 +4123,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="2" t="s">
         <v>166</v>
       </c>
@@ -4871,8 +4137,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="2" t="s">
         <v>167</v>
       </c>
@@ -4885,8 +4151,8 @@
       <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="2" t="s">
         <v>168</v>
       </c>
@@ -4899,8 +4165,8 @@
       <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="2" t="s">
         <v>169</v>
       </c>
@@ -4913,8 +4179,8 @@
       <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="2" t="s">
         <v>170</v>
       </c>
@@ -4927,8 +4193,8 @@
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="2" t="s">
         <v>171</v>
       </c>
@@ -4941,8 +4207,8 @@
       <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="2" t="s">
         <v>172</v>
       </c>
@@ -4958,7 +4224,7 @@
       <c r="C14" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="2" t="s">
         <v>172</v>
       </c>
@@ -4971,10 +4237,10 @@
       <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="2" t="s">
         <v>162</v>
       </c>
@@ -4987,8 +4253,8 @@
       <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="2" t="s">
         <v>164</v>
       </c>
@@ -5001,8 +4267,8 @@
       <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="2" t="s">
         <v>168</v>
       </c>
@@ -5015,8 +4281,8 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="2" t="s">
         <v>170</v>
       </c>
@@ -5029,8 +4295,8 @@
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="2" t="s">
         <v>172</v>
       </c>
@@ -5043,8 +4309,8 @@
       <c r="B20" s="11">
         <v>18</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="2" t="s">
         <v>175</v>
       </c>
@@ -5057,8 +4323,8 @@
       <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="2" t="s">
         <v>176</v>
       </c>
@@ -5071,8 +4337,8 @@
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="2" t="s">
         <v>177</v>
       </c>
@@ -5085,10 +4351,10 @@
       <c r="B23" s="11">
         <v>21</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="2" t="s">
         <v>179</v>
       </c>
@@ -5101,8 +4367,8 @@
       <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="54"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
@@ -5115,8 +4381,8 @@
       <c r="B25" s="11">
         <v>23</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="54"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="2" t="s">
         <v>181</v>
       </c>
@@ -5129,8 +4395,8 @@
       <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="54"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="2" t="s">
         <v>182</v>
       </c>
@@ -5143,8 +4409,8 @@
       <c r="B27" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="2" t="s">
         <v>183</v>
       </c>
@@ -5157,8 +4423,8 @@
       <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="2" t="s">
         <v>184</v>
       </c>
@@ -5171,8 +4437,8 @@
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="2" t="s">
         <v>185</v>
       </c>
@@ -5185,8 +4451,8 @@
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="2" t="s">
         <v>186</v>
       </c>
@@ -5199,8 +4465,8 @@
       <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="54"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="2" t="s">
         <v>187</v>
       </c>
@@ -5213,8 +4479,8 @@
       <c r="B32" s="11">
         <v>30</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="54"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="2" t="s">
         <v>188</v>
       </c>
@@ -5227,8 +4493,8 @@
       <c r="B33" s="11">
         <v>31</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="54"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="2" t="s">
         <v>189</v>
       </c>
@@ -5241,8 +4507,8 @@
       <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="54"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="2" t="s">
         <v>190</v>
       </c>
@@ -5255,8 +4521,8 @@
       <c r="B35" s="11">
         <v>33</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="2" t="s">
         <v>191</v>
       </c>
@@ -5269,8 +4535,8 @@
       <c r="B36" s="11">
         <v>34</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="54"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="2" t="s">
         <v>192</v>
       </c>
@@ -5283,8 +4549,8 @@
       <c r="B37" s="11">
         <v>35</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="2" t="s">
         <v>193</v>
       </c>
@@ -5300,6 +4566,993 @@
     <mergeCell ref="C15:C22"/>
     <mergeCell ref="C23:C37"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB03414-4B51-4449-A50A-AD9A95CAA7B7}">
+  <dimension ref="B2:G67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.453125" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="31">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="31">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="31">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="31">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="31">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="31">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="31">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="31">
+        <v>16</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="31">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="31">
+        <v>18</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="31">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="31">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="31">
+        <v>21</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="31">
+        <v>22</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="31">
+        <v>23</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="31">
+        <v>24</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="31">
+        <v>25</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="31">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="31">
+        <v>27</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="31">
+        <v>28</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="63"/>
+      <c r="E30" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="31">
+        <v>30</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="31">
+        <v>31</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="31">
+        <v>32</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="31">
+        <v>33</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="31">
+        <v>34</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="31">
+        <v>35</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="31">
+        <v>36</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="31">
+        <v>37</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="31">
+        <v>38</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="31">
+        <v>39</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="31">
+        <v>40</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="31">
+        <v>41</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="31">
+        <v>42</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="45" customFormat="1">
+      <c r="B45" s="24">
+        <v>43</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="31">
+        <v>44</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="14.5" customHeight="1">
+      <c r="B47" s="31">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="31">
+        <v>46</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="31">
+        <v>47</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="31">
+        <v>48</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="31">
+        <v>49</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="31">
+        <v>50</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="31">
+        <v>51</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="39"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="31">
+        <v>52</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="31">
+        <v>53</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="31">
+        <v>54</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="31">
+        <v>55</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="31">
+        <v>56</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="31">
+        <v>57</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="31">
+        <v>58</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="31">
+        <v>59</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F61" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="31">
+        <v>60</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="31">
+        <v>61</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F63" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="31">
+        <v>62</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="31">
+        <v>63</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="31">
+        <v>64</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="31">
+        <v>65</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F67">
+    <sortCondition ref="C3:C67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5354,230 +5607,230 @@
       <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F3" s="33"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>204</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>206</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>208</v>
       </c>
       <c r="F6" s="33"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="33">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>210</v>
       </c>
       <c r="F7" s="33"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="41" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="33">
         <v>7</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="33">
         <v>8</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="33">
         <v>9</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>216</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="33">
         <v>10</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>218</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="33">
         <v>11</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="42" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>220</v>
       </c>
       <c r="F13" s="33"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="33">
         <v>12</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="43" t="s">
         <v>222</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="33">
         <v>13</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="42" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>224</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="33">
         <v>14</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="42" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>226</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="33">
         <v>15</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>228</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46375DF8-7B8E-4FE2-8ECC-F966B554CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD3AD-8275-47F4-BE62-52C6CC23A5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case - Persiapan" sheetId="2" r:id="rId1"/>
@@ -936,9 +936,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>PIC Diagram Analisis</t>
-  </si>
-  <si>
     <t>Relasi dengan : UC - 07 - 251, UC - 07 - 252</t>
   </si>
   <si>
@@ -1098,14 +1095,17 @@
     <t>Melakukan Review/Persetujuan Transaksi Distribusi Pembayaran Kewajiban BDL</t>
   </si>
   <si>
-    <t>(New )PIC Diagram Analisis</t>
+    <t>PIC Diagram Sequence</t>
+  </si>
+  <si>
+    <t>(New) PIC Diagram Sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1742,25 +1742,25 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I3:I21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="32" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="32" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="38.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>299</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="11">
         <v>6</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="11">
         <v>7</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" s="11">
         <v>11</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="11">
         <v>12</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="11">
         <v>13</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="11">
         <v>14</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="11">
         <v>15</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="11">
         <v>16</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="11">
         <v>17</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="11">
         <v>18</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="11">
         <v>19</v>
       </c>
@@ -2332,25 +2332,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
   <dimension ref="B2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>355</v>
@@ -2379,10 +2379,10 @@
         <v>299</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="11">
         <v>6</v>
       </c>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="11">
         <v>7</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="11">
         <v>11</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="11">
         <v>12</v>
       </c>
@@ -2691,14 +2691,14 @@
         <v>256</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="11">
         <v>13</v>
       </c>
@@ -2719,14 +2719,14 @@
         <v>256</v>
       </c>
       <c r="I15" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="11">
         <v>14</v>
       </c>
@@ -2747,14 +2747,14 @@
         <v>256</v>
       </c>
       <c r="I16" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="11">
         <v>15</v>
       </c>
@@ -2775,14 +2775,14 @@
         <v>256</v>
       </c>
       <c r="I17" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="11">
         <v>16</v>
       </c>
@@ -2803,14 +2803,14 @@
         <v>256</v>
       </c>
       <c r="I18" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="11">
         <v>17</v>
       </c>
@@ -2831,14 +2831,14 @@
         <v>256</v>
       </c>
       <c r="I19" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="11">
         <v>18</v>
       </c>
@@ -2853,20 +2853,20 @@
         <v>160</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H20" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I20" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="11">
         <v>19</v>
       </c>
@@ -2881,20 +2881,20 @@
         <v>160</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H21" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="11">
         <v>20</v>
       </c>
@@ -2909,20 +2909,20 @@
         <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H22" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>160</v>
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="11">
         <v>21</v>
       </c>
@@ -2937,20 +2937,20 @@
         <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I23" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>160</v>
       </c>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="11">
         <v>22</v>
       </c>
@@ -2965,20 +2965,20 @@
         <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I24" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>160</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="11">
         <v>23</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="11">
         <v>24</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="11">
         <v>25</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="11">
         <v>26</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="11">
         <v>27</v>
       </c>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="11">
         <v>28</v>
       </c>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="11">
         <v>29</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32" s="11">
         <v>30</v>
       </c>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11">
       <c r="B33" s="11">
         <v>31</v>
       </c>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11">
       <c r="B34" s="11">
         <v>32</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11">
       <c r="B35" s="11">
         <v>33</v>
       </c>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11">
       <c r="B36" s="11">
         <v>34</v>
       </c>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11">
       <c r="B37" s="11">
         <v>35</v>
       </c>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11">
       <c r="B38" s="11">
         <v>36</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11">
       <c r="B39" s="11">
         <v>37</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40" s="11">
         <v>38</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11">
       <c r="B41" s="11">
         <v>39</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>160</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H41" s="33" t="s">
         <v>257</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42" s="11">
         <v>40</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>160</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>257</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11">
       <c r="B43" s="11">
         <v>41</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>160</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H43" s="33" t="s">
         <v>257</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11">
       <c r="B44" s="11">
         <v>42</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>160</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H44" s="33" t="s">
         <v>257</v>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11">
       <c r="B45" s="11">
         <v>43</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>194</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H45" s="50" t="s">
         <v>300</v>
@@ -3525,7 +3525,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11">
       <c r="B46" s="11">
         <v>44</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>160</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H46" s="33" t="s">
         <v>257</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.5" customHeight="1">
       <c r="B47" s="11">
         <v>45</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11">
       <c r="B48" s="11">
         <v>46</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11">
       <c r="B49" s="11">
         <v>47</v>
       </c>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11">
       <c r="B50" s="11">
         <v>48</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11">
       <c r="B51" s="11">
         <v>49</v>
       </c>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11">
       <c r="B52" s="11">
         <v>50</v>
       </c>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11">
       <c r="B53" s="11">
         <v>51</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11">
       <c r="B54" s="11">
         <v>52</v>
       </c>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11">
       <c r="B55" s="11">
         <v>53</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11">
       <c r="B56" s="11">
         <v>54</v>
       </c>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11">
       <c r="B57" s="11">
         <v>55</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11">
       <c r="B58" s="11">
         <v>56</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11">
       <c r="B59" s="11">
         <v>57</v>
       </c>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11">
       <c r="B60" s="11">
         <v>58</v>
       </c>
@@ -3912,14 +3912,14 @@
         <v>256</v>
       </c>
       <c r="I60" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J60" s="15" t="s">
         <v>160</v>
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11">
       <c r="B61" s="11">
         <v>59</v>
       </c>
@@ -3940,14 +3940,14 @@
         <v>256</v>
       </c>
       <c r="I61" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>160</v>
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11">
       <c r="B62" s="11">
         <v>60</v>
       </c>
@@ -3968,14 +3968,14 @@
         <v>256</v>
       </c>
       <c r="I62" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J62" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11">
       <c r="B63" s="11">
         <v>61</v>
       </c>
@@ -3990,20 +3990,20 @@
         <v>160</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H63" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I63" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J63" s="31" t="s">
         <v>194</v>
       </c>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11">
       <c r="B64" s="11">
         <v>62</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>160</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H64" s="33" t="s">
         <v>257</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11">
       <c r="B65" s="11">
         <v>63</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>160</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H65" s="33" t="s">
         <v>257</v>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11">
       <c r="B66" s="11">
         <v>64</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>160</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H66" s="33" t="s">
         <v>257</v>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11">
       <c r="B67" s="11">
         <v>65</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>160</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H67" s="33" t="s">
         <v>257</v>
@@ -4123,22 +4123,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
@@ -4158,13 +4158,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="11">
         <v>6</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="11">
         <v>7</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="11">
         <v>11</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="11">
         <v>12</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="11">
         <v>13</v>
       </c>
@@ -4426,13 +4426,13 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16" s="11">
         <v>14</v>
       </c>
@@ -4446,13 +4446,13 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="11">
         <v>15</v>
       </c>
@@ -4466,13 +4466,13 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="11">
         <v>16</v>
       </c>
@@ -4486,13 +4486,13 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="11">
         <v>17</v>
       </c>
@@ -4506,13 +4506,13 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="11">
         <v>18</v>
       </c>
@@ -4526,13 +4526,13 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="11">
         <v>19</v>
       </c>
@@ -4546,13 +4546,13 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="11">
         <v>20</v>
       </c>
@@ -4566,13 +4566,13 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="11">
         <v>21</v>
       </c>
@@ -4588,13 +4588,13 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="11">
         <v>22</v>
       </c>
@@ -4608,13 +4608,13 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="11">
         <v>23</v>
       </c>
@@ -4628,13 +4628,13 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="11">
         <v>24</v>
       </c>
@@ -4648,13 +4648,13 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="11">
         <v>25</v>
       </c>
@@ -4668,13 +4668,13 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="11">
         <v>26</v>
       </c>
@@ -4688,13 +4688,13 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="11">
         <v>27</v>
       </c>
@@ -4708,13 +4708,13 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="11">
         <v>28</v>
       </c>
@@ -4728,13 +4728,13 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="11">
         <v>29</v>
       </c>
@@ -4748,13 +4748,13 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="11">
         <v>30</v>
       </c>
@@ -4768,13 +4768,13 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I32" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="11">
         <v>31</v>
       </c>
@@ -4788,13 +4788,13 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I33" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="11">
         <v>32</v>
       </c>
@@ -4808,13 +4808,13 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="11">
         <v>33</v>
       </c>
@@ -4828,13 +4828,13 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="11">
         <v>34</v>
       </c>
@@ -4848,13 +4848,13 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I36" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="11">
         <v>35</v>
       </c>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>194</v>
@@ -4890,20 +4890,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB03414-4B51-4449-A50A-AD9A95CAA7B7}">
   <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="48"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.453125" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
@@ -4912,13 +4912,13 @@
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -4927,10 +4927,10 @@
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="31">
         <v>2</v>
       </c>
@@ -4939,10 +4939,10 @@
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="31">
         <v>3</v>
       </c>
@@ -4951,10 +4951,10 @@
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="31">
         <v>4</v>
       </c>
@@ -4963,10 +4963,10 @@
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="31">
         <v>5</v>
       </c>
@@ -4975,10 +4975,10 @@
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="31">
         <v>6</v>
       </c>
@@ -4987,10 +4987,10 @@
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="31">
         <v>7</v>
       </c>
@@ -4999,10 +4999,10 @@
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="31">
         <v>8</v>
       </c>
@@ -5011,10 +5011,10 @@
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="31">
         <v>9</v>
       </c>
@@ -5023,10 +5023,10 @@
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="31">
         <v>10</v>
       </c>
@@ -5035,10 +5035,10 @@
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="31">
         <v>11</v>
       </c>
@@ -5047,10 +5047,10 @@
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="31">
         <v>12</v>
       </c>
@@ -5059,10 +5059,10 @@
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="31">
         <v>13</v>
       </c>
@@ -5071,10 +5071,10 @@
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="31">
         <v>14</v>
       </c>
@@ -5083,10 +5083,10 @@
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="31">
         <v>15</v>
       </c>
@@ -5095,10 +5095,10 @@
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="31">
         <v>16</v>
       </c>
@@ -5107,10 +5107,10 @@
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="31">
         <v>17</v>
       </c>
@@ -5119,10 +5119,10 @@
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="31">
         <v>18</v>
       </c>
@@ -5131,10 +5131,10 @@
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="31">
         <v>19</v>
       </c>
@@ -5143,10 +5143,10 @@
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="31">
         <v>20</v>
       </c>
@@ -5155,10 +5155,10 @@
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="31">
         <v>21</v>
       </c>
@@ -5167,10 +5167,10 @@
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="31">
         <v>22</v>
       </c>
@@ -5179,10 +5179,10 @@
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="31">
         <v>23</v>
       </c>
@@ -5191,10 +5191,10 @@
       </c>
       <c r="D25" s="64"/>
       <c r="E25" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="31">
         <v>24</v>
       </c>
@@ -5203,10 +5203,10 @@
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="31">
         <v>25</v>
       </c>
@@ -5215,10 +5215,10 @@
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="31">
         <v>26</v>
       </c>
@@ -5227,10 +5227,10 @@
       </c>
       <c r="D28" s="61"/>
       <c r="E28" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="31">
         <v>27</v>
       </c>
@@ -5239,10 +5239,10 @@
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="31">
         <v>28</v>
       </c>
@@ -5251,10 +5251,10 @@
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="31">
         <v>29</v>
       </c>
@@ -5263,10 +5263,10 @@
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="31">
         <v>30</v>
       </c>
@@ -5275,10 +5275,10 @@
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="31">
         <v>31</v>
       </c>
@@ -5287,10 +5287,10 @@
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="31">
         <v>32</v>
       </c>
@@ -5299,10 +5299,10 @@
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="31">
         <v>33</v>
       </c>
@@ -5310,16 +5310,16 @@
         <v>70</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F35" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="31">
         <v>34</v>
       </c>
@@ -5327,16 +5327,16 @@
         <v>115</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F36" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="31">
         <v>35</v>
       </c>
@@ -5344,16 +5344,16 @@
         <v>27</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F37" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="31">
         <v>36</v>
       </c>
@@ -5361,16 +5361,16 @@
         <v>72</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="31">
         <v>37</v>
       </c>
@@ -5378,16 +5378,16 @@
         <v>117</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F39" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="31">
         <v>38</v>
       </c>
@@ -5395,16 +5395,16 @@
         <v>29</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F40" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="31">
         <v>39</v>
       </c>
@@ -5412,16 +5412,16 @@
         <v>74</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F41" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="31">
         <v>40</v>
       </c>
@@ -5429,16 +5429,16 @@
         <v>120</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="31">
         <v>41</v>
       </c>
@@ -5446,16 +5446,16 @@
         <v>31</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F43" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="B44" s="31">
         <v>42</v>
       </c>
@@ -5463,16 +5463,16 @@
         <v>76</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F44" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" s="45" customFormat="1">
       <c r="B45" s="24">
         <v>43</v>
       </c>
@@ -5480,16 +5480,16 @@
         <v>122</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46" s="31">
         <v>44</v>
       </c>
@@ -5497,16 +5497,16 @@
         <v>33</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F46" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="14.5" customHeight="1">
       <c r="B47" s="31">
         <v>45</v>
       </c>
@@ -5514,16 +5514,16 @@
         <v>78</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F47" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="31">
         <v>46</v>
       </c>
@@ -5531,16 +5531,16 @@
         <v>124</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F48" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49" s="31">
         <v>47</v>
       </c>
@@ -5548,16 +5548,16 @@
         <v>35</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F49" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50" s="31">
         <v>48</v>
       </c>
@@ -5565,16 +5565,16 @@
         <v>80</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F50" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51" s="31">
         <v>49</v>
       </c>
@@ -5582,16 +5582,16 @@
         <v>126</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F51" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52" s="31">
         <v>50</v>
       </c>
@@ -5599,16 +5599,16 @@
         <v>37</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F52" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="31">
         <v>51</v>
       </c>
@@ -5616,17 +5616,17 @@
         <v>82</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F53" s="51" t="s">
         <v>160</v>
       </c>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="31">
         <v>52</v>
       </c>
@@ -5634,16 +5634,16 @@
         <v>128</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F54" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="31">
         <v>53</v>
       </c>
@@ -5651,16 +5651,16 @@
         <v>39</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F55" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56" s="31">
         <v>54</v>
       </c>
@@ -5668,16 +5668,16 @@
         <v>84</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F56" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57" s="31">
         <v>55</v>
       </c>
@@ -5685,16 +5685,16 @@
         <v>130</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F57" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58" s="31">
         <v>56</v>
       </c>
@@ -5702,16 +5702,16 @@
         <v>41</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F58" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="31">
         <v>57</v>
       </c>
@@ -5719,16 +5719,16 @@
         <v>86</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F59" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="31">
         <v>58</v>
       </c>
@@ -5736,16 +5736,16 @@
         <v>132</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F60" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="B61" s="31">
         <v>59</v>
       </c>
@@ -5753,16 +5753,16 @@
         <v>43</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F61" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="31">
         <v>60</v>
       </c>
@@ -5770,16 +5770,16 @@
         <v>88</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F62" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7">
       <c r="B63" s="31">
         <v>61</v>
       </c>
@@ -5787,16 +5787,16 @@
         <v>134</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F63" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7">
       <c r="B64" s="31">
         <v>62</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>90</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>300</v>
@@ -5813,7 +5813,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65" s="31">
         <v>63</v>
       </c>
@@ -5821,16 +5821,16 @@
         <v>45</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F65" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66" s="31">
         <v>64</v>
       </c>
@@ -5838,16 +5838,16 @@
         <v>92</v>
       </c>
       <c r="D66" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F66" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67" s="31">
         <v>65</v>
       </c>
@@ -5855,10 +5855,10 @@
         <v>136</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F67" s="51" t="s">
         <v>160</v>
@@ -5878,21 +5878,21 @@
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N8:N9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -5912,13 +5912,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="33">
         <v>2</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="33">
         <v>3</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="33">
         <v>4</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="33">
         <v>5</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="33">
         <v>6</v>
       </c>
@@ -6010,7 +6010,7 @@
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="33">
         <v>7</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="33">
         <v>8</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="33">
         <v>9</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="33">
         <v>10</v>
       </c>
@@ -6072,7 +6072,7 @@
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="33">
         <v>11</v>
       </c>
@@ -6087,7 +6087,7 @@
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="33">
         <v>12</v>
       </c>
@@ -6102,7 +6102,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="33">
         <v>13</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16" s="33">
         <v>14</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="33">
         <v>15</v>
       </c>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1792469-DEF4-4423-87F7-F13B396E4E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C04C5C-E181-4182-AF39-21B88E5A8529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="348">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1194,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1336,7 +1336,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1361,6 +1360,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1375,6 +1377,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2210,7 +2215,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2219,7 +2224,7 @@
     <col min="3" max="3" width="12" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="61" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="30" bestFit="1" customWidth="1"/>
@@ -2268,13 +2273,15 @@
       <c r="E3" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="F3" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="51">
@@ -2287,13 +2294,15 @@
       <c r="E4" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
+      <c r="F4" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="51">
@@ -2306,13 +2315,13 @@
       <c r="E5" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="F5" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="51">
@@ -2325,13 +2334,13 @@
       <c r="E6" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="F6" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51">
@@ -2344,13 +2353,13 @@
       <c r="E7" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
+      <c r="F7" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="51">
@@ -2363,13 +2372,13 @@
       <c r="E8" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="F8" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="51">
@@ -2382,13 +2391,13 @@
       <c r="E9" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="F9" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="51">
@@ -2401,13 +2410,13 @@
       <c r="E10" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="F10" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="51">
@@ -2420,15 +2429,15 @@
       <c r="E11" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="51">
@@ -2441,15 +2450,15 @@
       <c r="E12" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="51">
@@ -2462,15 +2471,15 @@
       <c r="E13" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="F13" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="51">
@@ -2485,15 +2494,15 @@
       <c r="E14" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="51">
@@ -2506,15 +2515,15 @@
       <c r="E15" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G15" s="61" t="s">
+      <c r="F15" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="51">
@@ -2527,15 +2536,15 @@
       <c r="E16" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G16" s="61" t="s">
+      <c r="F16" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="51">
@@ -2548,21 +2557,21 @@
       <c r="E17" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G17" s="61" t="s">
+      <c r="F17" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="51">
         <v>16</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>154</v>
       </c>
       <c r="D18" s="51" t="s">
@@ -2571,24 +2580,24 @@
       <c r="E18" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G18" s="61" t="s">
+      <c r="F18" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="29"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="14"/>
       <c r="H19" s="7"/>
       <c r="I19" s="48"/>
@@ -2599,7 +2608,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="14"/>
       <c r="H20" s="7"/>
       <c r="I20" s="48"/>
@@ -2610,7 +2619,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="14"/>
       <c r="H21" s="7"/>
       <c r="I21" s="48"/>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C04C5C-E181-4182-AF39-21B88E5A8529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CBB651-4BB1-4643-A0D8-94C7D0B0F699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="350">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1082,6 +1082,12 @@
   </si>
   <si>
     <t>Not yet</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>Nomer berapa nanya ke mas widy ?</t>
   </si>
 </sst>
 </file>
@@ -1363,6 +1369,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1377,9 +1386,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1747,10 +1753,10 @@
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -1774,8 +1780,8 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="25" t="s">
         <v>139</v>
       </c>
@@ -1797,8 +1803,8 @@
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="25" t="s">
         <v>140</v>
       </c>
@@ -1820,8 +1826,8 @@
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="25" t="s">
         <v>141</v>
       </c>
@@ -1845,8 +1851,8 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="25" t="s">
         <v>142</v>
       </c>
@@ -1868,8 +1874,8 @@
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="25" t="s">
         <v>143</v>
       </c>
@@ -1891,8 +1897,8 @@
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="25" t="s">
         <v>144</v>
       </c>
@@ -1914,8 +1920,8 @@
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="25" t="s">
         <v>145</v>
       </c>
@@ -1937,8 +1943,8 @@
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="25" t="s">
         <v>146</v>
       </c>
@@ -1960,8 +1966,8 @@
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="25" t="s">
         <v>147</v>
       </c>
@@ -1983,8 +1989,8 @@
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="25" t="s">
         <v>148</v>
       </c>
@@ -2006,8 +2012,8 @@
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="25" t="s">
         <v>149</v>
       </c>
@@ -2029,8 +2035,8 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="25" t="s">
         <v>150</v>
       </c>
@@ -2055,7 +2061,7 @@
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="25" t="s">
         <v>153</v>
       </c>
@@ -2079,10 +2085,10 @@
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="62"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="25" t="s">
         <v>156</v>
       </c>
@@ -2104,8 +2110,8 @@
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="25" t="s">
         <v>157</v>
       </c>
@@ -2127,8 +2133,8 @@
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="25" t="s">
         <v>158</v>
       </c>
@@ -2150,8 +2156,8 @@
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="62"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="25" t="s">
         <v>149</v>
       </c>
@@ -2173,8 +2179,8 @@
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="62"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="25" t="s">
         <v>150</v>
       </c>
@@ -2212,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA68C8A-DA6F-4481-B8E4-BFBE438FF51F}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2224,14 +2230,15 @@
     <col min="3" max="3" width="12" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:11">
       <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
@@ -2245,26 +2252,29 @@
         <v>0</v>
       </c>
       <c r="F2" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="J2" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="K2" s="50" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="14.5" customHeight="1">
+    <row r="3" spans="2:11" ht="14.5" customHeight="1">
       <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2273,219 +2283,252 @@
       <c r="E3" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G3" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="H3" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="51">
         <v>2</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="51" t="s">
         <v>231</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="H4" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="51" t="s">
         <v>233</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="51">
         <v>4</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="51" t="s">
         <v>235</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="51" t="s">
         <v>237</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="51">
         <v>6</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="51" t="s">
         <v>239</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="51">
         <v>7</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="51" t="s">
         <v>241</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="51">
         <v>8</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="51" t="s">
         <v>243</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="51" t="s">
         <v>245</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="F11" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="51">
         <v>10</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="51" t="s">
         <v>247</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="60" t="s">
+      <c r="F12" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="51">
         <v>11</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="51" t="s">
         <v>247</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="60" t="s">
+      <c r="F13" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="51">
         <v>12</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="51" t="s">
@@ -2494,80 +2537,92 @@
       <c r="E14" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="60" t="s">
+      <c r="F14" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="51">
         <v>13</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="51" t="s">
         <v>247</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="60" t="s">
+      <c r="F15" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="51">
         <v>14</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="60" t="s">
+      <c r="F16" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="51">
         <v>15</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="51" t="s">
         <v>250</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="60" t="s">
+      <c r="F17" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="51">
         <v>16</v>
       </c>
@@ -2580,52 +2635,58 @@
       <c r="E18" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="60" t="s">
+      <c r="F18" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="I18" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="29"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="29"/>
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="25"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="29"/>
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F21" s="25"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="E27" s="1">
         <f>SUM(E23:E26)</f>
         <v>0</v>
@@ -2695,7 +2756,7 @@
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -2724,7 +2785,7 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +2812,7 @@
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2839,7 @@
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2805,7 +2866,7 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="23" t="s">
         <v>11</v>
       </c>
@@ -2832,7 +2893,7 @@
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -2859,7 +2920,7 @@
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
@@ -2886,7 +2947,7 @@
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
@@ -2913,7 +2974,7 @@
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
@@ -2940,7 +3001,7 @@
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="18" t="s">
         <v>21</v>
       </c>
@@ -2967,7 +3028,7 @@
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="18" t="s">
         <v>23</v>
       </c>
@@ -2994,7 +3055,7 @@
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
@@ -3021,7 +3082,7 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
@@ -3048,7 +3109,7 @@
       <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3075,7 +3136,7 @@
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="29" t="s">
         <v>31</v>
       </c>
@@ -3102,7 +3163,7 @@
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="23" t="s">
         <v>33</v>
       </c>
@@ -3129,7 +3190,7 @@
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="23" t="s">
         <v>35</v>
       </c>
@@ -3156,7 +3217,7 @@
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="29" t="s">
         <v>37</v>
       </c>
@@ -3183,7 +3244,7 @@
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="23" t="s">
         <v>39</v>
       </c>
@@ -3210,7 +3271,7 @@
       <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
@@ -3237,7 +3298,7 @@
       <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="23" t="s">
         <v>43</v>
       </c>
@@ -3264,7 +3325,7 @@
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="29" t="s">
         <v>45</v>
       </c>
@@ -3291,7 +3352,7 @@
       <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -3320,7 +3381,7 @@
       <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="17" t="s">
         <v>52</v>
       </c>
@@ -3347,7 +3408,7 @@
       <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -3374,7 +3435,7 @@
       <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="24" t="s">
         <v>56</v>
       </c>
@@ -3401,7 +3462,7 @@
       <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="22" t="s">
         <v>58</v>
       </c>
@@ -3428,7 +3489,7 @@
       <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="24" t="s">
         <v>60</v>
       </c>
@@ -3455,7 +3516,7 @@
       <c r="B31" s="10">
         <v>29</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
@@ -3482,7 +3543,7 @@
       <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="26" t="s">
         <v>64</v>
       </c>
@@ -3509,7 +3570,7 @@
       <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="62"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="21" t="s">
         <v>66</v>
       </c>
@@ -3536,7 +3597,7 @@
       <c r="B34" s="10">
         <v>32</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="26" t="s">
         <v>68</v>
       </c>
@@ -3563,7 +3624,7 @@
       <c r="B35" s="10">
         <v>33</v>
       </c>
-      <c r="C35" s="62"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="21" t="s">
         <v>70</v>
       </c>
@@ -3590,7 +3651,7 @@
       <c r="B36" s="10">
         <v>34</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="26" t="s">
         <v>72</v>
       </c>
@@ -3617,7 +3678,7 @@
       <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="22" t="s">
         <v>74</v>
       </c>
@@ -3644,7 +3705,7 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="24" t="s">
         <v>76</v>
       </c>
@@ -3671,7 +3732,7 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="22" t="s">
         <v>78</v>
       </c>
@@ -3698,7 +3759,7 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="22" t="s">
         <v>80</v>
       </c>
@@ -3725,7 +3786,7 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="22" t="s">
         <v>82</v>
       </c>
@@ -3752,7 +3813,7 @@
       <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="62"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="22" t="s">
         <v>84</v>
       </c>
@@ -3779,7 +3840,7 @@
       <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="62"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="24" t="s">
         <v>86</v>
       </c>
@@ -3806,7 +3867,7 @@
       <c r="B44" s="10">
         <v>42</v>
       </c>
-      <c r="C44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="22" t="s">
         <v>88</v>
       </c>
@@ -3833,7 +3894,7 @@
       <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="33" t="s">
         <v>90</v>
       </c>
@@ -3860,7 +3921,7 @@
       <c r="B46" s="10">
         <v>44</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="24" t="s">
         <v>92</v>
       </c>
@@ -3887,7 +3948,7 @@
       <c r="B47" s="10">
         <v>45</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="63" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -3916,7 +3977,7 @@
       <c r="B48" s="10">
         <v>46</v>
       </c>
-      <c r="C48" s="62"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="17" t="s">
         <v>96</v>
       </c>
@@ -3943,7 +4004,7 @@
       <c r="B49" s="10">
         <v>47</v>
       </c>
-      <c r="C49" s="62"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="24" t="s">
         <v>97</v>
       </c>
@@ -3970,7 +4031,7 @@
       <c r="B50" s="10">
         <v>48</v>
       </c>
-      <c r="C50" s="62"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
@@ -3997,7 +4058,7 @@
       <c r="B51" s="10">
         <v>49</v>
       </c>
-      <c r="C51" s="62"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="22" t="s">
         <v>99</v>
       </c>
@@ -4024,7 +4085,7 @@
       <c r="B52" s="10">
         <v>50</v>
       </c>
-      <c r="C52" s="62"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="24" t="s">
         <v>100</v>
       </c>
@@ -4051,7 +4112,7 @@
       <c r="B53" s="10">
         <v>51</v>
       </c>
-      <c r="C53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="17" t="s">
         <v>101</v>
       </c>
@@ -4078,7 +4139,7 @@
       <c r="B54" s="10">
         <v>52</v>
       </c>
-      <c r="C54" s="62"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="21" t="s">
         <v>102</v>
       </c>
@@ -4105,7 +4166,7 @@
       <c r="B55" s="10">
         <v>53</v>
       </c>
-      <c r="C55" s="62"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="17" t="s">
         <v>103</v>
       </c>
@@ -4132,7 +4193,7 @@
       <c r="B56" s="10">
         <v>54</v>
       </c>
-      <c r="C56" s="62"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="26" t="s">
         <v>104</v>
       </c>
@@ -4159,7 +4220,7 @@
       <c r="B57" s="10">
         <v>55</v>
       </c>
-      <c r="C57" s="62"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="22" t="s">
         <v>115</v>
       </c>
@@ -4186,7 +4247,7 @@
       <c r="B58" s="10">
         <v>56</v>
       </c>
-      <c r="C58" s="62"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="26" t="s">
         <v>117</v>
       </c>
@@ -4213,7 +4274,7 @@
       <c r="B59" s="10">
         <v>57</v>
       </c>
-      <c r="C59" s="62"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="22" t="s">
         <v>120</v>
       </c>
@@ -4240,7 +4301,7 @@
       <c r="B60" s="10">
         <v>58</v>
       </c>
-      <c r="C60" s="62"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="34" t="s">
         <v>122</v>
       </c>
@@ -4267,7 +4328,7 @@
       <c r="B61" s="10">
         <v>59</v>
       </c>
-      <c r="C61" s="62"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="22" t="s">
         <v>124</v>
       </c>
@@ -4294,7 +4355,7 @@
       <c r="B62" s="10">
         <v>60</v>
       </c>
-      <c r="C62" s="62"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="22" t="s">
         <v>126</v>
       </c>
@@ -4321,7 +4382,7 @@
       <c r="B63" s="10">
         <v>61</v>
       </c>
-      <c r="C63" s="62"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="24" t="s">
         <v>128</v>
       </c>
@@ -4348,7 +4409,7 @@
       <c r="B64" s="10">
         <v>62</v>
       </c>
-      <c r="C64" s="62"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="24" t="s">
         <v>130</v>
       </c>
@@ -4375,7 +4436,7 @@
       <c r="B65" s="10">
         <v>63</v>
       </c>
-      <c r="C65" s="62"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
@@ -4402,7 +4463,7 @@
       <c r="B66" s="10">
         <v>64</v>
       </c>
-      <c r="C66" s="62"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="22" t="s">
         <v>134</v>
       </c>
@@ -4429,7 +4490,7 @@
       <c r="B67" s="10">
         <v>65</v>
       </c>
-      <c r="C67" s="62"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="24" t="s">
         <v>136</v>
       </c>
@@ -4518,7 +4579,7 @@
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="47" t="s">
@@ -4542,7 +4603,7 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="47" t="s">
         <v>295</v>
       </c>
@@ -4564,7 +4625,7 @@
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="47" t="s">
         <v>297</v>
       </c>
@@ -4586,7 +4647,7 @@
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="47" t="s">
         <v>299</v>
       </c>
@@ -4608,7 +4669,7 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="47" t="s">
         <v>301</v>
       </c>
@@ -4630,7 +4691,7 @@
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="47" t="s">
         <v>303</v>
       </c>
@@ -4651,7 +4712,7 @@
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="47" t="s">
         <v>305</v>
       </c>
@@ -4672,7 +4733,7 @@
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="47" t="s">
         <v>307</v>
       </c>
@@ -4693,7 +4754,7 @@
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="47" t="s">
         <v>309</v>
       </c>
@@ -4714,7 +4775,7 @@
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="47" t="s">
@@ -4737,7 +4798,7 @@
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="47" t="s">
         <v>289</v>
       </c>
@@ -4758,7 +4819,7 @@
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="47" t="s">
         <v>291</v>
       </c>
@@ -4779,7 +4840,7 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="47" t="s">
         <v>311</v>
       </c>
@@ -4800,7 +4861,7 @@
       <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="47" t="s">
         <v>313</v>
       </c>
@@ -4821,7 +4882,7 @@
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="47" t="s">
         <v>303</v>
       </c>
@@ -4842,7 +4903,7 @@
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="47" t="s">
         <v>315</v>
       </c>
@@ -4863,7 +4924,7 @@
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="47" t="s">
         <v>317</v>
       </c>
@@ -4884,7 +4945,7 @@
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="47" t="s">
         <v>319</v>
       </c>
@@ -4905,7 +4966,7 @@
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="47" t="s">
         <v>321</v>
       </c>
@@ -4926,7 +4987,7 @@
       <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="47" t="s">
         <v>323</v>
       </c>
@@ -4947,7 +5008,7 @@
       <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>325</v>
       </c>
       <c r="D23" s="47" t="s">
@@ -4970,7 +5031,7 @@
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="47" t="s">
         <v>327</v>
       </c>
@@ -4991,7 +5052,7 @@
       <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="47" t="s">
         <v>329</v>
       </c>
@@ -5012,7 +5073,7 @@
       <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="47" t="s">
         <v>331</v>
       </c>
@@ -5033,7 +5094,7 @@
       <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="47" t="s">
         <v>333</v>
       </c>
@@ -5054,7 +5115,7 @@
       <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="47" t="s">
         <v>335</v>
       </c>
@@ -5075,7 +5136,7 @@
       <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="47" t="s">
         <v>337</v>
       </c>
@@ -5096,7 +5157,7 @@
       <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="47" t="s">
         <v>339</v>
       </c>
@@ -5178,7 +5239,7 @@
       <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="36" t="s">
@@ -5201,7 +5262,7 @@
       <c r="B4" s="31">
         <v>2</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="36" t="s">
         <v>171</v>
       </c>
@@ -5222,7 +5283,7 @@
       <c r="B5" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="36" t="s">
         <v>173</v>
       </c>
@@ -5243,7 +5304,7 @@
       <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="36" t="s">
         <v>175</v>
       </c>
@@ -5264,7 +5325,7 @@
       <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="36" t="s">
         <v>177</v>
       </c>
@@ -5285,7 +5346,7 @@
       <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="36" t="s">
         <v>179</v>
       </c>
@@ -5305,7 +5366,7 @@
       <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="67" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="36" t="s">
@@ -5327,7 +5388,7 @@
       <c r="B10" s="31">
         <v>8</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="36" t="s">
         <v>181</v>
       </c>
@@ -5347,7 +5408,7 @@
       <c r="B11" s="31">
         <v>9</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="36" t="s">
         <v>183</v>
       </c>
@@ -5367,7 +5428,7 @@
       <c r="B12" s="31">
         <v>10</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="36" t="s">
         <v>185</v>
       </c>
@@ -5387,7 +5448,7 @@
       <c r="B13" s="31">
         <v>11</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="36" t="s">
         <v>187</v>
       </c>
@@ -5407,7 +5468,7 @@
       <c r="B14" s="31">
         <v>12</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="36" t="s">
         <v>189</v>
       </c>
@@ -5427,7 +5488,7 @@
       <c r="B15" s="31">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="36" t="s">
         <v>191</v>
       </c>
@@ -5447,7 +5508,7 @@
       <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="36" t="s">
         <v>193</v>
       </c>
@@ -5467,7 +5528,7 @@
       <c r="B17" s="31">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="36" t="s">
         <v>195</v>
       </c>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CBB651-4BB1-4643-A0D8-94C7D0B0F699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4914A57-77A1-472B-94D3-1F559A231BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="350">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -2221,7 +2221,7 @@
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2230,7 +2230,7 @@
     <col min="3" max="3" width="12" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="61" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
@@ -2469,8 +2469,8 @@
       <c r="G11" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="H11" s="60" t="s">
-        <v>347</v>
+      <c r="H11" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="55"/>
@@ -2493,8 +2493,8 @@
       <c r="G12" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="H12" s="60" t="s">
-        <v>347</v>
+      <c r="H12" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="55"/>
@@ -2517,8 +2517,8 @@
       <c r="G13" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>347</v>
+      <c r="H13" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="55"/>
@@ -2543,8 +2543,8 @@
       <c r="G14" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="H14" s="60" t="s">
-        <v>347</v>
+      <c r="H14" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="55"/>
@@ -2567,8 +2567,8 @@
       <c r="G15" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="H15" s="60" t="s">
-        <v>347</v>
+      <c r="H15" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="55"/>
@@ -2594,7 +2594,9 @@
       <c r="H16" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="I16" s="54"/>
+      <c r="I16" s="54" t="s">
+        <v>346</v>
+      </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
     </row>
@@ -2618,7 +2620,9 @@
       <c r="H17" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="I17" s="54"/>
+      <c r="I17" s="54" t="s">
+        <v>346</v>
+      </c>
       <c r="J17" s="55"/>
       <c r="K17" s="56"/>
     </row>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4914A57-77A1-472B-94D3-1F559A231BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FABB50-B269-4F07-92F4-3C859C5E09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Persiapan (ver 1.0)" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="350">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1094,7 +1094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1352,9 +1352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1707,20 +1704,20 @@
       <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1749,14 +1746,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -1776,12 +1773,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="25" t="s">
         <v>139</v>
       </c>
@@ -1799,12 +1796,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="25" t="s">
         <v>140</v>
       </c>
@@ -1822,12 +1819,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="25" t="s">
         <v>141</v>
       </c>
@@ -1847,12 +1844,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="25" t="s">
         <v>142</v>
       </c>
@@ -1870,12 +1867,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="25" t="s">
         <v>143</v>
       </c>
@@ -1893,12 +1890,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="25" t="s">
         <v>144</v>
       </c>
@@ -1916,12 +1913,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="25" t="s">
         <v>145</v>
       </c>
@@ -1939,12 +1936,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="25" t="s">
         <v>146</v>
       </c>
@@ -1962,12 +1959,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="25" t="s">
         <v>147</v>
       </c>
@@ -1985,12 +1982,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="25" t="s">
         <v>148</v>
       </c>
@@ -2008,12 +2005,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="25" t="s">
         <v>149</v>
       </c>
@@ -2031,12 +2028,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="25" t="s">
         <v>150</v>
       </c>
@@ -2054,14 +2051,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="25" t="s">
         <v>153</v>
       </c>
@@ -2081,14 +2078,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="25" t="s">
         <v>156</v>
       </c>
@@ -2106,12 +2103,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="25" t="s">
         <v>157</v>
       </c>
@@ -2129,12 +2126,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="25" t="s">
         <v>158</v>
       </c>
@@ -2152,12 +2149,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="25" t="s">
         <v>149</v>
       </c>
@@ -2175,12 +2172,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="25" t="s">
         <v>150</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <f>SUM(E23:E26)</f>
         <v>0</v>
@@ -2221,24 +2218,24 @@
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
@@ -2270,11 +2267,11 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.5" customHeight="1">
+    <row r="3" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2286,7 +2283,7 @@
       <c r="F3" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="61" t="s">
         <v>341</v>
       </c>
       <c r="H3" s="53" t="s">
@@ -2296,11 +2293,11 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="51">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="51" t="s">
         <v>231</v>
       </c>
@@ -2310,21 +2307,21 @@
       <c r="F4" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>347</v>
+      <c r="H4" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="51" t="s">
         <v>233</v>
       </c>
@@ -2334,19 +2331,21 @@
       <c r="F5" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="I5" s="54"/>
       <c r="J5" s="55"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="51">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="51" t="s">
         <v>235</v>
       </c>
@@ -2356,19 +2355,21 @@
       <c r="F6" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="I6" s="54"/>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="51" t="s">
         <v>237</v>
       </c>
@@ -2378,19 +2379,21 @@
       <c r="F7" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="I7" s="54"/>
       <c r="J7" s="55"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="51">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="51" t="s">
         <v>239</v>
       </c>
@@ -2400,19 +2403,21 @@
       <c r="F8" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="H8" s="53"/>
+      <c r="H8" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="I8" s="54"/>
       <c r="J8" s="55"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="51">
         <v>7</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="51" t="s">
         <v>241</v>
       </c>
@@ -2422,19 +2427,21 @@
       <c r="F9" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="I9" s="54"/>
       <c r="J9" s="55"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="51">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="51" t="s">
         <v>243</v>
       </c>
@@ -2444,7 +2451,7 @@
       <c r="F10" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="61" t="s">
         <v>341</v>
       </c>
       <c r="H10" s="53"/>
@@ -2452,11 +2459,11 @@
       <c r="J10" s="55"/>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="51" t="s">
         <v>245</v>
       </c>
@@ -2466,7 +2473,7 @@
       <c r="F11" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="61" t="s">
         <v>285</v>
       </c>
       <c r="H11" s="53" t="s">
@@ -2476,11 +2483,11 @@
       <c r="J11" s="55"/>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="51">
         <v>10</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="51" t="s">
         <v>247</v>
       </c>
@@ -2490,7 +2497,7 @@
       <c r="F12" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="61" t="s">
         <v>285</v>
       </c>
       <c r="H12" s="53" t="s">
@@ -2500,11 +2507,11 @@
       <c r="J12" s="55"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="51">
         <v>11</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="51" t="s">
         <v>247</v>
       </c>
@@ -2514,7 +2521,7 @@
       <c r="F13" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="61" t="s">
         <v>285</v>
       </c>
       <c r="H13" s="53" t="s">
@@ -2524,11 +2531,11 @@
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="51">
         <v>12</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="51" t="s">
@@ -2540,7 +2547,7 @@
       <c r="F14" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="61" t="s">
         <v>285</v>
       </c>
       <c r="H14" s="53" t="s">
@@ -2550,11 +2557,11 @@
       <c r="J14" s="55"/>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="51">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="51" t="s">
         <v>247</v>
       </c>
@@ -2564,7 +2571,7 @@
       <c r="F15" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="61" t="s">
         <v>285</v>
       </c>
       <c r="H15" s="53" t="s">
@@ -2574,11 +2581,11 @@
       <c r="J15" s="55"/>
       <c r="K15" s="56"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="51">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="51" t="s">
         <v>248</v>
       </c>
@@ -2588,23 +2595,23 @@
       <c r="F16" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G16" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" s="60" t="s">
+      <c r="G16" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="59" t="s">
         <v>347</v>
       </c>
       <c r="I16" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="51">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="51" t="s">
         <v>250</v>
       </c>
@@ -2614,10 +2621,10 @@
       <c r="F17" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G17" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" s="60" t="s">
+      <c r="G17" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="59" t="s">
         <v>347</v>
       </c>
       <c r="I17" s="54" t="s">
@@ -2626,11 +2633,11 @@
       <c r="J17" s="55"/>
       <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="51">
         <v>16</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>154</v>
       </c>
       <c r="D18" s="51" t="s">
@@ -2642,10 +2649,10 @@
       <c r="F18" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="G18" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="60" t="s">
+      <c r="G18" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="59" t="s">
         <v>347</v>
       </c>
       <c r="I18" s="54" t="s">
@@ -2654,7 +2661,7 @@
       <c r="J18" s="55"/>
       <c r="K18" s="56"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="29"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
@@ -2666,7 +2673,7 @@
       <c r="J19" s="48"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="29"/>
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
@@ -2678,7 +2685,7 @@
       <c r="J20" s="48"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="29"/>
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
@@ -2690,7 +2697,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <f>SUM(E23:E26)</f>
         <v>0</v>
@@ -2714,20 +2721,20 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="36" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
@@ -2756,11 +2763,11 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -2785,11 +2792,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2812,11 +2819,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -2839,11 +2846,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2866,11 +2873,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="23" t="s">
         <v>11</v>
       </c>
@@ -2893,11 +2900,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -2920,11 +2927,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
@@ -2947,11 +2954,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
@@ -2974,11 +2981,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
@@ -3001,11 +3008,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="18" t="s">
         <v>21</v>
       </c>
@@ -3028,11 +3035,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="18" t="s">
         <v>23</v>
       </c>
@@ -3055,11 +3062,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
@@ -3082,11 +3089,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
@@ -3109,11 +3116,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3136,11 +3143,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="29" t="s">
         <v>31</v>
       </c>
@@ -3163,11 +3170,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="23" t="s">
         <v>33</v>
       </c>
@@ -3190,11 +3197,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="23" t="s">
         <v>35</v>
       </c>
@@ -3217,11 +3224,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="29" t="s">
         <v>37</v>
       </c>
@@ -3244,11 +3251,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="23" t="s">
         <v>39</v>
       </c>
@@ -3271,11 +3278,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
@@ -3298,11 +3305,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="23" t="s">
         <v>43</v>
       </c>
@@ -3325,11 +3332,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="29" t="s">
         <v>45</v>
       </c>
@@ -3352,11 +3359,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -3381,11 +3388,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="17" t="s">
         <v>52</v>
       </c>
@@ -3408,11 +3415,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -3435,11 +3442,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="24" t="s">
         <v>56</v>
       </c>
@@ -3462,11 +3469,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="22" t="s">
         <v>58</v>
       </c>
@@ -3489,11 +3496,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="24" t="s">
         <v>60</v>
       </c>
@@ -3516,11 +3523,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>29</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
@@ -3543,11 +3550,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="26" t="s">
         <v>64</v>
       </c>
@@ -3570,11 +3577,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="21" t="s">
         <v>66</v>
       </c>
@@ -3597,11 +3604,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>32</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="26" t="s">
         <v>68</v>
       </c>
@@ -3624,11 +3631,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>33</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="21" t="s">
         <v>70</v>
       </c>
@@ -3651,11 +3658,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>34</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="26" t="s">
         <v>72</v>
       </c>
@@ -3678,11 +3685,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="22" t="s">
         <v>74</v>
       </c>
@@ -3705,11 +3712,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="24" t="s">
         <v>76</v>
       </c>
@@ -3732,11 +3739,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22" t="s">
         <v>78</v>
       </c>
@@ -3759,11 +3766,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="22" t="s">
         <v>80</v>
       </c>
@@ -3786,11 +3793,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="22" t="s">
         <v>82</v>
       </c>
@@ -3813,11 +3820,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="22" t="s">
         <v>84</v>
       </c>
@@ -3840,11 +3847,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="63"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="24" t="s">
         <v>86</v>
       </c>
@@ -3867,11 +3874,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>42</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="22" t="s">
         <v>88</v>
       </c>
@@ -3894,11 +3901,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="63"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="33" t="s">
         <v>90</v>
       </c>
@@ -3921,11 +3928,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
         <v>44</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="24" t="s">
         <v>92</v>
       </c>
@@ -3948,11 +3955,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="14.5" customHeight="1">
+    <row r="47" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>45</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="62" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -3977,11 +3984,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="10">
         <v>46</v>
       </c>
-      <c r="C48" s="63"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="17" t="s">
         <v>96</v>
       </c>
@@ -4004,11 +4011,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
         <v>47</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="24" t="s">
         <v>97</v>
       </c>
@@ -4031,11 +4038,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="10">
         <v>48</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
@@ -4058,11 +4065,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>49</v>
       </c>
-      <c r="C51" s="63"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="22" t="s">
         <v>99</v>
       </c>
@@ -4085,11 +4092,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
         <v>50</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="24" t="s">
         <v>100</v>
       </c>
@@ -4112,11 +4119,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
         <v>51</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="17" t="s">
         <v>101</v>
       </c>
@@ -4139,11 +4146,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
         <v>52</v>
       </c>
-      <c r="C54" s="63"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="21" t="s">
         <v>102</v>
       </c>
@@ -4166,11 +4173,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="10">
         <v>53</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="17" t="s">
         <v>103</v>
       </c>
@@ -4193,11 +4200,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="10">
         <v>54</v>
       </c>
-      <c r="C56" s="63"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="26" t="s">
         <v>104</v>
       </c>
@@ -4220,11 +4227,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="10">
         <v>55</v>
       </c>
-      <c r="C57" s="63"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="22" t="s">
         <v>115</v>
       </c>
@@ -4247,11 +4254,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
         <v>56</v>
       </c>
-      <c r="C58" s="63"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="26" t="s">
         <v>117</v>
       </c>
@@ -4274,11 +4281,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>57</v>
       </c>
-      <c r="C59" s="63"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="22" t="s">
         <v>120</v>
       </c>
@@ -4301,11 +4308,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="10">
         <v>58</v>
       </c>
-      <c r="C60" s="63"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="34" t="s">
         <v>122</v>
       </c>
@@ -4328,11 +4335,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="10">
         <v>59</v>
       </c>
-      <c r="C61" s="63"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="22" t="s">
         <v>124</v>
       </c>
@@ -4355,11 +4362,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="10">
         <v>60</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="22" t="s">
         <v>126</v>
       </c>
@@ -4382,11 +4389,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="10">
         <v>61</v>
       </c>
-      <c r="C63" s="63"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="24" t="s">
         <v>128</v>
       </c>
@@ -4409,11 +4416,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="10">
         <v>62</v>
       </c>
-      <c r="C64" s="63"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="24" t="s">
         <v>130</v>
       </c>
@@ -4436,11 +4443,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>63</v>
       </c>
-      <c r="C65" s="63"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
@@ -4463,11 +4470,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="10">
         <v>64</v>
       </c>
-      <c r="C66" s="63"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="22" t="s">
         <v>134</v>
       </c>
@@ -4490,11 +4497,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>65</v>
       </c>
-      <c r="C67" s="63"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="24" t="s">
         <v>136</v>
       </c>
@@ -4537,20 +4544,20 @@
       <selection activeCell="J3" sqref="J3:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
@@ -4579,11 +4586,11 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.5" customHeight="1">
+    <row r="3" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="47" t="s">
@@ -4603,11 +4610,11 @@
       <c r="J3" s="29"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="47" t="s">
         <v>295</v>
       </c>
@@ -4625,11 +4632,11 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="47" t="s">
         <v>297</v>
       </c>
@@ -4647,11 +4654,11 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="47" t="s">
         <v>299</v>
       </c>
@@ -4669,11 +4676,11 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="47" t="s">
         <v>301</v>
       </c>
@@ -4691,11 +4698,11 @@
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="47" t="s">
         <v>303</v>
       </c>
@@ -4712,11 +4719,11 @@
       <c r="I8" s="45"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="47" t="s">
         <v>305</v>
       </c>
@@ -4733,11 +4740,11 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="47" t="s">
         <v>307</v>
       </c>
@@ -4754,11 +4761,11 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="47" t="s">
         <v>309</v>
       </c>
@@ -4775,11 +4782,11 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="47" t="s">
@@ -4798,11 +4805,11 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="47" t="s">
         <v>289</v>
       </c>
@@ -4819,11 +4826,11 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="47" t="s">
         <v>291</v>
       </c>
@@ -4840,11 +4847,11 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="47" t="s">
         <v>311</v>
       </c>
@@ -4861,11 +4868,11 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="47" t="s">
         <v>313</v>
       </c>
@@ -4882,11 +4889,11 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="47" t="s">
         <v>303</v>
       </c>
@@ -4903,11 +4910,11 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="47" t="s">
         <v>315</v>
       </c>
@@ -4924,11 +4931,11 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="47" t="s">
         <v>317</v>
       </c>
@@ -4945,11 +4952,11 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="47" t="s">
         <v>319</v>
       </c>
@@ -4966,11 +4973,11 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="47" t="s">
         <v>321</v>
       </c>
@@ -4987,11 +4994,11 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="47" t="s">
         <v>323</v>
       </c>
@@ -5008,11 +5015,11 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>325</v>
       </c>
       <c r="D23" s="47" t="s">
@@ -5031,11 +5038,11 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="47" t="s">
         <v>327</v>
       </c>
@@ -5052,11 +5059,11 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="47" t="s">
         <v>329</v>
       </c>
@@ -5073,11 +5080,11 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="47" t="s">
         <v>331</v>
       </c>
@@ -5094,11 +5101,11 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="47" t="s">
         <v>333</v>
       </c>
@@ -5115,11 +5122,11 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="47" t="s">
         <v>335</v>
       </c>
@@ -5136,11 +5143,11 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="64"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="47" t="s">
         <v>337</v>
       </c>
@@ -5157,11 +5164,11 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="47" t="s">
         <v>339</v>
       </c>
@@ -5197,20 +5204,20 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -5239,11 +5246,11 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="36" t="s">
@@ -5262,11 +5269,11 @@
       <c r="J3" s="37"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="31">
         <v>2</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="36" t="s">
         <v>171</v>
       </c>
@@ -5283,11 +5290,11 @@
       <c r="J4" s="37"/>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="36" t="s">
         <v>173</v>
       </c>
@@ -5304,11 +5311,11 @@
       <c r="J5" s="37"/>
       <c r="K5" s="29"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="36" t="s">
         <v>175</v>
       </c>
@@ -5325,11 +5332,11 @@
       <c r="J6" s="37"/>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="36" t="s">
         <v>177</v>
       </c>
@@ -5346,11 +5353,11 @@
       <c r="J7" s="37"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="36" t="s">
         <v>179</v>
       </c>
@@ -5366,11 +5373,11 @@
       <c r="I8" s="29"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="36" t="s">
@@ -5388,11 +5395,11 @@
       <c r="I9" s="29"/>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="31">
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="36" t="s">
         <v>181</v>
       </c>
@@ -5408,11 +5415,11 @@
       <c r="I10" s="29"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="36" t="s">
         <v>183</v>
       </c>
@@ -5428,11 +5435,11 @@
       <c r="I11" s="29"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="31">
         <v>10</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="36" t="s">
         <v>185</v>
       </c>
@@ -5448,11 +5455,11 @@
       <c r="I12" s="29"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="31">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="36" t="s">
         <v>187</v>
       </c>
@@ -5468,11 +5475,11 @@
       <c r="I13" s="29"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="31">
         <v>12</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="36" t="s">
         <v>189</v>
       </c>
@@ -5488,11 +5495,11 @@
       <c r="I14" s="29"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="31">
         <v>13</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="36" t="s">
         <v>191</v>
       </c>
@@ -5508,11 +5515,11 @@
       <c r="I15" s="29"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="36" t="s">
         <v>193</v>
       </c>
@@ -5528,11 +5535,11 @@
       <c r="I16" s="29"/>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="31">
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="36" t="s">
         <v>195</v>
       </c>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4914A57-77A1-472B-94D3-1F559A231BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C1FD8-B04D-403F-B609-7F87F22BA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -2221,7 +2221,7 @@
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2591,8 +2591,8 @@
       <c r="G16" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="H16" s="60" t="s">
-        <v>347</v>
+      <c r="H16" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="I16" s="54" t="s">
         <v>346</v>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C1FD8-B04D-403F-B609-7F87F22BA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A91EAFC-F6A1-4529-A779-9A1067235DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="348">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1082,12 +1082,6 @@
   </si>
   <si>
     <t>Not yet</t>
-  </si>
-  <si>
-    <t>Mockup</t>
-  </si>
-  <si>
-    <t>Nomer berapa nanya ke mas widy ?</t>
   </si>
 </sst>
 </file>
@@ -2218,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA68C8A-DA6F-4481-B8E4-BFBE438FF51F}">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2230,15 +2224,14 @@
     <col min="3" max="3" width="12" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.453125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:10">
       <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
@@ -2252,25 +2245,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="K2" s="50" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.5" customHeight="1">
+    <row r="3" spans="2:10" ht="14.5" customHeight="1">
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -2283,20 +2273,17 @@
       <c r="E3" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="G3" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="51">
         <v>2</v>
       </c>
@@ -2307,20 +2294,17 @@
       <c r="E4" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G4" s="62" t="s">
+      <c r="F4" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="51">
         <v>3</v>
       </c>
@@ -2331,18 +2315,15 @@
       <c r="E5" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="51">
         <v>4</v>
       </c>
@@ -2353,18 +2334,15 @@
       <c r="E6" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G6" s="62" t="s">
+      <c r="F6" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="54"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="2:11">
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="51">
         <v>5</v>
       </c>
@@ -2375,18 +2353,15 @@
       <c r="E7" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G7" s="62" t="s">
+      <c r="F7" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="51">
         <v>6</v>
       </c>
@@ -2397,18 +2372,15 @@
       <c r="E8" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="51">
         <v>7</v>
       </c>
@@ -2419,18 +2391,15 @@
       <c r="E9" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="51">
         <v>8</v>
       </c>
@@ -2441,18 +2410,15 @@
       <c r="E10" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="51">
         <v>9</v>
       </c>
@@ -2463,20 +2429,17 @@
       <c r="E11" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="F11" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="51">
         <v>10</v>
       </c>
@@ -2487,20 +2450,17 @@
       <c r="E12" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="F12" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="51">
         <v>11</v>
       </c>
@@ -2511,20 +2471,17 @@
       <c r="E13" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="F13" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="51">
         <v>12</v>
       </c>
@@ -2537,20 +2494,17 @@
       <c r="E14" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="F14" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="51">
         <v>13</v>
       </c>
@@ -2561,20 +2515,17 @@
       <c r="E15" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="F15" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="51">
         <v>14</v>
       </c>
@@ -2585,22 +2536,17 @@
       <c r="E16" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>346</v>
-      </c>
+      <c r="F16" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17" spans="2:11">
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="51">
         <v>15</v>
       </c>
@@ -2611,22 +2557,17 @@
       <c r="E17" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="F17" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="51">
         <v>16</v>
       </c>
@@ -2639,58 +2580,52 @@
       <c r="E18" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="60" t="s">
+      <c r="F18" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="H18" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="29"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="F19" s="24"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="29"/>
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="F20" s="24"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="29"/>
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="27" spans="2:11">
+      <c r="F21" s="24"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="E27" s="1">
         <f>SUM(E23:E26)</f>
         <v>0</v>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A91EAFC-F6A1-4529-A779-9A1067235DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3994862D-A3E3-4638-8FF9-33380EC6F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="347">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1076,9 +1076,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>Konfirmasi Mockup Mas Widy</t>
   </si>
   <si>
     <t>Not yet</t>
@@ -2215,7 +2212,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2298,7 +2295,7 @@
         <v>341</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="55"/>
@@ -2583,12 +2580,10 @@
       <c r="F18" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="G18" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>346</v>
-      </c>
+      <c r="G18" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="54"/>
       <c r="I18" s="55"/>
       <c r="J18" s="56"/>
     </row>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3994862D-A3E3-4638-8FF9-33380EC6F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D2163-36E6-406C-83D6-BFB0185D2E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Persiapan (ver 1.0)" sheetId="2" r:id="rId1"/>
-    <sheet name="Persiapan (ver 1.1)" sheetId="9" r:id="rId2"/>
+    <sheet name="Persiapan (old)" sheetId="2" r:id="rId1"/>
+    <sheet name="Persiapan (ver 1.0)" sheetId="9" r:id="rId2"/>
     <sheet name="Pengawasan (ver 1.0)" sheetId="1" r:id="rId3"/>
     <sheet name="Pengakhiran (ver 1.0)" sheetId="4" r:id="rId4"/>
     <sheet name="Aplikasi TL (ver 1.0)" sheetId="6" r:id="rId5"/>
+    <sheet name="Jumlah Use Case" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="361">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -898,9 +899,6 @@
     <t>Reza</t>
   </si>
   <si>
-    <t>Tossa</t>
-  </si>
-  <si>
     <t>UC - 07 - 302</t>
   </si>
   <si>
@@ -1063,9 +1061,6 @@
     <t>Melakukan review/persetujuan transaksi dana cadangan</t>
   </si>
   <si>
-    <t>Dimas</t>
-  </si>
-  <si>
     <t>PIC RA</t>
   </si>
   <si>
@@ -1078,7 +1073,55 @@
     <t>?</t>
   </si>
   <si>
-    <t>Not yet</t>
+    <t>Persiapan Likuidasi</t>
+  </si>
+  <si>
+    <t>Pengawasan Likuidasi</t>
+  </si>
+  <si>
+    <t>Pengakhiran Likuidasi</t>
+  </si>
+  <si>
+    <t>Aplikasi Tim Likuidasi</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Jumlah Use Case</t>
+  </si>
+  <si>
+    <t>Fitur Spesifik</t>
+  </si>
+  <si>
+    <t>UC - 07 - 303</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 302, UC - 07 - 303</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 301, UC - 07 - 303</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 301, UC - 07 - 302</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 305, UC - 07 - 306</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 304, UC - 07 - 306</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 308, UC - 07 - 309</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 307, UC - 07 - 309</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 307, UC - 07 - 308</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1202,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,6 +1221,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1191,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1345,23 +1394,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1725,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>266</v>
@@ -1734,20 +1787,20 @@
         <v>2</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="65" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -1771,8 +1824,8 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="25" t="s">
         <v>139</v>
       </c>
@@ -1794,8 +1847,8 @@
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="25" t="s">
         <v>140</v>
       </c>
@@ -1817,8 +1870,8 @@
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="25" t="s">
         <v>141</v>
       </c>
@@ -1842,8 +1895,8 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="25" t="s">
         <v>142</v>
       </c>
@@ -1865,8 +1918,8 @@
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="25" t="s">
         <v>143</v>
       </c>
@@ -1888,8 +1941,8 @@
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="25" t="s">
         <v>144</v>
       </c>
@@ -1911,8 +1964,8 @@
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="25" t="s">
         <v>145</v>
       </c>
@@ -1934,8 +1987,8 @@
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="25" t="s">
         <v>146</v>
       </c>
@@ -1957,8 +2010,8 @@
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="25" t="s">
         <v>147</v>
       </c>
@@ -1980,8 +2033,8 @@
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="25" t="s">
         <v>148</v>
       </c>
@@ -2003,8 +2056,8 @@
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="25" t="s">
         <v>149</v>
       </c>
@@ -2026,8 +2079,8 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="25" t="s">
         <v>150</v>
       </c>
@@ -2052,7 +2105,7 @@
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="25" t="s">
         <v>153</v>
       </c>
@@ -2076,10 +2129,10 @@
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="25" t="s">
         <v>156</v>
       </c>
@@ -2101,8 +2154,8 @@
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="25" t="s">
         <v>157</v>
       </c>
@@ -2124,8 +2177,8 @@
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="25" t="s">
         <v>158</v>
       </c>
@@ -2147,8 +2200,8 @@
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="25" t="s">
         <v>149</v>
       </c>
@@ -2170,8 +2223,8 @@
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="25" t="s">
         <v>150</v>
       </c>
@@ -2209,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA68C8A-DA6F-4481-B8E4-BFBE438FF51F}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2221,14 +2274,15 @@
     <col min="3" max="3" width="12" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="59" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:12">
       <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
@@ -2242,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>266</v>
@@ -2251,17 +2305,17 @@
         <v>2</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="14.5" customHeight="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.5" customHeight="1">
       <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="67" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2270,8 +2324,8 @@
       <c r="E3" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>341</v>
+      <c r="F3" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="G3" s="53" t="s">
         <v>160</v>
@@ -2280,209 +2334,224 @@
       <c r="I3" s="55"/>
       <c r="J3" s="56"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:12">
       <c r="B4" s="51">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="51" t="s">
         <v>231</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>346</v>
+      <c r="F4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:12">
       <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="51" t="s">
         <v>233</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="53"/>
+      <c r="F5" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:12">
       <c r="B6" s="51">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="51" t="s">
         <v>235</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G6" s="57"/>
+      <c r="F6" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:12">
       <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="51" t="s">
         <v>237</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="53"/>
+      <c r="F7" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="56"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:12">
       <c r="B8" s="51">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="51" t="s">
         <v>239</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G8" s="53"/>
+      <c r="F8" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="56"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:12">
       <c r="B9" s="51">
         <v>7</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="51" t="s">
         <v>241</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G9" s="53"/>
+      <c r="F9" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="56"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:12">
       <c r="B10" s="51">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="51" t="s">
         <v>243</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="53"/>
+      <c r="F10" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>160</v>
+      </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="51" t="s">
         <v>245</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="51">
         <v>10</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="51" t="s">
         <v>247</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G12" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="56"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="51">
         <v>11</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="51" t="s">
         <v>247</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="56"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:12">
       <c r="B14" s="51">
         <v>12</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="68" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="51" t="s">
@@ -2491,84 +2560,84 @@
       <c r="E14" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G14" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="56"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:12">
       <c r="B15" s="51">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="51" t="s">
         <v>247</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G15" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="56"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:12">
       <c r="B16" s="51">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G16" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H16" s="54"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="51">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="51" t="s">
         <v>250</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G17" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="56"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="51">
         <v>16</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>154</v>
       </c>
       <c r="D18" s="51" t="s">
@@ -2577,14 +2646,14 @@
       <c r="E18" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G18" s="53" t="s">
         <v>160</v>
       </c>
       <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="56"/>
     </row>
     <row r="19" spans="2:10">
@@ -2641,7 +2710,7 @@
   <dimension ref="B2:J67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2671,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>266</v>
@@ -2680,17 +2749,17 @@
         <v>2</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -2719,7 +2788,7 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2746,7 +2815,7 @@
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2842,7 @@
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2800,7 +2869,7 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="23" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2896,7 @@
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -2854,7 +2923,7 @@
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
@@ -2881,7 +2950,7 @@
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
@@ -2908,7 +2977,7 @@
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
@@ -2935,7 +3004,7 @@
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="18" t="s">
         <v>21</v>
       </c>
@@ -2962,7 +3031,7 @@
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="18" t="s">
         <v>23</v>
       </c>
@@ -2989,7 +3058,7 @@
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
@@ -3016,7 +3085,7 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
@@ -3043,7 +3112,7 @@
       <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3070,7 +3139,7 @@
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="29" t="s">
         <v>31</v>
       </c>
@@ -3097,7 +3166,7 @@
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="23" t="s">
         <v>33</v>
       </c>
@@ -3124,7 +3193,7 @@
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="23" t="s">
         <v>35</v>
       </c>
@@ -3151,7 +3220,7 @@
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="29" t="s">
         <v>37</v>
       </c>
@@ -3178,7 +3247,7 @@
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="23" t="s">
         <v>39</v>
       </c>
@@ -3205,7 +3274,7 @@
       <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
@@ -3232,7 +3301,7 @@
       <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="23" t="s">
         <v>43</v>
       </c>
@@ -3259,7 +3328,7 @@
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="29" t="s">
         <v>45</v>
       </c>
@@ -3286,7 +3355,7 @@
       <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -3315,7 +3384,7 @@
       <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="17" t="s">
         <v>52</v>
       </c>
@@ -3342,7 +3411,7 @@
       <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
@@ -3369,7 +3438,7 @@
       <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="24" t="s">
         <v>56</v>
       </c>
@@ -3396,7 +3465,7 @@
       <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="22" t="s">
         <v>58</v>
       </c>
@@ -3423,7 +3492,7 @@
       <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="24" t="s">
         <v>60</v>
       </c>
@@ -3450,7 +3519,7 @@
       <c r="B31" s="10">
         <v>29</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
@@ -3477,7 +3546,7 @@
       <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="26" t="s">
         <v>64</v>
       </c>
@@ -3504,7 +3573,7 @@
       <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="21" t="s">
         <v>66</v>
       </c>
@@ -3531,7 +3600,7 @@
       <c r="B34" s="10">
         <v>32</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="26" t="s">
         <v>68</v>
       </c>
@@ -3558,7 +3627,7 @@
       <c r="B35" s="10">
         <v>33</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="21" t="s">
         <v>70</v>
       </c>
@@ -3585,7 +3654,7 @@
       <c r="B36" s="10">
         <v>34</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="26" t="s">
         <v>72</v>
       </c>
@@ -3612,7 +3681,7 @@
       <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="22" t="s">
         <v>74</v>
       </c>
@@ -3639,7 +3708,7 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="24" t="s">
         <v>76</v>
       </c>
@@ -3666,7 +3735,7 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="22" t="s">
         <v>78</v>
       </c>
@@ -3693,7 +3762,7 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="22" t="s">
         <v>80</v>
       </c>
@@ -3720,7 +3789,7 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="22" t="s">
         <v>82</v>
       </c>
@@ -3747,7 +3816,7 @@
       <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="22" t="s">
         <v>84</v>
       </c>
@@ -3774,7 +3843,7 @@
       <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="63"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="24" t="s">
         <v>86</v>
       </c>
@@ -3801,7 +3870,7 @@
       <c r="B44" s="10">
         <v>42</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="22" t="s">
         <v>88</v>
       </c>
@@ -3828,7 +3897,7 @@
       <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="63"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="33" t="s">
         <v>90</v>
       </c>
@@ -3855,7 +3924,7 @@
       <c r="B46" s="10">
         <v>44</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="24" t="s">
         <v>92</v>
       </c>
@@ -3882,7 +3951,7 @@
       <c r="B47" s="10">
         <v>45</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="65" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -3911,7 +3980,7 @@
       <c r="B48" s="10">
         <v>46</v>
       </c>
-      <c r="C48" s="63"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="17" t="s">
         <v>96</v>
       </c>
@@ -3938,7 +4007,7 @@
       <c r="B49" s="10">
         <v>47</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="24" t="s">
         <v>97</v>
       </c>
@@ -3965,7 +4034,7 @@
       <c r="B50" s="10">
         <v>48</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
@@ -3992,7 +4061,7 @@
       <c r="B51" s="10">
         <v>49</v>
       </c>
-      <c r="C51" s="63"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="22" t="s">
         <v>99</v>
       </c>
@@ -4019,7 +4088,7 @@
       <c r="B52" s="10">
         <v>50</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="24" t="s">
         <v>100</v>
       </c>
@@ -4046,7 +4115,7 @@
       <c r="B53" s="10">
         <v>51</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="17" t="s">
         <v>101</v>
       </c>
@@ -4073,7 +4142,7 @@
       <c r="B54" s="10">
         <v>52</v>
       </c>
-      <c r="C54" s="63"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="21" t="s">
         <v>102</v>
       </c>
@@ -4100,7 +4169,7 @@
       <c r="B55" s="10">
         <v>53</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="17" t="s">
         <v>103</v>
       </c>
@@ -4127,7 +4196,7 @@
       <c r="B56" s="10">
         <v>54</v>
       </c>
-      <c r="C56" s="63"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="26" t="s">
         <v>104</v>
       </c>
@@ -4154,7 +4223,7 @@
       <c r="B57" s="10">
         <v>55</v>
       </c>
-      <c r="C57" s="63"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="22" t="s">
         <v>115</v>
       </c>
@@ -4181,7 +4250,7 @@
       <c r="B58" s="10">
         <v>56</v>
       </c>
-      <c r="C58" s="63"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="26" t="s">
         <v>117</v>
       </c>
@@ -4208,7 +4277,7 @@
       <c r="B59" s="10">
         <v>57</v>
       </c>
-      <c r="C59" s="63"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="22" t="s">
         <v>120</v>
       </c>
@@ -4235,7 +4304,7 @@
       <c r="B60" s="10">
         <v>58</v>
       </c>
-      <c r="C60" s="63"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="34" t="s">
         <v>122</v>
       </c>
@@ -4262,7 +4331,7 @@
       <c r="B61" s="10">
         <v>59</v>
       </c>
-      <c r="C61" s="63"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="22" t="s">
         <v>124</v>
       </c>
@@ -4289,7 +4358,7 @@
       <c r="B62" s="10">
         <v>60</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="22" t="s">
         <v>126</v>
       </c>
@@ -4316,7 +4385,7 @@
       <c r="B63" s="10">
         <v>61</v>
       </c>
-      <c r="C63" s="63"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="24" t="s">
         <v>128</v>
       </c>
@@ -4343,7 +4412,7 @@
       <c r="B64" s="10">
         <v>62</v>
       </c>
-      <c r="C64" s="63"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="24" t="s">
         <v>130</v>
       </c>
@@ -4370,7 +4439,7 @@
       <c r="B65" s="10">
         <v>63</v>
       </c>
-      <c r="C65" s="63"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
@@ -4397,7 +4466,7 @@
       <c r="B66" s="10">
         <v>64</v>
       </c>
-      <c r="C66" s="63"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="22" t="s">
         <v>134</v>
       </c>
@@ -4424,7 +4493,7 @@
       <c r="B67" s="10">
         <v>65</v>
       </c>
-      <c r="C67" s="63"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="24" t="s">
         <v>136</v>
       </c>
@@ -4463,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4475,7 +4544,7 @@
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4494,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>266</v>
@@ -4503,32 +4572,34 @@
         <v>2</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.5" customHeight="1">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>294</v>
-      </c>
       <c r="F3" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="I3" s="45"/>
       <c r="J3" s="29"/>
       <c r="K3" s="44"/>
@@ -4537,20 +4608,22 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>296</v>
-      </c>
       <c r="F4" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="I4" s="45"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -4559,20 +4632,22 @@
       <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>298</v>
-      </c>
       <c r="F5" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="I5" s="45"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
@@ -4581,18 +4656,18 @@
       <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>300</v>
-      </c>
       <c r="F6" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="45"/>
@@ -4603,18 +4678,18 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>302</v>
-      </c>
       <c r="F7" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="45"/>
@@ -4625,18 +4700,18 @@
       <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>304</v>
-      </c>
       <c r="F8" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="45"/>
@@ -4646,18 +4721,18 @@
       <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>306</v>
-      </c>
       <c r="F9" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="29"/>
@@ -4667,18 +4742,18 @@
       <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>308</v>
-      </c>
       <c r="F10" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="29"/>
@@ -4688,18 +4763,18 @@
       <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>310</v>
-      </c>
       <c r="F11" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="29"/>
@@ -4709,22 +4784,24 @@
       <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>288</v>
-      </c>
       <c r="F12" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
     </row>
@@ -4732,20 +4809,22 @@
       <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>290</v>
-      </c>
       <c r="F13" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
@@ -4753,20 +4832,22 @@
       <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>292</v>
-      </c>
       <c r="F14" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
     </row>
@@ -4774,18 +4855,18 @@
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>312</v>
-      </c>
       <c r="F15" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="29"/>
@@ -4795,18 +4876,18 @@
       <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="F16" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="29"/>
@@ -4816,18 +4897,18 @@
       <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>304</v>
-      </c>
       <c r="F17" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="29"/>
@@ -4837,18 +4918,18 @@
       <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>316</v>
-      </c>
       <c r="F18" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="29"/>
@@ -4858,18 +4939,18 @@
       <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>318</v>
-      </c>
       <c r="F19" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="29"/>
@@ -4879,18 +4960,18 @@
       <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>320</v>
-      </c>
       <c r="F20" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="29"/>
@@ -4900,18 +4981,18 @@
       <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="F21" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="29"/>
@@ -4921,18 +5002,18 @@
       <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="F22" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="29"/>
@@ -4942,22 +5023,24 @@
       <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="D23" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>326</v>
-      </c>
       <c r="F23" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>355</v>
+      </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
@@ -4965,20 +5048,22 @@
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="F24" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H24" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
@@ -4986,20 +5071,22 @@
       <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="F25" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H25" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
@@ -5007,18 +5094,18 @@
       <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="F26" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="29"/>
@@ -5028,18 +5115,18 @@
       <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="F27" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="29"/>
@@ -5049,18 +5136,18 @@
       <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="E28" s="42" t="s">
-        <v>336</v>
-      </c>
       <c r="F28" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="29"/>
@@ -5070,18 +5157,18 @@
       <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="64"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>338</v>
-      </c>
       <c r="F29" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="29"/>
@@ -5091,18 +5178,18 @@
       <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F30" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="29"/>
@@ -5124,7 +5211,7 @@
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5154,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>266</v>
@@ -5163,17 +5250,17 @@
         <v>2</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="36" t="s">
@@ -5183,10 +5270,10 @@
         <v>170</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="37"/>
@@ -5196,7 +5283,7 @@
       <c r="B4" s="31">
         <v>2</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="36" t="s">
         <v>171</v>
       </c>
@@ -5204,10 +5291,10 @@
         <v>172</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="37"/>
@@ -5217,7 +5304,7 @@
       <c r="B5" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="36" t="s">
         <v>173</v>
       </c>
@@ -5225,10 +5312,10 @@
         <v>174</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I5" s="45"/>
       <c r="J5" s="37"/>
@@ -5238,7 +5325,7 @@
       <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="36" t="s">
         <v>175</v>
       </c>
@@ -5246,10 +5333,10 @@
         <v>176</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="37"/>
@@ -5259,7 +5346,7 @@
       <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="36" t="s">
         <v>177</v>
       </c>
@@ -5267,10 +5354,10 @@
         <v>178</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="37"/>
@@ -5280,7 +5367,7 @@
       <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="36" t="s">
         <v>179</v>
       </c>
@@ -5288,10 +5375,10 @@
         <v>180</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="37"/>
@@ -5300,7 +5387,7 @@
       <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="69" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="36" t="s">
@@ -5310,10 +5397,10 @@
         <v>180</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="37"/>
@@ -5322,7 +5409,7 @@
       <c r="B10" s="31">
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="36" t="s">
         <v>181</v>
       </c>
@@ -5330,10 +5417,10 @@
         <v>182</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="37"/>
@@ -5342,7 +5429,7 @@
       <c r="B11" s="31">
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="36" t="s">
         <v>183</v>
       </c>
@@ -5350,10 +5437,10 @@
         <v>184</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="37"/>
@@ -5362,7 +5449,7 @@
       <c r="B12" s="31">
         <v>10</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="36" t="s">
         <v>185</v>
       </c>
@@ -5370,10 +5457,10 @@
         <v>186</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="37"/>
@@ -5382,7 +5469,7 @@
       <c r="B13" s="31">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="36" t="s">
         <v>187</v>
       </c>
@@ -5390,10 +5477,10 @@
         <v>188</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="37"/>
@@ -5402,7 +5489,7 @@
       <c r="B14" s="31">
         <v>12</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="36" t="s">
         <v>189</v>
       </c>
@@ -5410,10 +5497,10 @@
         <v>190</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="37"/>
@@ -5422,7 +5509,7 @@
       <c r="B15" s="31">
         <v>13</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="36" t="s">
         <v>191</v>
       </c>
@@ -5430,10 +5517,10 @@
         <v>192</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="37"/>
@@ -5442,7 +5529,7 @@
       <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="36" t="s">
         <v>193</v>
       </c>
@@ -5450,10 +5537,10 @@
         <v>194</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="37"/>
@@ -5462,7 +5549,7 @@
       <c r="B17" s="31">
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="36" t="s">
         <v>195</v>
       </c>
@@ -5470,10 +5557,10 @@
         <v>196</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="37"/>
@@ -5486,4 +5573,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B859A50-ED05-46F2-91DE-7642084A2795}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="9"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="13.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.36328125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="69"/>
+      <c r="C3" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="61">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="69"/>
+      <c r="C4" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="69"/>
+      <c r="C5" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="64">
+        <f>SUM(E2:E5)</f>
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D2163-36E6-406C-83D6-BFB0185D2E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17540889-8BC8-4C92-AA62-166443530D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Persiapan (old)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="396">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1070,9 +1070,6 @@
     <t>Status DS</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Persiapan Likuidasi</t>
   </si>
   <si>
@@ -1085,24 +1082,15 @@
     <t>Aplikasi Tim Likuidasi</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>Jumlah Use Case</t>
   </si>
   <si>
-    <t>Fitur Spesifik</t>
-  </si>
-  <si>
     <t>UC - 07 - 303</t>
   </si>
   <si>
     <t>Relasi dengan : UC - 07 - 302, UC - 07 - 303</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Relasi dengan : UC - 07 - 301, UC - 07 - 303</t>
   </si>
   <si>
@@ -1122,13 +1110,131 @@
   </si>
   <si>
     <t>Relasi dengan : UC - 07 - 307, UC - 07 - 308</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 311, UC - 07 - 312</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 310, UC - 07 - 312</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 310, UC - 07 - 311</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 314, UC - 07 - 315</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 313, UC - 07 - 315</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 313, UC - 07 - 314</t>
+  </si>
+  <si>
+    <t>Fitur Umum</t>
+  </si>
+  <si>
+    <t>Nama Fitur</t>
+  </si>
+  <si>
+    <t>Fitur Spesifik (GLIK)</t>
+  </si>
+  <si>
+    <t>Nama Sub Module</t>
+  </si>
+  <si>
+    <t>Total Use Case</t>
+  </si>
+  <si>
+    <t>Total Robust Analisis</t>
+  </si>
+  <si>
+    <t>Konfirmasi ke team fitur umum, terkait jumlah use case</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Robust Analisis</t>
+  </si>
+  <si>
+    <t>Ready untuk mapping ulang dan rekonsiliasi ke TSD</t>
+  </si>
+  <si>
+    <t>Diagram Sequence</t>
+  </si>
+  <si>
+    <t>Jumlah Robust Analisis</t>
+  </si>
+  <si>
+    <t>Jumlah Diagram Sequence</t>
+  </si>
+  <si>
+    <t>- On progress check ulang file fisik diagram sequence --&gt; (berdasarkan jumlah use case dan robust)
+- On progress develop file diagram sequence yang kurang / belum ada --&gt; (menggunakan use case sesuai TSD)</t>
+  </si>
+  <si>
+    <t>Total Diagram Sequence</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 316 (Aktor : Pelaksana Likuidasi)</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 316 (Aktor : Tim Likuidasi)</t>
+  </si>
+  <si>
+    <t>Tidak ada relasi use use case</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 320, UC - 07 - 321</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 319, UC - 07 - 321</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 319, UC - 07 - 320</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 323, UC - 07 - 324</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 322, UC - 07 - 324</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 322, UC - 07 - 323</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 326, UC - 07 - 327</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 325, UC - 07 - 327</t>
+  </si>
+  <si>
+    <t>Relasi dengan : UC - 07 - 325, UC - 07 - 326</t>
+  </si>
+  <si>
+    <t>File DS</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>File RA</t>
+  </si>
+  <si>
+    <t>Tidak Ada</t>
+  </si>
+  <si>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Rizky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,17 +1298,12 @@
       <name val="Helvi"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,14 +1322,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1236,11 +1331,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1263,9 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,17 +1404,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1335,9 +1433,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1355,12 +1450,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,13 +1503,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1430,6 +1536,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,128 +1881,128 @@
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.453125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>162</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1887,358 +2011,358 @@
       <c r="I6" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="27" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="25" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="25" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="32" t="s">
+      <c r="F16" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>162</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="26" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="25" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="25" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="25" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="36" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2262,437 +2386,595 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA68C8A-DA6F-4481-B8E4-BFBE438FF51F}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="J3" sqref="J3:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="53" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="K2" s="44" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="14.5" customHeight="1">
-      <c r="B3" s="51">
+      <c r="L2" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="14.5" customHeight="1">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="51">
+      <c r="F3" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="51">
+      <c r="F4" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="56"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="51">
+      <c r="F5" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="45">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="51">
+      <c r="F6" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="51">
+      <c r="F7" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="45">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="51">
+      <c r="F8" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K8" s="50"/>
+      <c r="L8" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="45">
         <v>7</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="56"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="51">
+      <c r="F9" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="45">
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="56"/>
-      <c r="L10" s="44"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="51">
+      <c r="F10" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K10" s="50"/>
+      <c r="L10" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="45">
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="56"/>
-      <c r="L11" s="44"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="51">
+      <c r="F11" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="45">
         <v>10</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="56"/>
-      <c r="L12" s="44"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="51">
+      <c r="F12" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K12" s="50"/>
+      <c r="L12" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="45">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="56"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="51">
+      <c r="F13" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="50"/>
+      <c r="L13" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="45">
         <v>12</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="56"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="51">
+      <c r="F14" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="45">
         <v>13</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="56"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="51">
+      <c r="F15" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K15" s="50"/>
+      <c r="L15" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="45">
         <v>14</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="57"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="51">
+      <c r="F16" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="51"/>
+      <c r="L16" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="45">
         <v>15</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="56"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="51">
+      <c r="F17" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="45">
         <v>16</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="56"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="29"/>
+      <c r="F18" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="25"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="29"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="25"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="29"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="25"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="E27" s="1">
-        <f>SUM(E23:E26)</f>
-        <v>0</v>
+      <c r="I21" s="7"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="I22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="I24" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="I25" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="I26" s="1">
+        <f>SUM(I22:I25)</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
-  <dimension ref="B2:J67"/>
+  <dimension ref="B2:L67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2721,641 +3003,780 @@
     <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="36" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="10">
+      <c r="L2" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="10">
+      <c r="K3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="10">
+      <c r="K4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="10">
+      <c r="K5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="10">
+      <c r="K6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="10">
+      <c r="K7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="10">
+      <c r="K8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="10">
+      <c r="K9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="10">
+      <c r="K10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="10">
+      <c r="K11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="10">
+      <c r="K12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="10">
+      <c r="K13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="I14" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="10">
+      <c r="I14" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="I15" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="10">
+      <c r="I15" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I16" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="10">
+      <c r="I16" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="10">
+      <c r="I17" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="I18" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="10">
+      <c r="I18" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="10">
+      <c r="I19" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I20" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="10">
+      <c r="I20" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I21" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="10">
+      <c r="I21" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J22" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="10">
+      <c r="K22" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="9">
         <v>21</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="10">
+      <c r="K23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="63"/>
+      <c r="D24" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J24" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="10">
+      <c r="K24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="9">
         <v>23</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -3364,1156 +3785,1414 @@
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G25" s="14" t="s">
+      <c r="F25" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="10">
+      <c r="K25" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="9">
         <v>24</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G26" s="14" t="s">
+      <c r="F26" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J26" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="10">
+      <c r="K26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G27" s="14" t="s">
+      <c r="F27" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J27" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="10">
+      <c r="K27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="9">
         <v>26</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G28" s="14" t="s">
+      <c r="F28" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="10">
+      <c r="K28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="22" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="F29" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="10">
+      <c r="K29" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="24" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G30" s="14" t="s">
+      <c r="F30" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="10">
+      <c r="K30" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="9">
         <v>29</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="16" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G31" s="14" t="s">
+      <c r="F31" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J31" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="10">
+      <c r="K31" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="9">
         <v>30</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="26" t="s">
+      <c r="C32" s="63"/>
+      <c r="D32" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="F32" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>160</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J32" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J32" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="10">
+      <c r="K32" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="9">
         <v>31</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="F33" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J33" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="10">
+      <c r="K33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="9">
         <v>32</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G34" s="14" t="s">
+      <c r="F34" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I34" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J34" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="10">
+      <c r="K34" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="9">
         <v>33</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G35" s="14" t="s">
+      <c r="F35" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J35" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="10">
+      <c r="K35" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="9">
         <v>34</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="22" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G36" s="14" t="s">
+      <c r="F36" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J36" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="10">
+      <c r="K36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="9">
         <v>35</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G37" s="14" t="s">
+      <c r="F37" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J37" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="10">
+      <c r="K37" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="9">
         <v>36</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="24" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G38" s="14" t="s">
+      <c r="F38" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J38" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J38" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="10">
+      <c r="K38" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L38" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="9">
         <v>37</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="22" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G39" s="14" t="s">
+      <c r="F39" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I39" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J39" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J39" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="10">
+      <c r="K39" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="9">
         <v>38</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G40" s="14" t="s">
+      <c r="F40" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="I40" s="31" t="s">
+      <c r="I40" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J40" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J40" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="10">
+      <c r="K40" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="9">
         <v>39</v>
       </c>
-      <c r="C41" s="65"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="22" t="s">
         <v>82</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="14" t="s">
+      <c r="F41" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="I41" s="31" t="s">
+      <c r="I41" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J41" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J41" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="10">
+      <c r="K41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="9">
         <v>40</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" s="35" t="s">
+      <c r="F42" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J42" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J42" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="10">
+      <c r="K42" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="9">
         <v>41</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="63"/>
+      <c r="D43" s="19" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G43" s="14" t="s">
+      <c r="F43" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J43" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="10">
+      <c r="K43" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="9">
         <v>42</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G44" s="14" t="s">
+      <c r="F44" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I44" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="10">
+      <c r="I44" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="9">
         <v>43</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="63"/>
+      <c r="D45" s="29" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G45" s="32" t="s">
+      <c r="F45" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="J45" s="32" t="s">
+      <c r="J45" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="K45" s="28" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="10">
+      <c r="L45" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="9">
         <v>44</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="24" t="s">
+      <c r="C46" s="63"/>
+      <c r="D46" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G46" s="14" t="s">
+      <c r="F46" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="14.5" customHeight="1">
-      <c r="B47" s="10">
+      <c r="K46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="14.5" customHeight="1">
+      <c r="B47" s="9">
         <v>45</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="22" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="13" t="s">
+      <c r="F47" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I47" s="31" t="s">
+      <c r="I47" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="10">
+      <c r="K47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="9">
         <v>46</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="17" t="s">
+      <c r="C48" s="63"/>
+      <c r="D48" s="16" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G48" s="14" t="s">
+      <c r="F48" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J48" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="10">
+      <c r="K48" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="9">
         <v>47</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="24" t="s">
+      <c r="C49" s="63"/>
+      <c r="D49" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G49" s="14" t="s">
+      <c r="F49" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="10">
+      <c r="K49" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="9">
         <v>48</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="63"/>
+      <c r="D50" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G50" s="14" t="s">
+      <c r="F50" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="I50" s="31" t="s">
+      <c r="I50" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J50" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J50" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="10">
+      <c r="K50" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="9">
         <v>49</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G51" s="14" t="s">
+      <c r="F51" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I51" s="31" t="s">
+      <c r="I51" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J51" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="10">
+      <c r="K51" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L51" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="9">
         <v>50</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="24" t="s">
+      <c r="C52" s="63"/>
+      <c r="D52" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G52" s="14" t="s">
+      <c r="F52" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I52" s="31" t="s">
+      <c r="I52" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J52" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J52" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="10">
+      <c r="K52" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="9">
         <v>51</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="17" t="s">
+      <c r="C53" s="63"/>
+      <c r="D53" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G53" s="14" t="s">
+      <c r="F53" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I53" s="31" t="s">
+      <c r="I53" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J53" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J53" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="10">
+      <c r="K53" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L53" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="9">
         <v>52</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="21" t="s">
+      <c r="C54" s="63"/>
+      <c r="D54" s="19" t="s">
         <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G54" s="14" t="s">
+      <c r="F54" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I54" s="31" t="s">
+      <c r="I54" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J54" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="10">
+      <c r="K54" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="9">
         <v>53</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="17" t="s">
+      <c r="C55" s="63"/>
+      <c r="D55" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G55" s="14" t="s">
+      <c r="F55" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J55" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J55" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="10">
+      <c r="K55" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="9">
         <v>54</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="26" t="s">
+      <c r="C56" s="63"/>
+      <c r="D56" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H56" s="27" t="s">
+      <c r="F56" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="I56" s="31" t="s">
+      <c r="I56" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="10">
+      <c r="K56" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L56" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="9">
         <v>55</v>
       </c>
-      <c r="C57" s="65"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G57" s="14" t="s">
+      <c r="F57" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="I57" s="31" t="s">
+      <c r="I57" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="10">
+      <c r="K57" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L57" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="9">
         <v>56</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="26" t="s">
+      <c r="C58" s="63"/>
+      <c r="D58" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G58" s="14" t="s">
+      <c r="F58" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="I58" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J58" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J58" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="10">
+      <c r="K58" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L58" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="9">
         <v>57</v>
       </c>
-      <c r="C59" s="65"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G59" s="14" t="s">
+      <c r="F59" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="I59" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J59" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="10">
+      <c r="K59" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L59" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="9">
         <v>58</v>
       </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="34" t="s">
+      <c r="C60" s="63"/>
+      <c r="D60" s="73" t="s">
         <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G60" s="14" t="s">
+      <c r="F60" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J60" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="10">
+      <c r="K60" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L60" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="9">
         <v>59</v>
       </c>
-      <c r="C61" s="65"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="22" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G61" s="14" t="s">
+      <c r="F61" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="I61" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J61" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J61" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="10">
+      <c r="K61" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L61" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="9">
         <v>60</v>
       </c>
-      <c r="C62" s="65"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="22" t="s">
         <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G62" s="14" t="s">
+      <c r="F62" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J62" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="10">
+      <c r="K62" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L62" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="9">
         <v>61</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="24" t="s">
+      <c r="C63" s="63"/>
+      <c r="D63" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F63" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G63" s="14" t="s">
+      <c r="F63" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J63" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J63" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="10">
+      <c r="K63" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L63" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="9">
         <v>62</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="24" t="s">
+      <c r="C64" s="63"/>
+      <c r="D64" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="35" t="s">
+      <c r="F64" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="I64" s="31" t="s">
+      <c r="I64" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J64" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J64" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="10">
+      <c r="K64" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="9">
         <v>63</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="63"/>
+      <c r="D65" s="16" t="s">
         <v>132</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G65" s="14" t="s">
+      <c r="F65" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G65" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I65" s="31" t="s">
+      <c r="I65" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J65" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J65" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="10">
+      <c r="K65" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L65" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="9">
         <v>64</v>
       </c>
-      <c r="C66" s="65"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F66" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G66" s="14" t="s">
+      <c r="F66" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="I66" s="31" t="s">
+      <c r="I66" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J66" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J66" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="10">
+      <c r="K66" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L66" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="9">
         <v>65</v>
       </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="24" t="s">
+      <c r="C67" s="63"/>
+      <c r="D67" s="19" t="s">
         <v>136</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F67" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G67" s="14" t="s">
+      <c r="F67" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I67" s="31" t="s">
+      <c r="I67" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J67" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="J67" s="14" t="s">
-        <v>160</v>
+      <c r="K67" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L67" s="61" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4530,10 +5209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4541,659 +5220,923 @@
     <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="14.5" customHeight="1">
-      <c r="B3" s="10">
+      <c r="L2" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.5" customHeight="1">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="10">
+      <c r="I4" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I13" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="10">
-        <v>9</v>
-      </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="10">
-        <v>10</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="10">
-        <v>11</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="10">
-        <v>12</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="10">
+      <c r="I15" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="41" t="s">
         <v>312</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="10">
+      <c r="F16" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="10">
+      <c r="F17" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="47" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="10">
+      <c r="F18" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="10">
+      <c r="F19" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="10">
+      <c r="F20" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="10">
+      <c r="F21" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="14" t="s">
         <v>322</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="10">
+      <c r="F22" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="9">
         <v>21</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="10">
+      <c r="I23" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="64"/>
+      <c r="D24" s="41" t="s">
         <v>326</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>160</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="10">
+        <v>352</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="9">
         <v>23</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="47" t="s">
+      <c r="C25" s="64"/>
+      <c r="D25" s="41" t="s">
         <v>328</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>353</v>
+      <c r="F25" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="10">
+        <v>356</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="9">
         <v>24</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="47" t="s">
+      <c r="C26" s="64"/>
+      <c r="D26" s="41" t="s">
         <v>330</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="10">
+      <c r="F26" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="41" t="s">
         <v>332</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="10">
+      <c r="F27" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="9">
         <v>26</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="47" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="10">
+      <c r="F28" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="10">
+      <c r="F29" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="41" t="s">
         <v>338</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="F30" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="35" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5208,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23902C-6C91-46EC-B5AE-D4AA37303527}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5222,12 +6165,13 @@
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -5240,330 +6184,451 @@
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="31">
+      <c r="L2" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>169</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="31">
+      <c r="F3" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="31">
+      <c r="F4" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="31">
+      <c r="F5" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="27">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="31">
+      <c r="F6" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="31">
+      <c r="F7" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="31" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="31">
+      <c r="F8" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="27">
         <v>7</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="31" t="s">
         <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="37"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="31">
+      <c r="F9" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="31">
+      <c r="F10" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="27">
         <v>9</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="31">
+      <c r="F11" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="27">
         <v>10</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="31">
+      <c r="F12" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="27">
         <v>11</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="31">
+      <c r="F13" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="31">
+      <c r="F14" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="27">
         <v>13</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="31">
+      <c r="F15" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="27">
         <v>14</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="31">
+      <c r="F16" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="27">
         <v>15</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="37"/>
+      <c r="F17" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="35" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5577,83 +6642,362 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B859A50-ED05-46F2-91DE-7642084A2795}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9"/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="37"/>
-    <col min="3" max="3" width="13.453125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.36328125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="37"/>
+    <col min="1" max="1" width="8.7265625" style="32"/>
+    <col min="2" max="2" width="2.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="32"/>
+    <col min="4" max="4" width="13.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="67.08984375" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="37" t="s">
+    <row r="2" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B2" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="2:7" s="55" customFormat="1" ht="14.5" customHeight="1">
+      <c r="B3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B4" s="70">
+        <v>1</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="59">
+        <v>16</v>
+      </c>
+      <c r="F4" s="70">
+        <f>SUM(E4:E7)</f>
+        <v>124</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B5" s="70"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2" s="61">
+      <c r="E5" s="59">
+        <v>65</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B6" s="70"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="59">
+        <v>28</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B7" s="70"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="59">
+        <v>15</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B8" s="59">
+        <v>2</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B11" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+    </row>
+    <row r="12" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B13" s="70">
+        <v>1</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="59">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="69"/>
-      <c r="C3" s="37" t="s">
+      <c r="F13" s="70">
+        <f>SUM(E13:E16)</f>
+        <v>124</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B14" s="70"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="59">
+        <v>65</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="61">
+      <c r="E15" s="59">
+        <v>28</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="69"/>
+    </row>
+    <row r="16" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B16" s="70"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="59">
+        <v>15</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="69"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B17" s="59">
+        <v>2</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B20" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B21" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B22" s="70">
+        <v>1</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="59">
+        <v>16</v>
+      </c>
+      <c r="F22" s="70">
+        <f>SUM(E22:E25)</f>
+        <v>124</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="59">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="69"/>
-      <c r="C4" s="37" t="s">
+      <c r="F23" s="70"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B24" s="70"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="59">
+        <v>28</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="61">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="69"/>
-      <c r="C5" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="61">
+      <c r="E25" s="59">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="C6" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" s="64">
-        <f>SUM(E2:E5)</f>
-        <v>124</v>
+      <c r="F25" s="70"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B26" s="59">
+        <v>2</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B5"/>
+  <mergeCells count="15">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis (Module GLIK).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17540889-8BC8-4C92-AA62-166443530D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C09018-22E5-411B-A762-ADD8E2D8FE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Persiapan (old)" sheetId="2" r:id="rId1"/>
@@ -1522,6 +1522,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1541,19 +1544,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1921,10 +1921,10 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="21" t="s">
@@ -1948,8 +1948,8 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="21" t="s">
         <v>139</v>
       </c>
@@ -1971,8 +1971,8 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="21" t="s">
         <v>140</v>
       </c>
@@ -1994,8 +1994,8 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="21" t="s">
         <v>141</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="21" t="s">
         <v>142</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="21" t="s">
         <v>143</v>
       </c>
@@ -2065,8 +2065,8 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="21" t="s">
         <v>144</v>
       </c>
@@ -2088,8 +2088,8 @@
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="21" t="s">
         <v>145</v>
       </c>
@@ -2111,8 +2111,8 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="21" t="s">
         <v>146</v>
       </c>
@@ -2134,8 +2134,8 @@
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="21" t="s">
         <v>147</v>
       </c>
@@ -2157,8 +2157,8 @@
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="21" t="s">
         <v>148</v>
       </c>
@@ -2180,8 +2180,8 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="21" t="s">
         <v>149</v>
       </c>
@@ -2203,8 +2203,8 @@
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="21" t="s">
         <v>150</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="21" t="s">
         <v>153</v>
       </c>
@@ -2253,10 +2253,10 @@
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="21" t="s">
         <v>156</v>
       </c>
@@ -2278,8 +2278,8 @@
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="21" t="s">
         <v>157</v>
       </c>
@@ -2301,8 +2301,8 @@
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="21" t="s">
         <v>158</v>
       </c>
@@ -2324,8 +2324,8 @@
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="21" t="s">
         <v>149</v>
       </c>
@@ -2347,8 +2347,8 @@
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="21" t="s">
         <v>150</v>
       </c>
@@ -2386,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA68C8A-DA6F-4481-B8E4-BFBE438FF51F}">
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2446,7 +2446,7 @@
       <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="45" t="s">
@@ -2477,7 +2477,7 @@
       <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="45" t="s">
         <v>231</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="45" t="s">
         <v>233</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="B6" s="45">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="45" t="s">
         <v>235</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="B7" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="45" t="s">
         <v>237</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="B8" s="45">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="45" t="s">
         <v>239</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="B9" s="45">
         <v>7</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="45" t="s">
         <v>241</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="B10" s="45">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="45" t="s">
         <v>243</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="B11" s="45">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="45" t="s">
         <v>245</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="B12" s="45">
         <v>10</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="45" t="s">
         <v>247</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="B13" s="45">
         <v>11</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="45" t="s">
         <v>247</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="B14" s="45">
         <v>12</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="67" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="45" t="s">
@@ -2801,7 +2801,7 @@
       <c r="B15" s="45">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="45" t="s">
         <v>247</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="B16" s="45">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="45" t="s">
         <v>248</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="B17" s="45">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="45" t="s">
         <v>250</v>
       </c>
@@ -2950,32 +2950,6 @@
       <c r="I21" s="7"/>
       <c r="J21" s="42"/>
       <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="I22" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="I24" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="I25" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="I26" s="1">
-        <f>SUM(I22:I25)</f>
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3048,7 +3022,7 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3083,7 +3057,7 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
@@ -3116,7 +3090,7 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
@@ -3149,7 +3123,7 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
@@ -3182,7 +3156,7 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3189,7 @@
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
@@ -3248,7 +3222,7 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
@@ -3281,7 +3255,7 @@
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3288,7 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
@@ -3347,7 +3321,7 @@
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
@@ -3380,7 +3354,7 @@
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="17" t="s">
         <v>23</v>
       </c>
@@ -3413,7 +3387,7 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="17" t="s">
         <v>25</v>
       </c>
@@ -3446,7 +3420,7 @@
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="14" t="s">
         <v>27</v>
       </c>
@@ -3479,7 +3453,7 @@
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3486,7 @@
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
@@ -3545,7 +3519,7 @@
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="15" t="s">
         <v>33</v>
       </c>
@@ -3578,7 +3552,7 @@
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="15" t="s">
         <v>35</v>
       </c>
@@ -3611,7 +3585,7 @@
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="17" t="s">
         <v>37</v>
       </c>
@@ -3644,7 +3618,7 @@
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="15" t="s">
         <v>39</v>
       </c>
@@ -3677,7 +3651,7 @@
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="17" t="s">
         <v>41</v>
       </c>
@@ -3710,7 +3684,7 @@
       <c r="B23" s="9">
         <v>21</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="15" t="s">
         <v>43</v>
       </c>
@@ -3743,7 +3717,7 @@
       <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="17" t="s">
         <v>45</v>
       </c>
@@ -3776,7 +3750,7 @@
       <c r="B25" s="9">
         <v>23</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -3811,7 +3785,7 @@
       <c r="B26" s="9">
         <v>24</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
@@ -3844,7 +3818,7 @@
       <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="16" t="s">
         <v>54</v>
       </c>
@@ -3877,7 +3851,7 @@
       <c r="B28" s="9">
         <v>26</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="19" t="s">
         <v>56</v>
       </c>
@@ -3910,7 +3884,7 @@
       <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="22" t="s">
         <v>58</v>
       </c>
@@ -3943,7 +3917,7 @@
       <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="19" t="s">
         <v>60</v>
       </c>
@@ -3976,7 +3950,7 @@
       <c r="B31" s="9">
         <v>29</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="16" t="s">
         <v>62</v>
       </c>
@@ -4009,7 +3983,7 @@
       <c r="B32" s="9">
         <v>30</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="22" t="s">
         <v>64</v>
       </c>
@@ -4042,7 +4016,7 @@
       <c r="B33" s="9">
         <v>31</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="19" t="s">
         <v>66</v>
       </c>
@@ -4075,7 +4049,7 @@
       <c r="B34" s="9">
         <v>32</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="22" t="s">
         <v>68</v>
       </c>
@@ -4108,7 +4082,7 @@
       <c r="B35" s="9">
         <v>33</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="19" t="s">
         <v>70</v>
       </c>
@@ -4141,7 +4115,7 @@
       <c r="B36" s="9">
         <v>34</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="22" t="s">
         <v>72</v>
       </c>
@@ -4174,7 +4148,7 @@
       <c r="B37" s="9">
         <v>35</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="22" t="s">
         <v>74</v>
       </c>
@@ -4207,7 +4181,7 @@
       <c r="B38" s="9">
         <v>36</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="19" t="s">
         <v>76</v>
       </c>
@@ -4240,7 +4214,7 @@
       <c r="B39" s="9">
         <v>37</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="22" t="s">
         <v>78</v>
       </c>
@@ -4273,7 +4247,7 @@
       <c r="B40" s="9">
         <v>38</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="22" t="s">
         <v>80</v>
       </c>
@@ -4306,7 +4280,7 @@
       <c r="B41" s="9">
         <v>39</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="22" t="s">
         <v>82</v>
       </c>
@@ -4339,7 +4313,7 @@
       <c r="B42" s="9">
         <v>40</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="22" t="s">
         <v>84</v>
       </c>
@@ -4372,7 +4346,7 @@
       <c r="B43" s="9">
         <v>41</v>
       </c>
-      <c r="C43" s="63"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="19" t="s">
         <v>86</v>
       </c>
@@ -4405,7 +4379,7 @@
       <c r="B44" s="9">
         <v>42</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="29" t="s">
         <v>88</v>
       </c>
@@ -4438,7 +4412,7 @@
       <c r="B45" s="9">
         <v>43</v>
       </c>
-      <c r="C45" s="63"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="29" t="s">
         <v>90</v>
       </c>
@@ -4471,7 +4445,7 @@
       <c r="B46" s="9">
         <v>44</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="19" t="s">
         <v>92</v>
       </c>
@@ -4504,7 +4478,7 @@
       <c r="B47" s="9">
         <v>45</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="64" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="22" t="s">
@@ -4539,7 +4513,7 @@
       <c r="B48" s="9">
         <v>46</v>
       </c>
-      <c r="C48" s="63"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="16" t="s">
         <v>96</v>
       </c>
@@ -4572,7 +4546,7 @@
       <c r="B49" s="9">
         <v>47</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="19" t="s">
         <v>97</v>
       </c>
@@ -4605,7 +4579,7 @@
       <c r="B50" s="9">
         <v>48</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="16" t="s">
         <v>98</v>
       </c>
@@ -4638,7 +4612,7 @@
       <c r="B51" s="9">
         <v>49</v>
       </c>
-      <c r="C51" s="63"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="22" t="s">
         <v>99</v>
       </c>
@@ -4671,7 +4645,7 @@
       <c r="B52" s="9">
         <v>50</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="19" t="s">
         <v>100</v>
       </c>
@@ -4704,7 +4678,7 @@
       <c r="B53" s="9">
         <v>51</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="16" t="s">
         <v>101</v>
       </c>
@@ -4737,7 +4711,7 @@
       <c r="B54" s="9">
         <v>52</v>
       </c>
-      <c r="C54" s="63"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="19" t="s">
         <v>102</v>
       </c>
@@ -4770,7 +4744,7 @@
       <c r="B55" s="9">
         <v>53</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="16" t="s">
         <v>103</v>
       </c>
@@ -4803,7 +4777,7 @@
       <c r="B56" s="9">
         <v>54</v>
       </c>
-      <c r="C56" s="63"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="22" t="s">
         <v>104</v>
       </c>
@@ -4836,7 +4810,7 @@
       <c r="B57" s="9">
         <v>55</v>
       </c>
-      <c r="C57" s="63"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="22" t="s">
         <v>115</v>
       </c>
@@ -4869,7 +4843,7 @@
       <c r="B58" s="9">
         <v>56</v>
       </c>
-      <c r="C58" s="63"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="22" t="s">
         <v>117</v>
       </c>
@@ -4902,7 +4876,7 @@
       <c r="B59" s="9">
         <v>57</v>
       </c>
-      <c r="C59" s="63"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="22" t="s">
         <v>120</v>
       </c>
@@ -4935,8 +4909,8 @@
       <c r="B60" s="9">
         <v>58</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="73" t="s">
+      <c r="C60" s="64"/>
+      <c r="D60" s="63" t="s">
         <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -4968,7 +4942,7 @@
       <c r="B61" s="9">
         <v>59</v>
       </c>
-      <c r="C61" s="63"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="22" t="s">
         <v>124</v>
       </c>
@@ -5001,7 +4975,7 @@
       <c r="B62" s="9">
         <v>60</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="22" t="s">
         <v>126</v>
       </c>
@@ -5034,7 +5008,7 @@
       <c r="B63" s="9">
         <v>61</v>
       </c>
-      <c r="C63" s="63"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="19" t="s">
         <v>128</v>
       </c>
@@ -5067,7 +5041,7 @@
       <c r="B64" s="9">
         <v>62</v>
       </c>
-      <c r="C64" s="63"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="19" t="s">
         <v>130</v>
       </c>
@@ -5100,7 +5074,7 @@
       <c r="B65" s="9">
         <v>63</v>
       </c>
-      <c r="C65" s="63"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="16" t="s">
         <v>132</v>
       </c>
@@ -5133,7 +5107,7 @@
       <c r="B66" s="9">
         <v>64</v>
       </c>
-      <c r="C66" s="63"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="22" t="s">
         <v>134</v>
       </c>
@@ -5166,7 +5140,7 @@
       <c r="B67" s="9">
         <v>65</v>
       </c>
-      <c r="C67" s="63"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="19" t="s">
         <v>136</v>
       </c>
@@ -5268,7 +5242,7 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -5301,7 +5275,7 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="41" t="s">
         <v>294</v>
       </c>
@@ -5332,7 +5306,7 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="41" t="s">
         <v>296</v>
       </c>
@@ -5363,7 +5337,7 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="41" t="s">
         <v>298</v>
       </c>
@@ -5394,7 +5368,7 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="41" t="s">
         <v>300</v>
       </c>
@@ -5425,7 +5399,7 @@
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="41" t="s">
         <v>302</v>
       </c>
@@ -5456,7 +5430,7 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="41" t="s">
         <v>304</v>
       </c>
@@ -5487,7 +5461,7 @@
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="41" t="s">
         <v>306</v>
       </c>
@@ -5518,7 +5492,7 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="41" t="s">
         <v>308</v>
       </c>
@@ -5549,7 +5523,7 @@
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -5582,7 +5556,7 @@
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="41" t="s">
         <v>288</v>
       </c>
@@ -5613,7 +5587,7 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="41" t="s">
         <v>290</v>
       </c>
@@ -5644,7 +5618,7 @@
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="41" t="s">
         <v>310</v>
       </c>
@@ -5675,7 +5649,7 @@
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="41" t="s">
         <v>312</v>
       </c>
@@ -5706,7 +5680,7 @@
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="41" t="s">
         <v>302</v>
       </c>
@@ -5737,7 +5711,7 @@
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="41" t="s">
         <v>314</v>
       </c>
@@ -5768,7 +5742,7 @@
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="41" t="s">
         <v>316</v>
       </c>
@@ -5799,7 +5773,7 @@
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="14" t="s">
         <v>318</v>
       </c>
@@ -5830,7 +5804,7 @@
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="14" t="s">
         <v>320</v>
       </c>
@@ -5861,7 +5835,7 @@
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="14" t="s">
         <v>322</v>
       </c>
@@ -5892,7 +5866,7 @@
       <c r="B23" s="9">
         <v>21</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="65" t="s">
         <v>324</v>
       </c>
       <c r="D23" s="41" t="s">
@@ -5925,7 +5899,7 @@
       <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="41" t="s">
         <v>326</v>
       </c>
@@ -5956,7 +5930,7 @@
       <c r="B25" s="9">
         <v>23</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="41" t="s">
         <v>328</v>
       </c>
@@ -5987,7 +5961,7 @@
       <c r="B26" s="9">
         <v>24</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="41" t="s">
         <v>330</v>
       </c>
@@ -6018,7 +5992,7 @@
       <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="41" t="s">
         <v>332</v>
       </c>
@@ -6049,7 +6023,7 @@
       <c r="B28" s="9">
         <v>26</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="41" t="s">
         <v>334</v>
       </c>
@@ -6080,7 +6054,7 @@
       <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="C29" s="64"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="41" t="s">
         <v>336</v>
       </c>
@@ -6111,7 +6085,7 @@
       <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="41" t="s">
         <v>338</v>
       </c>
@@ -6153,7 +6127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23902C-6C91-46EC-B5AE-D4AA37303527}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -6210,7 +6184,7 @@
       <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="31" t="s">
@@ -6240,7 +6214,7 @@
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="31" t="s">
         <v>171</v>
       </c>
@@ -6268,7 +6242,7 @@
       <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="31" t="s">
         <v>173</v>
       </c>
@@ -6296,7 +6270,7 @@
       <c r="B6" s="27">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="31" t="s">
         <v>175</v>
       </c>
@@ -6324,7 +6298,7 @@
       <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="31" t="s">
         <v>177</v>
       </c>
@@ -6352,7 +6326,7 @@
       <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="31" t="s">
         <v>179</v>
       </c>
@@ -6380,7 +6354,7 @@
       <c r="B9" s="27">
         <v>7</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="68" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="31" t="s">
@@ -6410,7 +6384,7 @@
       <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="31" t="s">
         <v>181</v>
       </c>
@@ -6438,7 +6412,7 @@
       <c r="B11" s="27">
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="31" t="s">
         <v>183</v>
       </c>
@@ -6466,7 +6440,7 @@
       <c r="B12" s="27">
         <v>10</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="31" t="s">
         <v>185</v>
       </c>
@@ -6494,7 +6468,7 @@
       <c r="B13" s="27">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="31" t="s">
         <v>187</v>
       </c>
@@ -6522,7 +6496,7 @@
       <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="31" t="s">
         <v>189</v>
       </c>
@@ -6550,7 +6524,7 @@
       <c r="B15" s="27">
         <v>13</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="31" t="s">
         <v>191</v>
       </c>
@@ -6578,7 +6552,7 @@
       <c r="B16" s="27">
         <v>14</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="31" t="s">
         <v>193</v>
       </c>
@@ -6606,7 +6580,7 @@
       <c r="B17" s="27">
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="31" t="s">
         <v>195</v>
       </c>
@@ -6661,14 +6635,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="2:7" s="55" customFormat="1" ht="14.5" customHeight="1">
       <c r="B3" s="56" t="s">
@@ -6694,7 +6668,7 @@
       <c r="B4" s="70">
         <v>1</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>365</v>
       </c>
       <c r="D4" s="58" t="s">
@@ -6707,13 +6681,13 @@
         <f>SUM(E4:E7)</f>
         <v>124</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.5" customHeight="1">
       <c r="B5" s="70"/>
-      <c r="C5" s="69"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="58" t="s">
         <v>344</v>
       </c>
@@ -6721,11 +6695,11 @@
         <v>65</v>
       </c>
       <c r="F5" s="70"/>
-      <c r="G5" s="69"/>
+      <c r="G5" s="71"/>
     </row>
     <row r="6" spans="2:7" ht="14.5" customHeight="1">
       <c r="B6" s="70"/>
-      <c r="C6" s="69"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="58" t="s">
         <v>345</v>
       </c>
@@ -6733,11 +6707,11 @@
         <v>28</v>
       </c>
       <c r="F6" s="70"/>
-      <c r="G6" s="69"/>
+      <c r="G6" s="71"/>
     </row>
     <row r="7" spans="2:7" ht="14.5" customHeight="1">
       <c r="B7" s="70"/>
-      <c r="C7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="58" t="s">
         <v>346</v>
       </c>
@@ -6745,7 +6719,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="70"/>
-      <c r="G7" s="69"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:7" ht="14.5" customHeight="1">
       <c r="B8" s="59">
@@ -6768,14 +6742,14 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="2:7" ht="14.5" customHeight="1">
       <c r="B12" s="56" t="s">
@@ -6801,7 +6775,7 @@
       <c r="B13" s="70">
         <v>1</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="71" t="s">
         <v>365</v>
       </c>
       <c r="D13" s="58" t="s">
@@ -6814,13 +6788,13 @@
         <f>SUM(E13:E16)</f>
         <v>124</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.5" customHeight="1">
       <c r="B14" s="70"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="58" t="s">
         <v>344</v>
       </c>
@@ -6828,11 +6802,11 @@
         <v>65</v>
       </c>
       <c r="F14" s="70"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="2:7" ht="14.5" customHeight="1">
       <c r="B15" s="70"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="58" t="s">
         <v>345</v>
       </c>
@@ -6840,11 +6814,11 @@
         <v>28</v>
       </c>
       <c r="F15" s="70"/>
-      <c r="G15" s="69"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="2:7" ht="14.5" customHeight="1">
       <c r="B16" s="70"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="58" t="s">
         <v>346</v>
       </c>
@@ -6852,7 +6826,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="70"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" ht="14.5" customHeight="1">
       <c r="B17" s="59">
@@ -6875,14 +6849,14 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="69" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="2:7" ht="14.5" customHeight="1">
       <c r="B21" s="56" t="s">
@@ -6908,7 +6882,7 @@
       <c r="B22" s="70">
         <v>1</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="71" t="s">
         <v>365</v>
       </c>
       <c r="D22" s="58" t="s">
@@ -6921,13 +6895,13 @@
         <f>SUM(E22:E25)</f>
         <v>124</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="72" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1">
       <c r="B23" s="70"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="58" t="s">
         <v>344</v>
       </c>
@@ -6935,11 +6909,11 @@
         <v>65</v>
       </c>
       <c r="F23" s="70"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="2:7" ht="14.5" customHeight="1">
       <c r="B24" s="70"/>
-      <c r="C24" s="69"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="58" t="s">
         <v>345</v>
       </c>
@@ -6947,11 +6921,11 @@
         <v>28</v>
       </c>
       <c r="F24" s="70"/>
-      <c r="G24" s="72"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="2:7" ht="14.5" customHeight="1">
       <c r="B25" s="70"/>
-      <c r="C25" s="69"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="58" t="s">
         <v>346</v>
       </c>
@@ -6959,7 +6933,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="70"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="2:7" ht="14.5" customHeight="1">
       <c r="B26" s="59">
